--- a/data/532/HKCSD/Real Gross Value Added.xlsx
+++ b/data/532/HKCSD/Real Gross Value Added.xlsx
@@ -4,7 +4,7 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="HKC" sheetId="1" state="visible" r:id="rId1"/>
@@ -12,185 +12,6 @@
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
-</file>
-
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="58">
-  <si>
-    <t>Year</t>
-  </si>
-  <si>
-    <t>2000</t>
-  </si>
-  <si>
-    <t>2001</t>
-  </si>
-  <si>
-    <t>2002</t>
-  </si>
-  <si>
-    <t>2003</t>
-  </si>
-  <si>
-    <t>2004</t>
-  </si>
-  <si>
-    <t>2005</t>
-  </si>
-  <si>
-    <t>2006</t>
-  </si>
-  <si>
-    <t>2007</t>
-  </si>
-  <si>
-    <t>2008</t>
-  </si>
-  <si>
-    <t>2009</t>
-  </si>
-  <si>
-    <t>2010</t>
-  </si>
-  <si>
-    <t>2011</t>
-  </si>
-  <si>
-    <t>2012</t>
-  </si>
-  <si>
-    <t>2013</t>
-  </si>
-  <si>
-    <t>2014</t>
-  </si>
-  <si>
-    <t>2015</t>
-  </si>
-  <si>
-    <t>2016</t>
-  </si>
-  <si>
-    <t>2017</t>
-  </si>
-  <si>
-    <t>2018</t>
-  </si>
-  <si>
-    <t>2019 r</t>
-  </si>
-  <si>
-    <t>2020 r</t>
-  </si>
-  <si>
-    <t>2019</t>
-  </si>
-  <si>
-    <t>2020</t>
-  </si>
-  <si>
-    <t>2021</t>
-  </si>
-  <si>
-    <t>Quarter</t>
-  </si>
-  <si>
-    <t>Q1</t>
-  </si>
-  <si>
-    <t>Q2</t>
-  </si>
-  <si>
-    <t>Q3</t>
-  </si>
-  <si>
-    <t>Q4</t>
-  </si>
-  <si>
-    <t>Q1 r</t>
-  </si>
-  <si>
-    <t>Q2 r</t>
-  </si>
-  <si>
-    <t>Q3 r</t>
-  </si>
-  <si>
-    <t>Q4 r</t>
-  </si>
-  <si>
-    <t>Q3 P</t>
-  </si>
-  <si>
-    <t>Economic Activity</t>
-  </si>
-  <si>
-    <t>In chained (2019) dollars</t>
-  </si>
-  <si>
-    <t>HK$ million</t>
-  </si>
-  <si>
-    <t>Agriculture, fishing, mining and quarrying</t>
-  </si>
-  <si>
-    <t>Manufacturing</t>
-  </si>
-  <si>
-    <t>Electricity, gas and water supply, and waste management</t>
-  </si>
-  <si>
-    <t>Construction</t>
-  </si>
-  <si>
-    <t>Services</t>
-  </si>
-  <si>
-    <t>Import/export, wholesale and retail trades</t>
-  </si>
-  <si>
-    <t>Import and export trade</t>
-  </si>
-  <si>
-    <t>Wholesale and retail trades</t>
-  </si>
-  <si>
-    <t>Accommodation and food services (1)</t>
-  </si>
-  <si>
-    <t>Transportation, storage, postal and courier services</t>
-  </si>
-  <si>
-    <t>Transportation and storage</t>
-  </si>
-  <si>
-    <t>Postal and courier services</t>
-  </si>
-  <si>
-    <t>Information and communications</t>
-  </si>
-  <si>
-    <t>Financing and insurance</t>
-  </si>
-  <si>
-    <t>Real estate, professional and business services</t>
-  </si>
-  <si>
-    <t>Real estate</t>
-  </si>
-  <si>
-    <t>Professional and business services</t>
-  </si>
-  <si>
-    <t>Public administration, social and personal services</t>
-  </si>
-  <si>
-    <t>Ownership of premises</t>
-  </si>
-  <si>
-    <t>Taxes on products</t>
-  </si>
-</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -216,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -228,6 +49,55 @@
       <left style="thin"/>
       <right style="thin"/>
       <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top/>
       <bottom style="thin"/>
       <diagonal/>
     </border>
@@ -537,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:DG23"/>
+  <dimension ref="A1:DI23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -545,550 +415,880 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:111">
-      <c r="C1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z1" s="1" t="n"/>
+    <row r="1">
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Year</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="J1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="K1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="M1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="N1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="O1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="R1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="S1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="U1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="V1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="W1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="inlineStr">
+        <is>
+          <t>2020 r</t>
+        </is>
+      </c>
+      <c r="Y1" s="1" t="inlineStr">
+        <is>
+          <t>2021 P</t>
+        </is>
+      </c>
+      <c r="Z1" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
       <c r="AA1" s="1" t="n"/>
       <c r="AB1" s="1" t="n"/>
-      <c r="AC1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="AD1" s="1" t="n"/>
+      <c r="AC1" s="1" t="n"/>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
       <c r="AE1" s="1" t="n"/>
       <c r="AF1" s="1" t="n"/>
-      <c r="AG1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="AH1" s="1" t="n"/>
+      <c r="AG1" s="1" t="n"/>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
       <c r="AI1" s="1" t="n"/>
       <c r="AJ1" s="1" t="n"/>
-      <c r="AK1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="AL1" s="1" t="n"/>
+      <c r="AK1" s="1" t="n"/>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
       <c r="AM1" s="1" t="n"/>
       <c r="AN1" s="1" t="n"/>
-      <c r="AO1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="AP1" s="1" t="n"/>
+      <c r="AO1" s="1" t="n"/>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
       <c r="AQ1" s="1" t="n"/>
       <c r="AR1" s="1" t="n"/>
-      <c r="AS1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="AT1" s="1" t="n"/>
+      <c r="AS1" s="1" t="n"/>
+      <c r="AT1" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
       <c r="AU1" s="1" t="n"/>
       <c r="AV1" s="1" t="n"/>
-      <c r="AW1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="AX1" s="1" t="n"/>
+      <c r="AW1" s="1" t="n"/>
+      <c r="AX1" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
       <c r="AY1" s="1" t="n"/>
       <c r="AZ1" s="1" t="n"/>
-      <c r="BA1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="BB1" s="1" t="n"/>
+      <c r="BA1" s="1" t="n"/>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
       <c r="BC1" s="1" t="n"/>
       <c r="BD1" s="1" t="n"/>
-      <c r="BE1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="BF1" s="1" t="n"/>
+      <c r="BE1" s="1" t="n"/>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
       <c r="BG1" s="1" t="n"/>
       <c r="BH1" s="1" t="n"/>
-      <c r="BI1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="BJ1" s="1" t="n"/>
+      <c r="BI1" s="1" t="n"/>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
       <c r="BK1" s="1" t="n"/>
       <c r="BL1" s="1" t="n"/>
-      <c r="BM1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="BN1" s="1" t="n"/>
+      <c r="BM1" s="1" t="n"/>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
       <c r="BO1" s="1" t="n"/>
       <c r="BP1" s="1" t="n"/>
-      <c r="BQ1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="BR1" s="1" t="n"/>
+      <c r="BQ1" s="1" t="n"/>
+      <c r="BR1" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
       <c r="BS1" s="1" t="n"/>
       <c r="BT1" s="1" t="n"/>
-      <c r="BU1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="BV1" s="1" t="n"/>
+      <c r="BU1" s="1" t="n"/>
+      <c r="BV1" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
       <c r="BW1" s="1" t="n"/>
       <c r="BX1" s="1" t="n"/>
-      <c r="BY1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="BZ1" s="1" t="n"/>
+      <c r="BY1" s="1" t="n"/>
+      <c r="BZ1" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
       <c r="CA1" s="1" t="n"/>
       <c r="CB1" s="1" t="n"/>
-      <c r="CC1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="CD1" s="1" t="n"/>
+      <c r="CC1" s="1" t="n"/>
+      <c r="CD1" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
       <c r="CE1" s="1" t="n"/>
       <c r="CF1" s="1" t="n"/>
-      <c r="CG1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="CH1" s="1" t="n"/>
+      <c r="CG1" s="1" t="n"/>
+      <c r="CH1" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
       <c r="CI1" s="1" t="n"/>
       <c r="CJ1" s="1" t="n"/>
-      <c r="CK1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="CL1" s="1" t="n"/>
+      <c r="CK1" s="1" t="n"/>
+      <c r="CL1" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
       <c r="CM1" s="1" t="n"/>
       <c r="CN1" s="1" t="n"/>
-      <c r="CO1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="CP1" s="1" t="n"/>
+      <c r="CO1" s="1" t="n"/>
+      <c r="CP1" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
       <c r="CQ1" s="1" t="n"/>
       <c r="CR1" s="1" t="n"/>
-      <c r="CS1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="CT1" s="1" t="n"/>
+      <c r="CS1" s="1" t="n"/>
+      <c r="CT1" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
       <c r="CU1" s="1" t="n"/>
       <c r="CV1" s="1" t="n"/>
-      <c r="CW1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="CX1" s="1" t="n"/>
+      <c r="CW1" s="1" t="n"/>
+      <c r="CX1" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
       <c r="CY1" s="1" t="n"/>
       <c r="CZ1" s="1" t="n"/>
-      <c r="DA1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="DB1" s="1" t="n"/>
+      <c r="DA1" s="1" t="n"/>
+      <c r="DB1" s="1" t="inlineStr">
+        <is>
+          <t>2020</t>
+        </is>
+      </c>
       <c r="DC1" s="1" t="n"/>
       <c r="DD1" s="1" t="n"/>
-      <c r="DE1" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="DF1" s="1" t="n"/>
+      <c r="DE1" s="1" t="n"/>
+      <c r="DF1" s="1" t="inlineStr">
+        <is>
+          <t>2021</t>
+        </is>
+      </c>
       <c r="DG1" s="1" t="n"/>
+      <c r="DH1" s="1" t="n"/>
+      <c r="DI1" s="1" t="n"/>
     </row>
-    <row r="2" spans="1:111">
-      <c r="C2" s="1" t="s">
-        <v>25</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="J2" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K2" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="L2" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="M2" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="N2" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="O2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="P2" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="Q2" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="R2" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="S2" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="T2" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="U2" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="V2" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="W2" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="X2" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="Y2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="Z2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AA2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AB2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AC2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AD2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AE2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AF2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AG2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AH2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AI2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AK2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AL2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AM2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AN2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AO2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AP2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AQ2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AR2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AS2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AT2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AU2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AV2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="AW2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="AX2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="AY2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="AZ2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BA2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BB2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BC2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BD2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BE2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BF2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BG2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BH2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BI2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BJ2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BK2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BL2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BM2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BN2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BO2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BP2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BQ2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BR2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BS2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BT2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BU2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BV2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="BW2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="BX2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="BY2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="BZ2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="CA2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="CB2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="CC2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CD2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="CE2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="CF2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="CG2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CH2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="CI2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="CJ2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="CK2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CL2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="CM2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="CN2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="CO2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CP2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="CQ2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="CR2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="CS2" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="CT2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="CU2" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="CV2" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="CW2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="CX2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="CY2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="CZ2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="DA2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="DB2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="DC2" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="DD2" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="DE2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="DF2" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="DG2" s="1" t="s">
-        <v>34</v>
+    <row r="2">
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>Quarter</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>2000</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>2001</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>2002</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>2003</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>2004</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>2005</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>2006</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>2007</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>2008</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>2009</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>2010</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>2011</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t>2012</t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>2013</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>2014</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>2015</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>2016</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>2017</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>2018</t>
+        </is>
+      </c>
+      <c r="W2" s="1" t="inlineStr">
+        <is>
+          <t>2019</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t>2020 r</t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="inlineStr">
+        <is>
+          <t>2021 P</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="AA2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="AB2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="AC2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="AD2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="AE2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="AF2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="AG2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="AH2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="AI2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="AJ2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="AK2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="AL2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="AM2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="AN2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="AO2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="AP2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="AQ2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="AR2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="AS2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="AT2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="AU2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="AV2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="AW2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="AX2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="AY2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="AZ2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="BA2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="BB2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="BC2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="BD2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="BE2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="BF2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="BG2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="BH2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="BI2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="BJ2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="BK2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="BL2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="BM2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="BN2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="BO2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="BP2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="BQ2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="BR2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="BS2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="BT2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="BU2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="BV2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="BW2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="BX2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="BY2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="BZ2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="CA2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="CB2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="CC2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="CD2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="CE2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="CF2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="CG2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="CH2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="CI2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="CJ2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="CK2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="CL2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="CM2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="CN2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="CO2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="CP2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="CQ2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="CR2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="CS2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="CT2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="CU2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="CV2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="CW2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="CX2" s="1" t="inlineStr">
+        <is>
+          <t>Q1</t>
+        </is>
+      </c>
+      <c r="CY2" s="1" t="inlineStr">
+        <is>
+          <t>Q2</t>
+        </is>
+      </c>
+      <c r="CZ2" s="1" t="inlineStr">
+        <is>
+          <t>Q3</t>
+        </is>
+      </c>
+      <c r="DA2" s="1" t="inlineStr">
+        <is>
+          <t>Q4</t>
+        </is>
+      </c>
+      <c r="DB2" s="1" t="inlineStr">
+        <is>
+          <t>Q1 r</t>
+        </is>
+      </c>
+      <c r="DC2" s="1" t="inlineStr">
+        <is>
+          <t>Q2 r</t>
+        </is>
+      </c>
+      <c r="DD2" s="1" t="inlineStr">
+        <is>
+          <t>Q3 r</t>
+        </is>
+      </c>
+      <c r="DE2" s="1" t="inlineStr">
+        <is>
+          <t>Q4 r</t>
+        </is>
+      </c>
+      <c r="DF2" s="1" t="inlineStr">
+        <is>
+          <t>Q1 r</t>
+        </is>
+      </c>
+      <c r="DG2" s="1" t="inlineStr">
+        <is>
+          <t>Q2 r</t>
+        </is>
+      </c>
+      <c r="DH2" s="1" t="inlineStr">
+        <is>
+          <t>Q3 r</t>
+        </is>
+      </c>
+      <c r="DI2" s="1" t="inlineStr">
+        <is>
+          <t>Q4 P</t>
+        </is>
       </c>
     </row>
-    <row r="3" spans="1:111">
-      <c r="A3" s="1" t="s"/>
-      <c r="B3" s="1" t="s"/>
-      <c r="C3" s="1" t="s">
-        <v>35</v>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr"/>
+      <c r="B3" s="1" t="inlineStr"/>
+      <c r="C3" s="1" t="inlineStr">
+        <is>
+          <t>Economic Activity</t>
+        </is>
       </c>
     </row>
-    <row r="4" spans="1:111">
-      <c r="A4" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>38</v>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>In chained (2019) dollars</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="inlineStr">
+        <is>
+          <t>HK$ million</t>
+        </is>
+      </c>
+      <c r="C4" s="1" t="inlineStr">
+        <is>
+          <t>Agriculture, fishing, mining and quarrying</t>
+        </is>
       </c>
       <c r="D4" t="n">
         <v>3594</v>
@@ -1151,275 +1351,283 @@
         <v>2057</v>
       </c>
       <c r="X4" t="n">
-        <v>2157</v>
+        <v>2135</v>
       </c>
       <c r="Y4" t="n">
+        <v>2071</v>
+      </c>
+      <c r="Z4" t="n">
         <v>980</v>
       </c>
-      <c r="Z4" t="n">
-        <v>877</v>
-      </c>
       <c r="AA4" t="n">
-        <v>843</v>
+        <v>878</v>
       </c>
       <c r="AB4" t="n">
+        <v>842</v>
+      </c>
+      <c r="AC4" t="n">
         <v>891</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>905</v>
       </c>
-      <c r="AD4" t="n">
-        <v>915</v>
-      </c>
       <c r="AE4" t="n">
-        <v>849</v>
+        <v>916</v>
       </c>
       <c r="AF4" t="n">
+        <v>848</v>
+      </c>
+      <c r="AG4" t="n">
         <v>933</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>885</v>
       </c>
-      <c r="AH4" t="n">
-        <v>930</v>
-      </c>
       <c r="AI4" t="n">
-        <v>797</v>
+        <v>931</v>
       </c>
       <c r="AJ4" t="n">
+        <v>796</v>
+      </c>
+      <c r="AK4" t="n">
         <v>895</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>851</v>
       </c>
-      <c r="AL4" t="n">
-        <v>887</v>
-      </c>
       <c r="AM4" t="n">
+        <v>888</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>752</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>830</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>837</v>
+      </c>
+      <c r="AQ4" t="n">
+        <v>881</v>
+      </c>
+      <c r="AR4" t="n">
+        <v>751</v>
+      </c>
+      <c r="AS4" t="n">
+        <v>866</v>
+      </c>
+      <c r="AT4" t="n">
+        <v>810</v>
+      </c>
+      <c r="AU4" t="n">
+        <v>910</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>764</v>
+      </c>
+      <c r="AW4" t="n">
+        <v>844</v>
+      </c>
+      <c r="AX4" t="n">
+        <v>792</v>
+      </c>
+      <c r="AY4" t="n">
+        <v>857</v>
+      </c>
+      <c r="AZ4" t="n">
         <v>753</v>
       </c>
-      <c r="AN4" t="n">
-        <v>830</v>
-      </c>
-      <c r="AO4" t="n">
-        <v>837</v>
-      </c>
-      <c r="AP4" t="n">
-        <v>880</v>
-      </c>
-      <c r="AQ4" t="n">
-        <v>752</v>
-      </c>
-      <c r="AR4" t="n">
-        <v>866</v>
-      </c>
-      <c r="AS4" t="n">
-        <v>810</v>
-      </c>
-      <c r="AT4" t="n">
-        <v>909</v>
-      </c>
-      <c r="AU4" t="n">
-        <v>765</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>844</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>792</v>
-      </c>
-      <c r="AX4" t="n">
-        <v>856</v>
-      </c>
-      <c r="AY4" t="n">
-        <v>754</v>
-      </c>
-      <c r="AZ4" t="n">
+      <c r="BA4" t="n">
         <v>815</v>
       </c>
-      <c r="BA4" t="n">
+      <c r="BB4" t="n">
         <v>756</v>
       </c>
-      <c r="BB4" t="n">
-        <v>832</v>
-      </c>
       <c r="BC4" t="n">
-        <v>720</v>
+        <v>833</v>
       </c>
       <c r="BD4" t="n">
+        <v>719</v>
+      </c>
+      <c r="BE4" t="n">
         <v>769</v>
       </c>
-      <c r="BE4" t="n">
+      <c r="BF4" t="n">
         <v>632</v>
       </c>
-      <c r="BF4" t="n">
-        <v>696</v>
-      </c>
       <c r="BG4" t="n">
-        <v>606</v>
+        <v>697</v>
       </c>
       <c r="BH4" t="n">
+        <v>605</v>
+      </c>
+      <c r="BI4" t="n">
         <v>622</v>
       </c>
-      <c r="BI4" t="n">
+      <c r="BJ4" t="n">
         <v>580</v>
       </c>
-      <c r="BJ4" t="n">
-        <v>644</v>
-      </c>
       <c r="BK4" t="n">
-        <v>593</v>
+        <v>645</v>
       </c>
       <c r="BL4" t="n">
+        <v>592</v>
+      </c>
+      <c r="BM4" t="n">
         <v>623</v>
       </c>
-      <c r="BM4" t="n">
+      <c r="BN4" t="n">
         <v>583</v>
       </c>
-      <c r="BN4" t="n">
-        <v>699</v>
-      </c>
       <c r="BO4" t="n">
-        <v>604</v>
+        <v>700</v>
       </c>
       <c r="BP4" t="n">
+        <v>603</v>
+      </c>
+      <c r="BQ4" t="n">
         <v>648</v>
       </c>
-      <c r="BQ4" t="n">
+      <c r="BR4" t="n">
         <v>548</v>
       </c>
-      <c r="BR4" t="n">
-        <v>739</v>
-      </c>
       <c r="BS4" t="n">
-        <v>643</v>
+        <v>740</v>
       </c>
       <c r="BT4" t="n">
+        <v>642</v>
+      </c>
+      <c r="BU4" t="n">
         <v>624</v>
       </c>
-      <c r="BU4" t="n">
+      <c r="BV4" t="n">
         <v>567</v>
       </c>
-      <c r="BV4" t="n">
-        <v>654</v>
-      </c>
       <c r="BW4" t="n">
+        <v>655</v>
+      </c>
+      <c r="BX4" t="n">
+        <v>630</v>
+      </c>
+      <c r="BY4" t="n">
+        <v>619</v>
+      </c>
+      <c r="BZ4" t="n">
+        <v>596</v>
+      </c>
+      <c r="CA4" t="n">
+        <v>715</v>
+      </c>
+      <c r="CB4" t="n">
+        <v>641</v>
+      </c>
+      <c r="CC4" t="n">
+        <v>640</v>
+      </c>
+      <c r="CD4" t="n">
+        <v>557</v>
+      </c>
+      <c r="CE4" t="n">
+        <v>657</v>
+      </c>
+      <c r="CF4" t="n">
+        <v>625</v>
+      </c>
+      <c r="CG4" t="n">
+        <v>597</v>
+      </c>
+      <c r="CH4" t="n">
+        <v>532</v>
+      </c>
+      <c r="CI4" t="n">
+        <v>623</v>
+      </c>
+      <c r="CJ4" t="n">
+        <v>568</v>
+      </c>
+      <c r="CK4" t="n">
+        <v>547</v>
+      </c>
+      <c r="CL4" t="n">
+        <v>507</v>
+      </c>
+      <c r="CM4" t="n">
         <v>631</v>
       </c>
-      <c r="BX4" t="n">
-        <v>619</v>
-      </c>
-      <c r="BY4" t="n">
-        <v>596</v>
-      </c>
-      <c r="BZ4" t="n">
-        <v>714</v>
-      </c>
-      <c r="CA4" t="n">
-        <v>642</v>
-      </c>
-      <c r="CB4" t="n">
-        <v>640</v>
-      </c>
-      <c r="CC4" t="n">
-        <v>557</v>
-      </c>
-      <c r="CD4" t="n">
-        <v>656</v>
-      </c>
-      <c r="CE4" t="n">
-        <v>626</v>
-      </c>
-      <c r="CF4" t="n">
-        <v>597</v>
-      </c>
-      <c r="CG4" t="n">
-        <v>532</v>
-      </c>
-      <c r="CH4" t="n">
-        <v>622</v>
-      </c>
-      <c r="CI4" t="n">
+      <c r="CN4" t="n">
+        <v>552</v>
+      </c>
+      <c r="CO4" t="n">
+        <v>535</v>
+      </c>
+      <c r="CP4" t="n">
+        <v>517</v>
+      </c>
+      <c r="CQ4" t="n">
+        <v>582</v>
+      </c>
+      <c r="CR4" t="n">
+        <v>510</v>
+      </c>
+      <c r="CS4" t="n">
+        <v>502</v>
+      </c>
+      <c r="CT4" t="n">
+        <v>486</v>
+      </c>
+      <c r="CU4" t="n">
         <v>569</v>
       </c>
-      <c r="CJ4" t="n">
-        <v>547</v>
-      </c>
-      <c r="CK4" t="n">
+      <c r="CV4" t="n">
         <v>507</v>
       </c>
-      <c r="CL4" t="n">
-        <v>630</v>
-      </c>
-      <c r="CM4" t="n">
-        <v>553</v>
-      </c>
-      <c r="CN4" t="n">
-        <v>535</v>
-      </c>
-      <c r="CO4" t="n">
-        <v>517</v>
-      </c>
-      <c r="CP4" t="n">
-        <v>581</v>
-      </c>
-      <c r="CQ4" t="n">
+      <c r="CW4" t="n">
         <v>511</v>
       </c>
-      <c r="CR4" t="n">
-        <v>502</v>
-      </c>
-      <c r="CS4" t="n">
+      <c r="CX4" t="n">
+        <v>492</v>
+      </c>
+      <c r="CY4" t="n">
+        <v>566</v>
+      </c>
+      <c r="CZ4" t="n">
         <v>486</v>
       </c>
-      <c r="CT4" t="n">
-        <v>568</v>
-      </c>
-      <c r="CU4" t="n">
-        <v>508</v>
-      </c>
-      <c r="CV4" t="n">
-        <v>511</v>
-      </c>
-      <c r="CW4" t="n">
-        <v>491</v>
-      </c>
-      <c r="CX4" t="n">
-        <v>564</v>
-      </c>
-      <c r="CY4" t="n">
-        <v>487</v>
-      </c>
-      <c r="CZ4" t="n">
-        <v>515</v>
-      </c>
       <c r="DA4" t="n">
-        <v>510</v>
+        <v>513</v>
       </c>
       <c r="DB4" t="n">
-        <v>598</v>
+        <v>509</v>
       </c>
       <c r="DC4" t="n">
-        <v>547</v>
+        <v>592</v>
       </c>
       <c r="DD4" t="n">
-        <v>501</v>
+        <v>541</v>
       </c>
       <c r="DE4" t="n">
-        <v>528</v>
+        <v>494</v>
       </c>
       <c r="DF4" t="n">
-        <v>573</v>
+        <v>527</v>
       </c>
       <c r="DG4" t="n">
-        <v>510</v>
+        <v>567</v>
+      </c>
+      <c r="DH4" t="n">
+        <v>504</v>
+      </c>
+      <c r="DI4" t="n">
+        <v>473</v>
       </c>
     </row>
-    <row r="5" spans="1:111">
+    <row r="5">
       <c r="A5" s="1" t="n"/>
       <c r="B5" s="1" t="n"/>
-      <c r="C5" s="1" t="s">
-        <v>39</v>
+      <c r="C5" s="1" t="inlineStr">
+        <is>
+          <t>Manufacturing</t>
+        </is>
       </c>
       <c r="D5" t="n">
         <v>43229</v>
@@ -1485,272 +1693,280 @@
         <v>27653</v>
       </c>
       <c r="Y5" t="n">
+        <v>29165</v>
+      </c>
+      <c r="Z5" t="n">
         <v>9633</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>10871</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>11594</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>11131</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>9228</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>10389</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>10199</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>9545</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>8156</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>9233</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>9489</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>8671</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>7347</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>7942</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
         <v>8499</v>
       </c>
-      <c r="AN5" t="n">
+      <c r="AO5" t="n">
         <v>8027</v>
       </c>
-      <c r="AO5" t="n">
+      <c r="AP5" t="n">
         <v>7426</v>
       </c>
-      <c r="AP5" t="n">
+      <c r="AQ5" t="n">
         <v>7987</v>
       </c>
-      <c r="AQ5" t="n">
+      <c r="AR5" t="n">
         <v>8758</v>
       </c>
-      <c r="AR5" t="n">
+      <c r="AS5" t="n">
         <v>8384</v>
       </c>
-      <c r="AS5" t="n">
+      <c r="AT5" t="n">
         <v>7207</v>
       </c>
-      <c r="AT5" t="n">
+      <c r="AU5" t="n">
         <v>7914</v>
       </c>
-      <c r="AU5" t="n">
+      <c r="AV5" t="n">
         <v>9099</v>
       </c>
-      <c r="AV5" t="n">
+      <c r="AW5" t="n">
         <v>8847</v>
       </c>
-      <c r="AW5" t="n">
+      <c r="AX5" t="n">
         <v>7687</v>
       </c>
-      <c r="AX5" t="n">
+      <c r="AY5" t="n">
         <v>8314</v>
       </c>
-      <c r="AY5" t="n">
+      <c r="AZ5" t="n">
         <v>8985</v>
       </c>
-      <c r="AZ5" t="n">
+      <c r="BA5" t="n">
         <v>8671</v>
       </c>
-      <c r="BA5" t="n">
+      <c r="BB5" t="n">
         <v>7630</v>
       </c>
-      <c r="BB5" t="n">
+      <c r="BC5" t="n">
         <v>8181</v>
       </c>
-      <c r="BC5" t="n">
+      <c r="BD5" t="n">
         <v>8857</v>
       </c>
-      <c r="BD5" t="n">
+      <c r="BE5" t="n">
         <v>8704</v>
       </c>
-      <c r="BE5" t="n">
+      <c r="BF5" t="n">
         <v>7258</v>
       </c>
-      <c r="BF5" t="n">
+      <c r="BG5" t="n">
         <v>7809</v>
       </c>
-      <c r="BG5" t="n">
+      <c r="BH5" t="n">
         <v>8204</v>
       </c>
-      <c r="BH5" t="n">
+      <c r="BI5" t="n">
         <v>7749</v>
       </c>
-      <c r="BI5" t="n">
+      <c r="BJ5" t="n">
         <v>6531</v>
       </c>
-      <c r="BJ5" t="n">
+      <c r="BK5" t="n">
         <v>7073</v>
       </c>
-      <c r="BK5" t="n">
+      <c r="BL5" t="n">
         <v>7505</v>
       </c>
-      <c r="BL5" t="n">
+      <c r="BM5" t="n">
         <v>7375</v>
       </c>
-      <c r="BM5" t="n">
+      <c r="BN5" t="n">
         <v>6542</v>
       </c>
-      <c r="BN5" t="n">
+      <c r="BO5" t="n">
         <v>7216</v>
       </c>
-      <c r="BO5" t="n">
+      <c r="BP5" t="n">
         <v>7897</v>
       </c>
-      <c r="BP5" t="n">
+      <c r="BQ5" t="n">
         <v>7782</v>
       </c>
-      <c r="BQ5" t="n">
+      <c r="BR5" t="n">
         <v>6771</v>
       </c>
-      <c r="BR5" t="n">
+      <c r="BS5" t="n">
         <v>7357</v>
       </c>
-      <c r="BS5" t="n">
+      <c r="BT5" t="n">
         <v>7913</v>
       </c>
-      <c r="BT5" t="n">
+      <c r="BU5" t="n">
         <v>7612</v>
       </c>
-      <c r="BU5" t="n">
+      <c r="BV5" t="n">
         <v>6660</v>
       </c>
-      <c r="BV5" t="n">
+      <c r="BW5" t="n">
         <v>7140</v>
       </c>
-      <c r="BW5" t="n">
+      <c r="BX5" t="n">
         <v>7905</v>
       </c>
-      <c r="BX5" t="n">
+      <c r="BY5" t="n">
         <v>7713</v>
       </c>
-      <c r="BY5" t="n">
+      <c r="BZ5" t="n">
         <v>6692</v>
       </c>
-      <c r="BZ5" t="n">
+      <c r="CA5" t="n">
         <v>7163</v>
       </c>
-      <c r="CA5" t="n">
+      <c r="CB5" t="n">
         <v>7834</v>
       </c>
-      <c r="CB5" t="n">
+      <c r="CC5" t="n">
         <v>7755</v>
       </c>
-      <c r="CC5" t="n">
+      <c r="CD5" t="n">
         <v>6832</v>
       </c>
-      <c r="CD5" t="n">
+      <c r="CE5" t="n">
         <v>7319</v>
       </c>
-      <c r="CE5" t="n">
+      <c r="CF5" t="n">
         <v>7701</v>
       </c>
-      <c r="CF5" t="n">
+      <c r="CG5" t="n">
         <v>7474</v>
       </c>
-      <c r="CG5" t="n">
+      <c r="CH5" t="n">
         <v>6729</v>
       </c>
-      <c r="CH5" t="n">
+      <c r="CI5" t="n">
         <v>7229</v>
       </c>
-      <c r="CI5" t="n">
+      <c r="CJ5" t="n">
         <v>7543</v>
       </c>
-      <c r="CJ5" t="n">
+      <c r="CK5" t="n">
         <v>7376</v>
       </c>
-      <c r="CK5" t="n">
+      <c r="CL5" t="n">
         <v>6711</v>
       </c>
-      <c r="CL5" t="n">
+      <c r="CM5" t="n">
         <v>7198</v>
       </c>
-      <c r="CM5" t="n">
+      <c r="CN5" t="n">
         <v>7539</v>
       </c>
-      <c r="CN5" t="n">
+      <c r="CO5" t="n">
         <v>7302</v>
       </c>
-      <c r="CO5" t="n">
+      <c r="CP5" t="n">
         <v>6722</v>
       </c>
-      <c r="CP5" t="n">
+      <c r="CQ5" t="n">
         <v>7230</v>
       </c>
-      <c r="CQ5" t="n">
+      <c r="CR5" t="n">
         <v>7565</v>
       </c>
-      <c r="CR5" t="n">
+      <c r="CS5" t="n">
         <v>7358</v>
       </c>
-      <c r="CS5" t="n">
+      <c r="CT5" t="n">
         <v>6795</v>
       </c>
-      <c r="CT5" t="n">
+      <c r="CU5" t="n">
         <v>7347</v>
       </c>
-      <c r="CU5" t="n">
+      <c r="CV5" t="n">
         <v>7656</v>
       </c>
-      <c r="CV5" t="n">
+      <c r="CW5" t="n">
         <v>7445</v>
       </c>
-      <c r="CW5" t="n">
+      <c r="CX5" t="n">
         <v>6891</v>
       </c>
-      <c r="CX5" t="n">
+      <c r="CY5" t="n">
         <v>7375</v>
       </c>
-      <c r="CY5" t="n">
+      <c r="CZ5" t="n">
         <v>7691</v>
       </c>
-      <c r="CZ5" t="n">
+      <c r="DA5" t="n">
         <v>7409</v>
       </c>
-      <c r="DA5" t="n">
+      <c r="DB5" t="n">
         <v>6574</v>
       </c>
-      <c r="DB5" t="n">
+      <c r="DC5" t="n">
         <v>7000</v>
       </c>
-      <c r="DC5" t="n">
+      <c r="DD5" t="n">
         <v>7119</v>
       </c>
-      <c r="DD5" t="n">
+      <c r="DE5" t="n">
         <v>6959</v>
       </c>
-      <c r="DE5" t="n">
+      <c r="DF5" t="n">
         <v>6747</v>
       </c>
-      <c r="DF5" t="n">
+      <c r="DG5" t="n">
         <v>7393</v>
       </c>
-      <c r="DG5" t="n">
-        <v>7672</v>
+      <c r="DH5" t="n">
+        <v>7663</v>
+      </c>
+      <c r="DI5" t="n">
+        <v>7361</v>
       </c>
     </row>
-    <row r="6" spans="1:111">
+    <row r="6">
       <c r="A6" s="1" t="n"/>
       <c r="B6" s="1" t="n"/>
-      <c r="C6" s="1" t="s">
-        <v>40</v>
+      <c r="C6" s="1" t="inlineStr">
+        <is>
+          <t>Electricity, gas and water supply, and waste management</t>
+        </is>
       </c>
       <c r="D6" t="n">
         <v>29946</v>
@@ -1813,275 +2029,283 @@
         <v>34083</v>
       </c>
       <c r="X6" t="n">
-        <v>29737</v>
+        <v>29240</v>
       </c>
       <c r="Y6" t="n">
+        <v>30257</v>
+      </c>
+      <c r="Z6" t="n">
         <v>6142</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>7486</v>
       </c>
-      <c r="AA6" t="n">
-        <v>9003</v>
-      </c>
       <c r="AB6" t="n">
-        <v>7313</v>
+        <v>9004</v>
       </c>
       <c r="AC6" t="n">
+        <v>7312</v>
+      </c>
+      <c r="AD6" t="n">
         <v>6368</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>7617</v>
       </c>
-      <c r="AE6" t="n">
-        <v>9098</v>
-      </c>
       <c r="AF6" t="n">
-        <v>7404</v>
+        <v>9099</v>
       </c>
       <c r="AG6" t="n">
+        <v>7403</v>
+      </c>
+      <c r="AH6" t="n">
         <v>6504</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>8210</v>
       </c>
-      <c r="AI6" t="n">
-        <v>9421</v>
-      </c>
       <c r="AJ6" t="n">
-        <v>7471</v>
+        <v>9422</v>
       </c>
       <c r="AK6" t="n">
+        <v>7470</v>
+      </c>
+      <c r="AL6" t="n">
         <v>6758</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>7946</v>
       </c>
-      <c r="AM6" t="n">
-        <v>9724</v>
-      </c>
       <c r="AN6" t="n">
-        <v>7770</v>
+        <v>9725</v>
       </c>
       <c r="AO6" t="n">
+        <v>7769</v>
+      </c>
+      <c r="AP6" t="n">
         <v>6955</v>
       </c>
-      <c r="AP6" t="n">
+      <c r="AQ6" t="n">
         <v>8145</v>
       </c>
-      <c r="AQ6" t="n">
-        <v>9917</v>
-      </c>
       <c r="AR6" t="n">
-        <v>7914</v>
+        <v>9918</v>
       </c>
       <c r="AS6" t="n">
+        <v>7913</v>
+      </c>
+      <c r="AT6" t="n">
         <v>7213</v>
       </c>
-      <c r="AT6" t="n">
+      <c r="AU6" t="n">
         <v>8425</v>
       </c>
-      <c r="AU6" t="n">
-        <v>9872</v>
-      </c>
       <c r="AV6" t="n">
-        <v>8161</v>
+        <v>9873</v>
       </c>
       <c r="AW6" t="n">
+        <v>8160</v>
+      </c>
+      <c r="AX6" t="n">
         <v>7189</v>
       </c>
-      <c r="AX6" t="n">
+      <c r="AY6" t="n">
         <v>8616</v>
       </c>
-      <c r="AY6" t="n">
-        <v>10266</v>
-      </c>
       <c r="AZ6" t="n">
-        <v>7876</v>
+        <v>10267</v>
       </c>
       <c r="BA6" t="n">
+        <v>7875</v>
+      </c>
+      <c r="BB6" t="n">
         <v>7366</v>
       </c>
-      <c r="BB6" t="n">
+      <c r="BC6" t="n">
         <v>8856</v>
       </c>
-      <c r="BC6" t="n">
-        <v>10297</v>
-      </c>
       <c r="BD6" t="n">
-        <v>7907</v>
+        <v>10298</v>
       </c>
       <c r="BE6" t="n">
+        <v>7906</v>
+      </c>
+      <c r="BF6" t="n">
         <v>7747</v>
       </c>
-      <c r="BF6" t="n">
+      <c r="BG6" t="n">
         <v>8623</v>
       </c>
-      <c r="BG6" t="n">
-        <v>10219</v>
-      </c>
       <c r="BH6" t="n">
-        <v>8095</v>
+        <v>10220</v>
       </c>
       <c r="BI6" t="n">
+        <v>8094</v>
+      </c>
+      <c r="BJ6" t="n">
         <v>7673</v>
       </c>
-      <c r="BJ6" t="n">
+      <c r="BK6" t="n">
         <v>8790</v>
       </c>
-      <c r="BK6" t="n">
-        <v>10699</v>
-      </c>
       <c r="BL6" t="n">
-        <v>8053</v>
+        <v>10700</v>
       </c>
       <c r="BM6" t="n">
+        <v>8052</v>
+      </c>
+      <c r="BN6" t="n">
         <v>7903</v>
       </c>
-      <c r="BN6" t="n">
+      <c r="BO6" t="n">
         <v>8813</v>
       </c>
-      <c r="BO6" t="n">
-        <v>10393</v>
-      </c>
       <c r="BP6" t="n">
-        <v>8040</v>
+        <v>10394</v>
       </c>
       <c r="BQ6" t="n">
+        <v>8039</v>
+      </c>
+      <c r="BR6" t="n">
         <v>7649</v>
       </c>
-      <c r="BR6" t="n">
+      <c r="BS6" t="n">
         <v>9043</v>
       </c>
-      <c r="BS6" t="n">
-        <v>10475</v>
-      </c>
       <c r="BT6" t="n">
-        <v>8203</v>
+        <v>10476</v>
       </c>
       <c r="BU6" t="n">
+        <v>8201</v>
+      </c>
+      <c r="BV6" t="n">
         <v>8001</v>
       </c>
-      <c r="BV6" t="n">
+      <c r="BW6" t="n">
         <v>9391</v>
       </c>
-      <c r="BW6" t="n">
-        <v>10391</v>
-      </c>
       <c r="BX6" t="n">
-        <v>8101</v>
+        <v>10392</v>
       </c>
       <c r="BY6" t="n">
+        <v>8099</v>
+      </c>
+      <c r="BZ6" t="n">
         <v>7780</v>
       </c>
-      <c r="BZ6" t="n">
+      <c r="CA6" t="n">
         <v>8961</v>
       </c>
-      <c r="CA6" t="n">
-        <v>10077</v>
-      </c>
       <c r="CB6" t="n">
-        <v>8020</v>
+        <v>10078</v>
       </c>
       <c r="CC6" t="n">
+        <v>8018</v>
+      </c>
+      <c r="CD6" t="n">
         <v>7883</v>
       </c>
-      <c r="CD6" t="n">
+      <c r="CE6" t="n">
         <v>9062</v>
       </c>
-      <c r="CE6" t="n">
-        <v>10283</v>
-      </c>
       <c r="CF6" t="n">
-        <v>7880</v>
+        <v>10284</v>
       </c>
       <c r="CG6" t="n">
+        <v>7879</v>
+      </c>
+      <c r="CH6" t="n">
         <v>7682</v>
       </c>
-      <c r="CH6" t="n">
+      <c r="CI6" t="n">
         <v>8988</v>
       </c>
-      <c r="CI6" t="n">
-        <v>9744</v>
-      </c>
       <c r="CJ6" t="n">
-        <v>7787</v>
+        <v>9745</v>
       </c>
       <c r="CK6" t="n">
+        <v>7786</v>
+      </c>
+      <c r="CL6" t="n">
         <v>7752</v>
       </c>
-      <c r="CL6" t="n">
+      <c r="CM6" t="n">
         <v>8890</v>
       </c>
-      <c r="CM6" t="n">
-        <v>9685</v>
-      </c>
       <c r="CN6" t="n">
-        <v>7596</v>
+        <v>9686</v>
       </c>
       <c r="CO6" t="n">
+        <v>7595</v>
+      </c>
+      <c r="CP6" t="n">
         <v>7568</v>
       </c>
-      <c r="CP6" t="n">
+      <c r="CQ6" t="n">
         <v>8840</v>
       </c>
-      <c r="CQ6" t="n">
-        <v>10188</v>
-      </c>
       <c r="CR6" t="n">
-        <v>7618</v>
+        <v>10189</v>
       </c>
       <c r="CS6" t="n">
+        <v>7617</v>
+      </c>
+      <c r="CT6" t="n">
         <v>7807</v>
       </c>
-      <c r="CT6" t="n">
+      <c r="CU6" t="n">
         <v>9187</v>
       </c>
-      <c r="CU6" t="n">
-        <v>9719</v>
-      </c>
       <c r="CV6" t="n">
-        <v>7552</v>
+        <v>9720</v>
       </c>
       <c r="CW6" t="n">
-        <v>7753</v>
+        <v>7551</v>
       </c>
       <c r="CX6" t="n">
-        <v>9043</v>
+        <v>7781</v>
       </c>
       <c r="CY6" t="n">
-        <v>9837</v>
+        <v>9064</v>
       </c>
       <c r="CZ6" t="n">
-        <v>7449</v>
+        <v>9830</v>
       </c>
       <c r="DA6" t="n">
-        <v>6574</v>
+        <v>7408</v>
       </c>
       <c r="DB6" t="n">
-        <v>7848</v>
+        <v>6505</v>
       </c>
       <c r="DC6" t="n">
-        <v>8755</v>
+        <v>7720</v>
       </c>
       <c r="DD6" t="n">
-        <v>6559</v>
+        <v>8579</v>
       </c>
       <c r="DE6" t="n">
-        <v>6627</v>
+        <v>6436</v>
       </c>
       <c r="DF6" t="n">
-        <v>8322</v>
+        <v>6519</v>
       </c>
       <c r="DG6" t="n">
-        <v>9071</v>
+        <v>8145</v>
+      </c>
+      <c r="DH6" t="n">
+        <v>8890</v>
+      </c>
+      <c r="DI6" t="n">
+        <v>6703</v>
       </c>
     </row>
-    <row r="7" spans="1:111">
+    <row r="7">
       <c r="A7" s="1" t="n"/>
       <c r="B7" s="1" t="n"/>
-      <c r="C7" s="1" t="s">
-        <v>41</v>
+      <c r="C7" s="1" t="inlineStr">
+        <is>
+          <t>Construction</t>
+        </is>
       </c>
       <c r="D7" t="n">
         <v>92815</v>
@@ -2144,606 +2368,622 @@
         <v>114499</v>
       </c>
       <c r="X7" t="n">
-        <v>107991</v>
+        <v>100723</v>
       </c>
       <c r="Y7" t="n">
+        <v>101379</v>
+      </c>
+      <c r="Z7" t="n">
         <v>25000</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>20710</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>22947</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>24163</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>24707</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>21084</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>21511</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
         <v>23598</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>22896</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AI7" t="n">
         <v>22010</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
         <v>22115</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
         <v>22205</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AL7" t="n">
         <v>22336</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AM7" t="n">
         <v>20528</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AN7" t="n">
         <v>21581</v>
       </c>
-      <c r="AN7" t="n">
+      <c r="AO7" t="n">
         <v>20609</v>
       </c>
-      <c r="AO7" t="n">
+      <c r="AP7" t="n">
         <v>20128</v>
       </c>
-      <c r="AP7" t="n">
+      <c r="AQ7" t="n">
         <v>18238</v>
       </c>
-      <c r="AQ7" t="n">
+      <c r="AR7" t="n">
         <v>18767</v>
       </c>
-      <c r="AR7" t="n">
+      <c r="AS7" t="n">
         <v>20191</v>
       </c>
-      <c r="AS7" t="n">
+      <c r="AT7" t="n">
         <v>19977</v>
       </c>
-      <c r="AT7" t="n">
+      <c r="AU7" t="n">
         <v>16298</v>
       </c>
-      <c r="AU7" t="n">
+      <c r="AV7" t="n">
         <v>17666</v>
       </c>
-      <c r="AV7" t="n">
+      <c r="AW7" t="n">
         <v>17291</v>
       </c>
-      <c r="AW7" t="n">
+      <c r="AX7" t="n">
         <v>17337</v>
       </c>
-      <c r="AX7" t="n">
+      <c r="AY7" t="n">
         <v>15504</v>
       </c>
-      <c r="AY7" t="n">
+      <c r="AZ7" t="n">
         <v>15477</v>
       </c>
-      <c r="AZ7" t="n">
+      <c r="BA7" t="n">
         <v>16389</v>
       </c>
-      <c r="BA7" t="n">
+      <c r="BB7" t="n">
         <v>16331</v>
       </c>
-      <c r="BB7" t="n">
+      <c r="BC7" t="n">
         <v>16172</v>
       </c>
-      <c r="BC7" t="n">
+      <c r="BD7" t="n">
         <v>15257</v>
       </c>
-      <c r="BD7" t="n">
+      <c r="BE7" t="n">
         <v>16170</v>
       </c>
-      <c r="BE7" t="n">
+      <c r="BF7" t="n">
         <v>18935</v>
       </c>
-      <c r="BF7" t="n">
+      <c r="BG7" t="n">
         <v>17112</v>
       </c>
-      <c r="BG7" t="n">
+      <c r="BH7" t="n">
         <v>15889</v>
       </c>
-      <c r="BH7" t="n">
+      <c r="BI7" t="n">
         <v>17652</v>
       </c>
-      <c r="BI7" t="n">
+      <c r="BJ7" t="n">
         <v>16611</v>
       </c>
-      <c r="BJ7" t="n">
+      <c r="BK7" t="n">
         <v>15356</v>
       </c>
-      <c r="BK7" t="n">
+      <c r="BL7" t="n">
         <v>15506</v>
       </c>
-      <c r="BL7" t="n">
+      <c r="BM7" t="n">
         <v>16927</v>
       </c>
-      <c r="BM7" t="n">
+      <c r="BN7" t="n">
         <v>17059</v>
       </c>
-      <c r="BN7" t="n">
+      <c r="BO7" t="n">
         <v>18606</v>
       </c>
-      <c r="BO7" t="n">
+      <c r="BP7" t="n">
         <v>18572</v>
       </c>
-      <c r="BP7" t="n">
+      <c r="BQ7" t="n">
         <v>20237</v>
       </c>
-      <c r="BQ7" t="n">
+      <c r="BR7" t="n">
         <v>22862</v>
       </c>
-      <c r="BR7" t="n">
+      <c r="BS7" t="n">
         <v>20318</v>
       </c>
-      <c r="BS7" t="n">
+      <c r="BT7" t="n">
         <v>21131</v>
       </c>
-      <c r="BT7" t="n">
+      <c r="BU7" t="n">
         <v>23810</v>
       </c>
-      <c r="BU7" t="n">
+      <c r="BV7" t="n">
         <v>25330</v>
       </c>
-      <c r="BV7" t="n">
+      <c r="BW7" t="n">
         <v>21785</v>
       </c>
-      <c r="BW7" t="n">
+      <c r="BX7" t="n">
         <v>21391</v>
       </c>
-      <c r="BX7" t="n">
+      <c r="BY7" t="n">
         <v>26934</v>
       </c>
-      <c r="BY7" t="n">
+      <c r="BZ7" t="n">
         <v>25885</v>
       </c>
-      <c r="BZ7" t="n">
+      <c r="CA7" t="n">
         <v>23098</v>
       </c>
-      <c r="CA7" t="n">
+      <c r="CB7" t="n">
         <v>23914</v>
       </c>
-      <c r="CB7" t="n">
+      <c r="CC7" t="n">
         <v>26527</v>
       </c>
-      <c r="CC7" t="n">
+      <c r="CD7" t="n">
         <v>30366</v>
       </c>
-      <c r="CD7" t="n">
+      <c r="CE7" t="n">
         <v>25020</v>
       </c>
-      <c r="CE7" t="n">
+      <c r="CF7" t="n">
         <v>26602</v>
       </c>
-      <c r="CF7" t="n">
+      <c r="CG7" t="n">
         <v>30368</v>
       </c>
-      <c r="CG7" t="n">
+      <c r="CH7" t="n">
         <v>29706</v>
       </c>
-      <c r="CH7" t="n">
+      <c r="CI7" t="n">
         <v>29737</v>
       </c>
-      <c r="CI7" t="n">
+      <c r="CJ7" t="n">
         <v>28257</v>
       </c>
-      <c r="CJ7" t="n">
+      <c r="CK7" t="n">
         <v>30730</v>
       </c>
-      <c r="CK7" t="n">
+      <c r="CL7" t="n">
         <v>30241</v>
       </c>
-      <c r="CL7" t="n">
+      <c r="CM7" t="n">
         <v>30615</v>
       </c>
-      <c r="CM7" t="n">
+      <c r="CN7" t="n">
         <v>29559</v>
       </c>
-      <c r="CN7" t="n">
+      <c r="CO7" t="n">
         <v>34021</v>
       </c>
-      <c r="CO7" t="n">
+      <c r="CP7" t="n">
         <v>31592</v>
       </c>
-      <c r="CP7" t="n">
+      <c r="CQ7" t="n">
         <v>30385</v>
       </c>
-      <c r="CQ7" t="n">
+      <c r="CR7" t="n">
         <v>28624</v>
       </c>
-      <c r="CR7" t="n">
+      <c r="CS7" t="n">
         <v>32158</v>
       </c>
-      <c r="CS7" t="n">
+      <c r="CT7" t="n">
         <v>34553</v>
       </c>
-      <c r="CT7" t="n">
+      <c r="CU7" t="n">
         <v>31183</v>
       </c>
-      <c r="CU7" t="n">
+      <c r="CV7" t="n">
         <v>29798</v>
       </c>
-      <c r="CV7" t="n">
+      <c r="CW7" t="n">
         <v>31326</v>
       </c>
-      <c r="CW7" t="n">
+      <c r="CX7" t="n">
         <v>32240</v>
       </c>
-      <c r="CX7" t="n">
+      <c r="CY7" t="n">
         <v>26441</v>
       </c>
-      <c r="CY7" t="n">
+      <c r="CZ7" t="n">
         <v>27887</v>
       </c>
-      <c r="CZ7" t="n">
+      <c r="DA7" t="n">
         <v>27931</v>
       </c>
-      <c r="DA7" t="n">
-        <v>28822</v>
-      </c>
       <c r="DB7" t="n">
-        <v>25810</v>
+        <v>27304</v>
       </c>
       <c r="DC7" t="n">
-        <v>25829</v>
+        <v>23997</v>
       </c>
       <c r="DD7" t="n">
-        <v>27530</v>
+        <v>23799</v>
       </c>
       <c r="DE7" t="n">
-        <v>27891</v>
+        <v>25622</v>
       </c>
       <c r="DF7" t="n">
-        <v>25675</v>
+        <v>26764</v>
       </c>
       <c r="DG7" t="n">
-        <v>25981</v>
+        <v>24184</v>
+      </c>
+      <c r="DH7" t="n">
+        <v>24291</v>
+      </c>
+      <c r="DI7" t="n">
+        <v>26140</v>
       </c>
     </row>
-    <row r="8" spans="1:111">
+    <row r="8">
       <c r="A8" s="1" t="n"/>
       <c r="B8" s="1" t="n"/>
-      <c r="C8" s="1" t="s">
-        <v>42</v>
+      <c r="C8" s="1" t="inlineStr">
+        <is>
+          <t>Services</t>
+        </is>
       </c>
       <c r="D8" t="n">
-        <v>1293194</v>
+        <v>1292702</v>
       </c>
       <c r="E8" t="n">
-        <v>1316929</v>
+        <v>1316428</v>
       </c>
       <c r="F8" t="n">
-        <v>1355365</v>
+        <v>1354849</v>
       </c>
       <c r="G8" t="n">
-        <v>1415896</v>
+        <v>1415357</v>
       </c>
       <c r="H8" t="n">
-        <v>1552826</v>
+        <v>1552234</v>
       </c>
       <c r="I8" t="n">
-        <v>1673278</v>
+        <v>1672640</v>
       </c>
       <c r="J8" t="n">
-        <v>1787321</v>
+        <v>1786640</v>
       </c>
       <c r="K8" t="n">
-        <v>1914094</v>
+        <v>1913365</v>
       </c>
       <c r="L8" t="n">
-        <v>1960790</v>
+        <v>1960043</v>
       </c>
       <c r="M8" t="n">
-        <v>1926870</v>
+        <v>1926136</v>
       </c>
       <c r="N8" t="n">
-        <v>2060056</v>
+        <v>2059271</v>
       </c>
       <c r="O8" t="n">
-        <v>2166883</v>
+        <v>2166057</v>
       </c>
       <c r="P8" t="n">
-        <v>2204947</v>
+        <v>2204107</v>
       </c>
       <c r="Q8" t="n">
-        <v>2265360</v>
+        <v>2264497</v>
       </c>
       <c r="R8" t="n">
-        <v>2321111</v>
+        <v>2320226</v>
       </c>
       <c r="S8" t="n">
-        <v>2361292</v>
+        <v>2360391</v>
       </c>
       <c r="T8" t="n">
-        <v>2414890</v>
+        <v>2413969</v>
       </c>
       <c r="U8" t="n">
-        <v>2500152</v>
+        <v>2499199</v>
       </c>
       <c r="V8" t="n">
-        <v>2577340</v>
+        <v>2576357</v>
       </c>
       <c r="W8" t="n">
         <v>2559558</v>
       </c>
       <c r="X8" t="n">
-        <v>2390882</v>
+        <v>2388653</v>
       </c>
       <c r="Y8" t="n">
-        <v>305106</v>
+        <v>2525553</v>
       </c>
       <c r="Z8" t="n">
-        <v>312820</v>
+        <v>304990</v>
       </c>
       <c r="AA8" t="n">
-        <v>334224</v>
+        <v>312699</v>
       </c>
       <c r="AB8" t="n">
-        <v>341043</v>
+        <v>334095</v>
       </c>
       <c r="AC8" t="n">
-        <v>316122</v>
+        <v>340915</v>
       </c>
       <c r="AD8" t="n">
-        <v>320309</v>
+        <v>316002</v>
       </c>
       <c r="AE8" t="n">
-        <v>338323</v>
+        <v>320186</v>
       </c>
       <c r="AF8" t="n">
-        <v>342174</v>
+        <v>338192</v>
       </c>
       <c r="AG8" t="n">
-        <v>315213</v>
+        <v>342045</v>
       </c>
       <c r="AH8" t="n">
-        <v>324549</v>
+        <v>315093</v>
       </c>
       <c r="AI8" t="n">
-        <v>351667</v>
+        <v>324425</v>
       </c>
       <c r="AJ8" t="n">
-        <v>363935</v>
+        <v>351531</v>
       </c>
       <c r="AK8" t="n">
-        <v>332990</v>
+        <v>363798</v>
       </c>
       <c r="AL8" t="n">
-        <v>327277</v>
+        <v>332864</v>
       </c>
       <c r="AM8" t="n">
-        <v>368362</v>
+        <v>327152</v>
       </c>
       <c r="AN8" t="n">
-        <v>387266</v>
+        <v>368219</v>
       </c>
       <c r="AO8" t="n">
-        <v>364979</v>
+        <v>387120</v>
       </c>
       <c r="AP8" t="n">
-        <v>370097</v>
+        <v>364840</v>
       </c>
       <c r="AQ8" t="n">
-        <v>398206</v>
+        <v>369955</v>
       </c>
       <c r="AR8" t="n">
-        <v>419543</v>
+        <v>398051</v>
       </c>
       <c r="AS8" t="n">
-        <v>390804</v>
+        <v>419385</v>
       </c>
       <c r="AT8" t="n">
-        <v>400825</v>
+        <v>390655</v>
       </c>
       <c r="AU8" t="n">
-        <v>430182</v>
+        <v>400672</v>
       </c>
       <c r="AV8" t="n">
-        <v>451466</v>
+        <v>430015</v>
       </c>
       <c r="AW8" t="n">
-        <v>422423</v>
+        <v>451296</v>
       </c>
       <c r="AX8" t="n">
-        <v>424516</v>
+        <v>422262</v>
       </c>
       <c r="AY8" t="n">
-        <v>456723</v>
+        <v>424354</v>
       </c>
       <c r="AZ8" t="n">
-        <v>483659</v>
+        <v>456546</v>
       </c>
       <c r="BA8" t="n">
-        <v>448037</v>
+        <v>483476</v>
       </c>
       <c r="BB8" t="n">
-        <v>455258</v>
+        <v>447866</v>
       </c>
       <c r="BC8" t="n">
-        <v>488719</v>
+        <v>455084</v>
       </c>
       <c r="BD8" t="n">
-        <v>522080</v>
+        <v>488530</v>
       </c>
       <c r="BE8" t="n">
-        <v>479621</v>
+        <v>521882</v>
       </c>
       <c r="BF8" t="n">
-        <v>472863</v>
+        <v>479438</v>
       </c>
       <c r="BG8" t="n">
-        <v>498464</v>
+        <v>472682</v>
       </c>
       <c r="BH8" t="n">
-        <v>509842</v>
+        <v>498271</v>
       </c>
       <c r="BI8" t="n">
-        <v>447995</v>
+        <v>509648</v>
       </c>
       <c r="BJ8" t="n">
-        <v>458584</v>
+        <v>447824</v>
       </c>
       <c r="BK8" t="n">
-        <v>492405</v>
+        <v>458408</v>
       </c>
       <c r="BL8" t="n">
-        <v>527886</v>
+        <v>492215</v>
       </c>
       <c r="BM8" t="n">
-        <v>483746</v>
+        <v>527685</v>
       </c>
       <c r="BN8" t="n">
-        <v>486903</v>
+        <v>483562</v>
       </c>
       <c r="BO8" t="n">
-        <v>527736</v>
+        <v>486716</v>
       </c>
       <c r="BP8" t="n">
-        <v>561670</v>
+        <v>527533</v>
       </c>
       <c r="BQ8" t="n">
-        <v>521723</v>
+        <v>561457</v>
       </c>
       <c r="BR8" t="n">
-        <v>514178</v>
+        <v>521524</v>
       </c>
       <c r="BS8" t="n">
-        <v>550639</v>
+        <v>513981</v>
       </c>
       <c r="BT8" t="n">
-        <v>580342</v>
+        <v>550428</v>
       </c>
       <c r="BU8" t="n">
-        <v>528750</v>
+        <v>580121</v>
       </c>
       <c r="BV8" t="n">
-        <v>518804</v>
+        <v>528548</v>
       </c>
       <c r="BW8" t="n">
-        <v>561472</v>
+        <v>518605</v>
       </c>
       <c r="BX8" t="n">
-        <v>595921</v>
+        <v>561256</v>
       </c>
       <c r="BY8" t="n">
-        <v>542480</v>
+        <v>595694</v>
       </c>
       <c r="BZ8" t="n">
-        <v>537619</v>
+        <v>542272</v>
       </c>
       <c r="CA8" t="n">
-        <v>574330</v>
+        <v>537413</v>
       </c>
       <c r="CB8" t="n">
-        <v>610932</v>
+        <v>574109</v>
       </c>
       <c r="CC8" t="n">
-        <v>554674</v>
+        <v>610700</v>
       </c>
       <c r="CD8" t="n">
-        <v>548656</v>
+        <v>554462</v>
       </c>
       <c r="CE8" t="n">
-        <v>591486</v>
+        <v>548446</v>
       </c>
       <c r="CF8" t="n">
-        <v>626296</v>
+        <v>591258</v>
       </c>
       <c r="CG8" t="n">
-        <v>566266</v>
+        <v>626058</v>
       </c>
       <c r="CH8" t="n">
-        <v>556307</v>
+        <v>566050</v>
       </c>
       <c r="CI8" t="n">
-        <v>601411</v>
+        <v>556094</v>
       </c>
       <c r="CJ8" t="n">
-        <v>637308</v>
+        <v>601180</v>
       </c>
       <c r="CK8" t="n">
-        <v>575206</v>
+        <v>637066</v>
       </c>
       <c r="CL8" t="n">
-        <v>571167</v>
+        <v>574987</v>
       </c>
       <c r="CM8" t="n">
-        <v>614577</v>
+        <v>570949</v>
       </c>
       <c r="CN8" t="n">
-        <v>653940</v>
+        <v>614341</v>
       </c>
       <c r="CO8" t="n">
-        <v>596080</v>
+        <v>653691</v>
       </c>
       <c r="CP8" t="n">
-        <v>589847</v>
+        <v>595853</v>
       </c>
       <c r="CQ8" t="n">
-        <v>636904</v>
+        <v>589622</v>
       </c>
       <c r="CR8" t="n">
-        <v>677321</v>
+        <v>636660</v>
       </c>
       <c r="CS8" t="n">
-        <v>621018</v>
+        <v>677063</v>
       </c>
       <c r="CT8" t="n">
-        <v>610438</v>
+        <v>620782</v>
       </c>
       <c r="CU8" t="n">
-        <v>654931</v>
+        <v>610205</v>
       </c>
       <c r="CV8" t="n">
-        <v>690953</v>
+        <v>654680</v>
       </c>
       <c r="CW8" t="n">
-        <v>629709</v>
+        <v>690689</v>
       </c>
       <c r="CX8" t="n">
-        <v>617068</v>
+        <v>629719</v>
       </c>
       <c r="CY8" t="n">
-        <v>641742</v>
+        <v>616817</v>
       </c>
       <c r="CZ8" t="n">
-        <v>671039</v>
+        <v>641781</v>
       </c>
       <c r="DA8" t="n">
-        <v>572689</v>
+        <v>671241</v>
       </c>
       <c r="DB8" t="n">
-        <v>563608</v>
+        <v>573375</v>
       </c>
       <c r="DC8" t="n">
-        <v>608765</v>
+        <v>563053</v>
       </c>
       <c r="DD8" t="n">
-        <v>645820</v>
+        <v>607941</v>
       </c>
       <c r="DE8" t="n">
-        <v>611149</v>
+        <v>644285</v>
       </c>
       <c r="DF8" t="n">
-        <v>600977</v>
+        <v>611614</v>
       </c>
       <c r="DG8" t="n">
-        <v>641133</v>
+        <v>599967</v>
+      </c>
+      <c r="DH8" t="n">
+        <v>639662</v>
+      </c>
+      <c r="DI8" t="n">
+        <v>674312</v>
       </c>
     </row>
-    <row r="9" spans="1:111">
+    <row r="9">
       <c r="A9" s="1" t="n"/>
       <c r="B9" s="1" t="n"/>
-      <c r="C9" s="1" t="s">
-        <v>43</v>
+      <c r="C9" s="1" t="inlineStr">
+        <is>
+          <t>Import/export, wholesale and retail trades</t>
+        </is>
       </c>
       <c r="D9" t="n">
         <v>223310</v>
@@ -2806,275 +3046,283 @@
         <v>533352</v>
       </c>
       <c r="X9" t="n">
-        <v>460189</v>
+        <v>453558</v>
       </c>
       <c r="Y9" t="n">
+        <v>512605</v>
+      </c>
+      <c r="Z9" t="n">
         <v>48099</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>51313</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>61421</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>62475</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>51988</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>52370</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>62406</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AG9" t="n">
         <v>60264</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AH9" t="n">
         <v>50678</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AI9" t="n">
         <v>53156</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
         <v>67403</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AK9" t="n">
         <v>69996</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AL9" t="n">
         <v>59061</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AM9" t="n">
         <v>57880</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AN9" t="n">
         <v>73346</v>
       </c>
-      <c r="AN9" t="n">
+      <c r="AO9" t="n">
         <v>79180</v>
       </c>
-      <c r="AO9" t="n">
+      <c r="AP9" t="n">
         <v>66915</v>
       </c>
-      <c r="AP9" t="n">
+      <c r="AQ9" t="n">
         <v>68676</v>
       </c>
-      <c r="AQ9" t="n">
+      <c r="AR9" t="n">
         <v>83777</v>
       </c>
-      <c r="AR9" t="n">
+      <c r="AS9" t="n">
         <v>89981</v>
       </c>
-      <c r="AS9" t="n">
+      <c r="AT9" t="n">
         <v>76157</v>
       </c>
-      <c r="AT9" t="n">
+      <c r="AU9" t="n">
         <v>79792</v>
       </c>
-      <c r="AU9" t="n">
+      <c r="AV9" t="n">
         <v>96022</v>
       </c>
-      <c r="AV9" t="n">
-        <v>102543</v>
-      </c>
       <c r="AW9" t="n">
+        <v>102542</v>
+      </c>
+      <c r="AX9" t="n">
         <v>84750</v>
       </c>
-      <c r="AX9" t="n">
+      <c r="AY9" t="n">
         <v>84398</v>
       </c>
-      <c r="AY9" t="n">
+      <c r="AZ9" t="n">
         <v>104576</v>
       </c>
-      <c r="AZ9" t="n">
-        <v>111521</v>
-      </c>
       <c r="BA9" t="n">
+        <v>111520</v>
+      </c>
+      <c r="BB9" t="n">
         <v>87913</v>
       </c>
-      <c r="BB9" t="n">
+      <c r="BC9" t="n">
         <v>89123</v>
       </c>
-      <c r="BC9" t="n">
+      <c r="BD9" t="n">
         <v>110363</v>
       </c>
-      <c r="BD9" t="n">
-        <v>120149</v>
-      </c>
       <c r="BE9" t="n">
+        <v>120148</v>
+      </c>
+      <c r="BF9" t="n">
         <v>98318</v>
       </c>
-      <c r="BF9" t="n">
+      <c r="BG9" t="n">
         <v>98294</v>
       </c>
-      <c r="BG9" t="n">
+      <c r="BH9" t="n">
         <v>118613</v>
       </c>
-      <c r="BH9" t="n">
-        <v>119953</v>
-      </c>
       <c r="BI9" t="n">
+        <v>119952</v>
+      </c>
+      <c r="BJ9" t="n">
         <v>80340</v>
       </c>
-      <c r="BJ9" t="n">
+      <c r="BK9" t="n">
         <v>85980</v>
       </c>
-      <c r="BK9" t="n">
+      <c r="BL9" t="n">
         <v>106274</v>
       </c>
-      <c r="BL9" t="n">
-        <v>121185</v>
-      </c>
       <c r="BM9" t="n">
+        <v>121184</v>
+      </c>
+      <c r="BN9" t="n">
         <v>97826</v>
       </c>
-      <c r="BN9" t="n">
+      <c r="BO9" t="n">
         <v>102288</v>
       </c>
-      <c r="BO9" t="n">
+      <c r="BP9" t="n">
         <v>124804</v>
       </c>
-      <c r="BP9" t="n">
-        <v>134502</v>
-      </c>
       <c r="BQ9" t="n">
+        <v>134501</v>
+      </c>
+      <c r="BR9" t="n">
         <v>113160</v>
       </c>
-      <c r="BR9" t="n">
+      <c r="BS9" t="n">
         <v>110449</v>
       </c>
-      <c r="BS9" t="n">
+      <c r="BT9" t="n">
         <v>132882</v>
       </c>
-      <c r="BT9" t="n">
-        <v>144690</v>
-      </c>
       <c r="BU9" t="n">
+        <v>144689</v>
+      </c>
+      <c r="BV9" t="n">
         <v>113068</v>
       </c>
-      <c r="BV9" t="n">
+      <c r="BW9" t="n">
         <v>111191</v>
       </c>
-      <c r="BW9" t="n">
+      <c r="BX9" t="n">
         <v>135676</v>
       </c>
-      <c r="BX9" t="n">
-        <v>150595</v>
-      </c>
       <c r="BY9" t="n">
+        <v>150594</v>
+      </c>
+      <c r="BZ9" t="n">
         <v>118627</v>
       </c>
-      <c r="BZ9" t="n">
+      <c r="CA9" t="n">
         <v>116380</v>
       </c>
-      <c r="CA9" t="n">
+      <c r="CB9" t="n">
         <v>137716</v>
       </c>
-      <c r="CB9" t="n">
-        <v>154444</v>
-      </c>
       <c r="CC9" t="n">
+        <v>154443</v>
+      </c>
+      <c r="CD9" t="n">
         <v>119221</v>
       </c>
-      <c r="CD9" t="n">
+      <c r="CE9" t="n">
         <v>117341</v>
       </c>
-      <c r="CE9" t="n">
+      <c r="CF9" t="n">
         <v>141326</v>
       </c>
-      <c r="CF9" t="n">
-        <v>155765</v>
-      </c>
       <c r="CG9" t="n">
+        <v>155764</v>
+      </c>
+      <c r="CH9" t="n">
         <v>119197</v>
       </c>
-      <c r="CH9" t="n">
+      <c r="CI9" t="n">
         <v>112826</v>
       </c>
-      <c r="CI9" t="n">
+      <c r="CJ9" t="n">
         <v>140509</v>
       </c>
-      <c r="CJ9" t="n">
-        <v>155326</v>
-      </c>
       <c r="CK9" t="n">
+        <v>155325</v>
+      </c>
+      <c r="CL9" t="n">
         <v>116642</v>
       </c>
-      <c r="CL9" t="n">
+      <c r="CM9" t="n">
         <v>113738</v>
       </c>
-      <c r="CM9" t="n">
+      <c r="CN9" t="n">
         <v>141787</v>
       </c>
-      <c r="CN9" t="n">
-        <v>158745</v>
-      </c>
       <c r="CO9" t="n">
+        <v>158744</v>
+      </c>
+      <c r="CP9" t="n">
         <v>121761</v>
       </c>
-      <c r="CP9" t="n">
+      <c r="CQ9" t="n">
         <v>118063</v>
       </c>
-      <c r="CQ9" t="n">
+      <c r="CR9" t="n">
         <v>147869</v>
       </c>
-      <c r="CR9" t="n">
-        <v>165431</v>
-      </c>
       <c r="CS9" t="n">
+        <v>165430</v>
+      </c>
+      <c r="CT9" t="n">
         <v>129151</v>
       </c>
-      <c r="CT9" t="n">
+      <c r="CU9" t="n">
         <v>124682</v>
       </c>
-      <c r="CU9" t="n">
+      <c r="CV9" t="n">
         <v>154875</v>
       </c>
-      <c r="CV9" t="n">
-        <v>167619</v>
-      </c>
       <c r="CW9" t="n">
-        <v>126235</v>
+        <v>167618</v>
       </c>
       <c r="CX9" t="n">
-        <v>118725</v>
+        <v>126814</v>
       </c>
       <c r="CY9" t="n">
-        <v>137927</v>
+        <v>118875</v>
       </c>
       <c r="CZ9" t="n">
-        <v>150464</v>
+        <v>137914</v>
       </c>
       <c r="DA9" t="n">
-        <v>98278</v>
+        <v>149748</v>
       </c>
       <c r="DB9" t="n">
-        <v>95826</v>
+        <v>97991</v>
       </c>
       <c r="DC9" t="n">
-        <v>125248</v>
+        <v>94315</v>
       </c>
       <c r="DD9" t="n">
-        <v>140837</v>
+        <v>123229</v>
       </c>
       <c r="DE9" t="n">
-        <v>121859</v>
+        <v>138022</v>
       </c>
       <c r="DF9" t="n">
-        <v>110652</v>
+        <v>121751</v>
       </c>
       <c r="DG9" t="n">
-        <v>135309</v>
+        <v>108920</v>
+      </c>
+      <c r="DH9" t="n">
+        <v>133756</v>
+      </c>
+      <c r="DI9" t="n">
+        <v>148177</v>
       </c>
     </row>
-    <row r="10" spans="1:111">
+    <row r="10">
       <c r="A10" s="1" t="n"/>
       <c r="B10" s="1" t="n"/>
-      <c r="C10" s="1" t="s">
-        <v>44</v>
+      <c r="C10" s="1" t="inlineStr">
+        <is>
+          <t>Import and export trade</t>
+        </is>
       </c>
       <c r="D10" t="n">
         <v>180957</v>
@@ -3137,275 +3385,283 @@
         <v>440363</v>
       </c>
       <c r="X10" t="n">
-        <v>409125</v>
+        <v>404598</v>
       </c>
       <c r="Y10" t="n">
+        <v>458211</v>
+      </c>
+      <c r="Z10" t="n">
         <v>38542</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>41101</v>
       </c>
-      <c r="AA10" t="n">
-        <v>50568</v>
-      </c>
       <c r="AB10" t="n">
+        <v>50569</v>
+      </c>
+      <c r="AC10" t="n">
         <v>50746</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>41955</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>41877</v>
       </c>
-      <c r="AE10" t="n">
-        <v>51400</v>
-      </c>
       <c r="AF10" t="n">
+        <v>51401</v>
+      </c>
+      <c r="AG10" t="n">
         <v>48794</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AH10" t="n">
         <v>41010</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AI10" t="n">
         <v>43067</v>
       </c>
-      <c r="AI10" t="n">
-        <v>56355</v>
-      </c>
       <c r="AJ10" t="n">
+        <v>56356</v>
+      </c>
+      <c r="AK10" t="n">
         <v>58142</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AL10" t="n">
         <v>49048</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AM10" t="n">
         <v>48393</v>
       </c>
-      <c r="AM10" t="n">
-        <v>62039</v>
-      </c>
       <c r="AN10" t="n">
+        <v>62040</v>
+      </c>
+      <c r="AO10" t="n">
         <v>66501</v>
       </c>
-      <c r="AO10" t="n">
+      <c r="AP10" t="n">
         <v>56117</v>
       </c>
-      <c r="AP10" t="n">
+      <c r="AQ10" t="n">
         <v>57714</v>
       </c>
-      <c r="AQ10" t="n">
-        <v>71656</v>
-      </c>
       <c r="AR10" t="n">
+        <v>71657</v>
+      </c>
+      <c r="AS10" t="n">
         <v>76399</v>
       </c>
-      <c r="AS10" t="n">
+      <c r="AT10" t="n">
         <v>64271</v>
       </c>
-      <c r="AT10" t="n">
+      <c r="AU10" t="n">
         <v>67645</v>
       </c>
-      <c r="AU10" t="n">
-        <v>83115</v>
-      </c>
       <c r="AV10" t="n">
+        <v>83116</v>
+      </c>
+      <c r="AW10" t="n">
         <v>87875</v>
       </c>
-      <c r="AW10" t="n">
+      <c r="AX10" t="n">
         <v>72013</v>
       </c>
-      <c r="AX10" t="n">
+      <c r="AY10" t="n">
         <v>71473</v>
       </c>
-      <c r="AY10" t="n">
-        <v>90661</v>
-      </c>
       <c r="AZ10" t="n">
+        <v>90662</v>
+      </c>
+      <c r="BA10" t="n">
         <v>95909</v>
       </c>
-      <c r="BA10" t="n">
+      <c r="BB10" t="n">
         <v>74607</v>
       </c>
-      <c r="BB10" t="n">
+      <c r="BC10" t="n">
         <v>75493</v>
       </c>
-      <c r="BC10" t="n">
-        <v>95437</v>
-      </c>
       <c r="BD10" t="n">
+        <v>95438</v>
+      </c>
+      <c r="BE10" t="n">
         <v>103009</v>
       </c>
-      <c r="BE10" t="n">
+      <c r="BF10" t="n">
         <v>83809</v>
       </c>
-      <c r="BF10" t="n">
+      <c r="BG10" t="n">
         <v>83787</v>
       </c>
-      <c r="BG10" t="n">
-        <v>103104</v>
-      </c>
       <c r="BH10" t="n">
+        <v>103105</v>
+      </c>
+      <c r="BI10" t="n">
         <v>103006</v>
       </c>
-      <c r="BI10" t="n">
+      <c r="BJ10" t="n">
         <v>66590</v>
       </c>
-      <c r="BJ10" t="n">
+      <c r="BK10" t="n">
         <v>71684</v>
       </c>
-      <c r="BK10" t="n">
-        <v>90386</v>
-      </c>
       <c r="BL10" t="n">
+        <v>90387</v>
+      </c>
+      <c r="BM10" t="n">
         <v>102264</v>
       </c>
-      <c r="BM10" t="n">
+      <c r="BN10" t="n">
         <v>81832</v>
       </c>
-      <c r="BN10" t="n">
+      <c r="BO10" t="n">
         <v>85818</v>
       </c>
-      <c r="BO10" t="n">
-        <v>106000</v>
-      </c>
       <c r="BP10" t="n">
+        <v>106001</v>
+      </c>
+      <c r="BQ10" t="n">
         <v>111989</v>
       </c>
-      <c r="BQ10" t="n">
+      <c r="BR10" t="n">
         <v>93493</v>
       </c>
-      <c r="BR10" t="n">
+      <c r="BS10" t="n">
         <v>89750</v>
       </c>
-      <c r="BS10" t="n">
-        <v>109717</v>
-      </c>
       <c r="BT10" t="n">
+        <v>109718</v>
+      </c>
+      <c r="BU10" t="n">
         <v>117119</v>
       </c>
-      <c r="BU10" t="n">
+      <c r="BV10" t="n">
         <v>91258</v>
       </c>
-      <c r="BV10" t="n">
+      <c r="BW10" t="n">
         <v>88992</v>
       </c>
-      <c r="BW10" t="n">
-        <v>111396</v>
-      </c>
       <c r="BX10" t="n">
+        <v>111397</v>
+      </c>
+      <c r="BY10" t="n">
         <v>121031</v>
       </c>
-      <c r="BY10" t="n">
+      <c r="BZ10" t="n">
         <v>94302</v>
       </c>
-      <c r="BZ10" t="n">
+      <c r="CA10" t="n">
         <v>91357</v>
       </c>
-      <c r="CA10" t="n">
-        <v>111935</v>
-      </c>
       <c r="CB10" t="n">
+        <v>111936</v>
+      </c>
+      <c r="CC10" t="n">
         <v>122891</v>
       </c>
-      <c r="CC10" t="n">
+      <c r="CD10" t="n">
         <v>93638</v>
       </c>
-      <c r="CD10" t="n">
+      <c r="CE10" t="n">
         <v>93630</v>
       </c>
-      <c r="CE10" t="n">
-        <v>115139</v>
-      </c>
       <c r="CF10" t="n">
+        <v>115140</v>
+      </c>
+      <c r="CG10" t="n">
         <v>123337</v>
       </c>
-      <c r="CG10" t="n">
+      <c r="CH10" t="n">
         <v>93874</v>
       </c>
-      <c r="CH10" t="n">
+      <c r="CI10" t="n">
         <v>88680</v>
       </c>
-      <c r="CI10" t="n">
-        <v>114689</v>
-      </c>
       <c r="CJ10" t="n">
+        <v>114690</v>
+      </c>
+      <c r="CK10" t="n">
         <v>124478</v>
       </c>
-      <c r="CK10" t="n">
+      <c r="CL10" t="n">
         <v>93927</v>
       </c>
-      <c r="CL10" t="n">
+      <c r="CM10" t="n">
         <v>91110</v>
       </c>
-      <c r="CM10" t="n">
-        <v>117486</v>
-      </c>
       <c r="CN10" t="n">
+        <v>117487</v>
+      </c>
+      <c r="CO10" t="n">
         <v>128613</v>
       </c>
-      <c r="CO10" t="n">
+      <c r="CP10" t="n">
         <v>98852</v>
       </c>
-      <c r="CP10" t="n">
+      <c r="CQ10" t="n">
         <v>94924</v>
       </c>
-      <c r="CQ10" t="n">
-        <v>122140</v>
-      </c>
       <c r="CR10" t="n">
+        <v>122141</v>
+      </c>
+      <c r="CS10" t="n">
         <v>133506</v>
       </c>
-      <c r="CS10" t="n">
+      <c r="CT10" t="n">
         <v>103684</v>
       </c>
-      <c r="CT10" t="n">
+      <c r="CU10" t="n">
         <v>99248</v>
       </c>
-      <c r="CU10" t="n">
-        <v>128047</v>
-      </c>
       <c r="CV10" t="n">
+        <v>128048</v>
+      </c>
+      <c r="CW10" t="n">
         <v>135465</v>
       </c>
-      <c r="CW10" t="n">
-        <v>101836</v>
-      </c>
       <c r="CX10" t="n">
-        <v>95185</v>
+        <v>102287</v>
       </c>
       <c r="CY10" t="n">
-        <v>116914</v>
+        <v>95269</v>
       </c>
       <c r="CZ10" t="n">
-        <v>126429</v>
+        <v>116926</v>
       </c>
       <c r="DA10" t="n">
-        <v>88230</v>
+        <v>125882</v>
       </c>
       <c r="DB10" t="n">
-        <v>85071</v>
+        <v>88217</v>
       </c>
       <c r="DC10" t="n">
-        <v>112478</v>
+        <v>84057</v>
       </c>
       <c r="DD10" t="n">
-        <v>123348</v>
+        <v>111034</v>
       </c>
       <c r="DE10" t="n">
-        <v>110657</v>
+        <v>121291</v>
       </c>
       <c r="DF10" t="n">
-        <v>98659</v>
+        <v>110791</v>
       </c>
       <c r="DG10" t="n">
-        <v>121185</v>
+        <v>97382</v>
+      </c>
+      <c r="DH10" t="n">
+        <v>120205</v>
+      </c>
+      <c r="DI10" t="n">
+        <v>129833</v>
       </c>
     </row>
-    <row r="11" spans="1:111">
+    <row r="11">
       <c r="A11" s="1" t="n"/>
       <c r="B11" s="1" t="n"/>
-      <c r="C11" s="1" t="s">
-        <v>45</v>
+      <c r="C11" s="1" t="inlineStr">
+        <is>
+          <t>Wholesale and retail trades</t>
+        </is>
       </c>
       <c r="D11" t="n">
         <v>46828</v>
@@ -3468,275 +3724,283 @@
         <v>92989</v>
       </c>
       <c r="X11" t="n">
-        <v>51064</v>
+        <v>48960</v>
       </c>
       <c r="Y11" t="n">
+        <v>54394</v>
+      </c>
+      <c r="Z11" t="n">
+        <v>10711</v>
+      </c>
+      <c r="AA11" t="n">
+        <v>11451</v>
+      </c>
+      <c r="AB11" t="n">
+        <v>11735</v>
+      </c>
+      <c r="AC11" t="n">
+        <v>12933</v>
+      </c>
+      <c r="AD11" t="n">
+        <v>11151</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>11788</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>11893</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>12698</v>
+      </c>
+      <c r="AH11" t="n">
         <v>10710</v>
       </c>
-      <c r="Z11" t="n">
-        <v>11451</v>
-      </c>
-      <c r="AA11" t="n">
-        <v>11734</v>
-      </c>
-      <c r="AB11" t="n">
-        <v>12933</v>
-      </c>
-      <c r="AC11" t="n">
-        <v>11150</v>
-      </c>
-      <c r="AD11" t="n">
-        <v>11788</v>
-      </c>
-      <c r="AE11" t="n">
-        <v>11892</v>
-      </c>
-      <c r="AF11" t="n">
-        <v>12698</v>
-      </c>
-      <c r="AG11" t="n">
-        <v>10709</v>
-      </c>
-      <c r="AH11" t="n">
+      <c r="AI11" t="n">
         <v>11160</v>
       </c>
-      <c r="AI11" t="n">
-        <v>11622</v>
-      </c>
       <c r="AJ11" t="n">
+        <v>11623</v>
+      </c>
+      <c r="AK11" t="n">
         <v>12627</v>
       </c>
-      <c r="AK11" t="n">
-        <v>10673</v>
-      </c>
       <c r="AL11" t="n">
+        <v>10674</v>
+      </c>
+      <c r="AM11" t="n">
         <v>9994</v>
       </c>
-      <c r="AM11" t="n">
-        <v>11635</v>
-      </c>
       <c r="AN11" t="n">
+        <v>11636</v>
+      </c>
+      <c r="AO11" t="n">
         <v>13244</v>
       </c>
-      <c r="AO11" t="n">
-        <v>11309</v>
-      </c>
       <c r="AP11" t="n">
+        <v>11310</v>
+      </c>
+      <c r="AQ11" t="n">
         <v>11441</v>
       </c>
-      <c r="AQ11" t="n">
-        <v>12216</v>
-      </c>
       <c r="AR11" t="n">
+        <v>12217</v>
+      </c>
+      <c r="AS11" t="n">
         <v>13909</v>
       </c>
-      <c r="AS11" t="n">
-        <v>12255</v>
-      </c>
       <c r="AT11" t="n">
+        <v>12256</v>
+      </c>
+      <c r="AU11" t="n">
         <v>12502</v>
       </c>
-      <c r="AU11" t="n">
-        <v>13147</v>
-      </c>
       <c r="AV11" t="n">
+        <v>13148</v>
+      </c>
+      <c r="AW11" t="n">
         <v>15025</v>
       </c>
-      <c r="AW11" t="n">
-        <v>13089</v>
-      </c>
       <c r="AX11" t="n">
+        <v>13090</v>
+      </c>
+      <c r="AY11" t="n">
         <v>13299</v>
       </c>
-      <c r="AY11" t="n">
-        <v>14183</v>
-      </c>
       <c r="AZ11" t="n">
+        <v>14184</v>
+      </c>
+      <c r="BA11" t="n">
         <v>15974</v>
       </c>
-      <c r="BA11" t="n">
-        <v>13621</v>
-      </c>
       <c r="BB11" t="n">
+        <v>13622</v>
+      </c>
+      <c r="BC11" t="n">
         <v>13953</v>
       </c>
-      <c r="BC11" t="n">
-        <v>15304</v>
-      </c>
       <c r="BD11" t="n">
+        <v>15305</v>
+      </c>
+      <c r="BE11" t="n">
         <v>17564</v>
       </c>
-      <c r="BE11" t="n">
-        <v>14862</v>
-      </c>
       <c r="BF11" t="n">
-        <v>14862</v>
+        <v>14863</v>
       </c>
       <c r="BG11" t="n">
-        <v>15883</v>
+        <v>14863</v>
       </c>
       <c r="BH11" t="n">
+        <v>15884</v>
+      </c>
+      <c r="BI11" t="n">
         <v>17362</v>
       </c>
-      <c r="BI11" t="n">
-        <v>13824</v>
-      </c>
       <c r="BJ11" t="n">
-        <v>14412</v>
+        <v>13825</v>
       </c>
       <c r="BK11" t="n">
-        <v>16178</v>
+        <v>14413</v>
       </c>
       <c r="BL11" t="n">
+        <v>16179</v>
+      </c>
+      <c r="BM11" t="n">
         <v>19188</v>
       </c>
-      <c r="BM11" t="n">
-        <v>16174</v>
-      </c>
       <c r="BN11" t="n">
-        <v>16664</v>
+        <v>16175</v>
       </c>
       <c r="BO11" t="n">
-        <v>19055</v>
+        <v>16665</v>
       </c>
       <c r="BP11" t="n">
+        <v>19056</v>
+      </c>
+      <c r="BQ11" t="n">
         <v>22754</v>
       </c>
-      <c r="BQ11" t="n">
-        <v>19764</v>
-      </c>
       <c r="BR11" t="n">
-        <v>20679</v>
+        <v>19765</v>
       </c>
       <c r="BS11" t="n">
-        <v>23271</v>
+        <v>20680</v>
       </c>
       <c r="BT11" t="n">
+        <v>23272</v>
+      </c>
+      <c r="BU11" t="n">
         <v>27509</v>
       </c>
-      <c r="BU11" t="n">
-        <v>21809</v>
-      </c>
       <c r="BV11" t="n">
-        <v>22184</v>
+        <v>21810</v>
       </c>
       <c r="BW11" t="n">
-        <v>24318</v>
+        <v>22185</v>
       </c>
       <c r="BX11" t="n">
+        <v>24319</v>
+      </c>
+      <c r="BY11" t="n">
         <v>29553</v>
       </c>
-      <c r="BY11" t="n">
-        <v>24261</v>
-      </c>
       <c r="BZ11" t="n">
-        <v>24915</v>
+        <v>24262</v>
       </c>
       <c r="CA11" t="n">
-        <v>25807</v>
+        <v>24916</v>
       </c>
       <c r="CB11" t="n">
+        <v>25808</v>
+      </c>
+      <c r="CC11" t="n">
         <v>31476</v>
       </c>
-      <c r="CC11" t="n">
-        <v>25458</v>
-      </c>
       <c r="CD11" t="n">
-        <v>23665</v>
+        <v>25459</v>
       </c>
       <c r="CE11" t="n">
-        <v>26248</v>
+        <v>23666</v>
       </c>
       <c r="CF11" t="n">
+        <v>26249</v>
+      </c>
+      <c r="CG11" t="n">
         <v>32317</v>
       </c>
-      <c r="CG11" t="n">
-        <v>25229</v>
-      </c>
       <c r="CH11" t="n">
-        <v>24052</v>
+        <v>25230</v>
       </c>
       <c r="CI11" t="n">
-        <v>25855</v>
+        <v>24053</v>
       </c>
       <c r="CJ11" t="n">
+        <v>25856</v>
+      </c>
+      <c r="CK11" t="n">
         <v>30806</v>
       </c>
-      <c r="CK11" t="n">
-        <v>22687</v>
-      </c>
       <c r="CL11" t="n">
-        <v>22591</v>
+        <v>22688</v>
       </c>
       <c r="CM11" t="n">
-        <v>24335</v>
+        <v>22592</v>
       </c>
       <c r="CN11" t="n">
+        <v>24336</v>
+      </c>
+      <c r="CO11" t="n">
         <v>30112</v>
       </c>
-      <c r="CO11" t="n">
-        <v>22897</v>
-      </c>
       <c r="CP11" t="n">
-        <v>23128</v>
+        <v>22898</v>
       </c>
       <c r="CQ11" t="n">
-        <v>25712</v>
+        <v>23129</v>
       </c>
       <c r="CR11" t="n">
+        <v>25713</v>
+      </c>
+      <c r="CS11" t="n">
         <v>31911</v>
       </c>
-      <c r="CS11" t="n">
-        <v>25468</v>
-      </c>
       <c r="CT11" t="n">
-        <v>25443</v>
+        <v>25469</v>
       </c>
       <c r="CU11" t="n">
-        <v>26789</v>
+        <v>25444</v>
       </c>
       <c r="CV11" t="n">
+        <v>26790</v>
+      </c>
+      <c r="CW11" t="n">
         <v>32146</v>
       </c>
-      <c r="CW11" t="n">
-        <v>24390</v>
-      </c>
       <c r="CX11" t="n">
-        <v>23529</v>
+        <v>24518</v>
       </c>
       <c r="CY11" t="n">
-        <v>21025</v>
+        <v>23595</v>
       </c>
       <c r="CZ11" t="n">
-        <v>24044</v>
+        <v>21001</v>
       </c>
       <c r="DA11" t="n">
-        <v>10048</v>
+        <v>23876</v>
       </c>
       <c r="DB11" t="n">
-        <v>10755</v>
+        <v>9774</v>
       </c>
       <c r="DC11" t="n">
-        <v>12770</v>
+        <v>10259</v>
       </c>
       <c r="DD11" t="n">
-        <v>17490</v>
+        <v>12196</v>
       </c>
       <c r="DE11" t="n">
-        <v>11202</v>
+        <v>16732</v>
       </c>
       <c r="DF11" t="n">
-        <v>11993</v>
+        <v>10959</v>
       </c>
       <c r="DG11" t="n">
-        <v>14124</v>
+        <v>11539</v>
+      </c>
+      <c r="DH11" t="n">
+        <v>13552</v>
+      </c>
+      <c r="DI11" t="n">
+        <v>18345</v>
       </c>
     </row>
-    <row r="12" spans="1:111">
+    <row r="12">
       <c r="A12" s="1" t="n"/>
       <c r="B12" s="1" t="n"/>
-      <c r="C12" s="1" t="s">
-        <v>46</v>
+      <c r="C12" s="1" t="inlineStr">
+        <is>
+          <t>Accommodation and food services (1)</t>
+        </is>
       </c>
       <c r="D12" t="n">
         <v>62198</v>
@@ -3799,275 +4063,283 @@
         <v>75918</v>
       </c>
       <c r="X12" t="n">
-        <v>44051</v>
+        <v>41895</v>
       </c>
       <c r="Y12" t="n">
+        <v>51500</v>
+      </c>
+      <c r="Z12" t="n">
         <v>15979</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>14617</v>
       </c>
-      <c r="AA12" t="n">
-        <v>15439</v>
-      </c>
       <c r="AB12" t="n">
-        <v>16161</v>
+        <v>15440</v>
       </c>
       <c r="AC12" t="n">
+        <v>16162</v>
+      </c>
+      <c r="AD12" t="n">
         <v>14708</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AE12" t="n">
         <v>13626</v>
       </c>
-      <c r="AE12" t="n">
-        <v>13685</v>
-      </c>
       <c r="AF12" t="n">
-        <v>14158</v>
+        <v>13686</v>
       </c>
       <c r="AG12" t="n">
+        <v>14159</v>
+      </c>
+      <c r="AH12" t="n">
         <v>13377</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AI12" t="n">
         <v>12501</v>
       </c>
-      <c r="AI12" t="n">
-        <v>12452</v>
-      </c>
       <c r="AJ12" t="n">
-        <v>12852</v>
+        <v>12453</v>
       </c>
       <c r="AK12" t="n">
+        <v>12853</v>
+      </c>
+      <c r="AL12" t="n">
         <v>12290</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AM12" t="n">
         <v>8110</v>
       </c>
-      <c r="AM12" t="n">
-        <v>11459</v>
-      </c>
       <c r="AN12" t="n">
-        <v>12309</v>
+        <v>11460</v>
       </c>
       <c r="AO12" t="n">
+        <v>12310</v>
+      </c>
+      <c r="AP12" t="n">
         <v>13819</v>
       </c>
-      <c r="AP12" t="n">
+      <c r="AQ12" t="n">
         <v>13033</v>
       </c>
-      <c r="AQ12" t="n">
-        <v>13154</v>
-      </c>
       <c r="AR12" t="n">
-        <v>14253</v>
+        <v>13155</v>
       </c>
       <c r="AS12" t="n">
+        <v>14254</v>
+      </c>
+      <c r="AT12" t="n">
         <v>14599</v>
       </c>
-      <c r="AT12" t="n">
+      <c r="AU12" t="n">
         <v>13707</v>
       </c>
-      <c r="AU12" t="n">
-        <v>13924</v>
-      </c>
       <c r="AV12" t="n">
-        <v>15394</v>
+        <v>13925</v>
       </c>
       <c r="AW12" t="n">
+        <v>15395</v>
+      </c>
+      <c r="AX12" t="n">
         <v>15964</v>
       </c>
-      <c r="AX12" t="n">
+      <c r="AY12" t="n">
         <v>15217</v>
       </c>
-      <c r="AY12" t="n">
-        <v>15161</v>
-      </c>
       <c r="AZ12" t="n">
-        <v>16852</v>
+        <v>15162</v>
       </c>
       <c r="BA12" t="n">
+        <v>16853</v>
+      </c>
+      <c r="BB12" t="n">
         <v>17278</v>
       </c>
-      <c r="BB12" t="n">
+      <c r="BC12" t="n">
         <v>16690</v>
       </c>
-      <c r="BC12" t="n">
-        <v>17202</v>
-      </c>
       <c r="BD12" t="n">
-        <v>18789</v>
+        <v>17203</v>
       </c>
       <c r="BE12" t="n">
+        <v>18790</v>
+      </c>
+      <c r="BF12" t="n">
         <v>18378</v>
       </c>
-      <c r="BF12" t="n">
+      <c r="BG12" t="n">
         <v>17303</v>
       </c>
-      <c r="BG12" t="n">
-        <v>17293</v>
-      </c>
       <c r="BH12" t="n">
-        <v>18182</v>
+        <v>17294</v>
       </c>
       <c r="BI12" t="n">
+        <v>18183</v>
+      </c>
+      <c r="BJ12" t="n">
         <v>16388</v>
       </c>
-      <c r="BJ12" t="n">
+      <c r="BK12" t="n">
         <v>14670</v>
       </c>
-      <c r="BK12" t="n">
-        <v>15300</v>
-      </c>
       <c r="BL12" t="n">
-        <v>16760</v>
+        <v>15301</v>
       </c>
       <c r="BM12" t="n">
+        <v>16761</v>
+      </c>
+      <c r="BN12" t="n">
         <v>18076</v>
       </c>
-      <c r="BN12" t="n">
+      <c r="BO12" t="n">
         <v>16481</v>
       </c>
-      <c r="BO12" t="n">
-        <v>16776</v>
-      </c>
       <c r="BP12" t="n">
-        <v>17781</v>
+        <v>16777</v>
       </c>
       <c r="BQ12" t="n">
+        <v>17782</v>
+      </c>
+      <c r="BR12" t="n">
         <v>19091</v>
       </c>
-      <c r="BR12" t="n">
+      <c r="BS12" t="n">
         <v>17722</v>
       </c>
-      <c r="BS12" t="n">
-        <v>18500</v>
-      </c>
       <c r="BT12" t="n">
-        <v>19565</v>
+        <v>18501</v>
       </c>
       <c r="BU12" t="n">
+        <v>19566</v>
+      </c>
+      <c r="BV12" t="n">
         <v>18942</v>
       </c>
-      <c r="BV12" t="n">
+      <c r="BW12" t="n">
         <v>17876</v>
       </c>
-      <c r="BW12" t="n">
-        <v>19013</v>
-      </c>
       <c r="BX12" t="n">
-        <v>20379</v>
+        <v>19014</v>
       </c>
       <c r="BY12" t="n">
+        <v>20380</v>
+      </c>
+      <c r="BZ12" t="n">
         <v>19626</v>
       </c>
-      <c r="BZ12" t="n">
+      <c r="CA12" t="n">
         <v>18631</v>
       </c>
-      <c r="CA12" t="n">
-        <v>19648</v>
-      </c>
       <c r="CB12" t="n">
-        <v>21028</v>
+        <v>19649</v>
       </c>
       <c r="CC12" t="n">
+        <v>21029</v>
+      </c>
+      <c r="CD12" t="n">
         <v>20417</v>
       </c>
-      <c r="CD12" t="n">
+      <c r="CE12" t="n">
         <v>18942</v>
       </c>
-      <c r="CE12" t="n">
-        <v>20360</v>
-      </c>
       <c r="CF12" t="n">
-        <v>20981</v>
+        <v>20361</v>
       </c>
       <c r="CG12" t="n">
+        <v>20982</v>
+      </c>
+      <c r="CH12" t="n">
         <v>20230</v>
       </c>
-      <c r="CH12" t="n">
+      <c r="CI12" t="n">
         <v>18649</v>
       </c>
-      <c r="CI12" t="n">
-        <v>19524</v>
-      </c>
       <c r="CJ12" t="n">
-        <v>20762</v>
+        <v>19525</v>
       </c>
       <c r="CK12" t="n">
+        <v>20763</v>
+      </c>
+      <c r="CL12" t="n">
         <v>20038</v>
       </c>
-      <c r="CL12" t="n">
+      <c r="CM12" t="n">
         <v>18942</v>
       </c>
-      <c r="CM12" t="n">
-        <v>19657</v>
-      </c>
       <c r="CN12" t="n">
-        <v>20933</v>
+        <v>19658</v>
       </c>
       <c r="CO12" t="n">
+        <v>20934</v>
+      </c>
+      <c r="CP12" t="n">
         <v>20271</v>
       </c>
-      <c r="CP12" t="n">
+      <c r="CQ12" t="n">
         <v>19120</v>
       </c>
-      <c r="CQ12" t="n">
-        <v>20014</v>
-      </c>
       <c r="CR12" t="n">
-        <v>21783</v>
+        <v>20015</v>
       </c>
       <c r="CS12" t="n">
+        <v>21784</v>
+      </c>
+      <c r="CT12" t="n">
         <v>22072</v>
       </c>
-      <c r="CT12" t="n">
+      <c r="CU12" t="n">
         <v>20330</v>
       </c>
-      <c r="CU12" t="n">
-        <v>21190</v>
-      </c>
       <c r="CV12" t="n">
-        <v>22372</v>
+        <v>21191</v>
       </c>
       <c r="CW12" t="n">
-        <v>22205</v>
+        <v>22373</v>
       </c>
       <c r="CX12" t="n">
-        <v>19523</v>
+        <v>22211</v>
       </c>
       <c r="CY12" t="n">
-        <v>17547</v>
+        <v>19499</v>
       </c>
       <c r="CZ12" t="n">
-        <v>16643</v>
+        <v>17544</v>
       </c>
       <c r="DA12" t="n">
-        <v>12008</v>
+        <v>16665</v>
       </c>
       <c r="DB12" t="n">
-        <v>11195</v>
+        <v>11210</v>
       </c>
       <c r="DC12" t="n">
-        <v>9673</v>
+        <v>10791</v>
       </c>
       <c r="DD12" t="n">
-        <v>11174</v>
+        <v>9156</v>
       </c>
       <c r="DE12" t="n">
-        <v>11271</v>
+        <v>10739</v>
       </c>
       <c r="DF12" t="n">
-        <v>13071</v>
+        <v>10623</v>
       </c>
       <c r="DG12" t="n">
-        <v>14198</v>
+        <v>12596</v>
+      </c>
+      <c r="DH12" t="n">
+        <v>13400</v>
+      </c>
+      <c r="DI12" t="n">
+        <v>14882</v>
       </c>
     </row>
-    <row r="13" spans="1:111">
+    <row r="13">
       <c r="A13" s="1" t="n"/>
       <c r="B13" s="1" t="n"/>
-      <c r="C13" s="1" t="s">
-        <v>47</v>
+      <c r="C13" s="1" t="inlineStr">
+        <is>
+          <t>Transportation, storage, postal and courier services</t>
+        </is>
       </c>
       <c r="D13" t="n">
         <v>79446</v>
@@ -4130,275 +4402,283 @@
         <v>151574</v>
       </c>
       <c r="X13" t="n">
-        <v>91677</v>
+        <v>95633</v>
       </c>
       <c r="Y13" t="n">
+        <v>105910</v>
+      </c>
+      <c r="Z13" t="n">
         <v>18212</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>19243</v>
       </c>
-      <c r="AA13" t="n">
-        <v>21105</v>
-      </c>
       <c r="AB13" t="n">
+        <v>21106</v>
+      </c>
+      <c r="AC13" t="n">
         <v>20888</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>19312</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AE13" t="n">
         <v>19012</v>
       </c>
-      <c r="AE13" t="n">
-        <v>20658</v>
-      </c>
       <c r="AF13" t="n">
+        <v>20659</v>
+      </c>
+      <c r="AG13" t="n">
         <v>20465</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AH13" t="n">
         <v>19116</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AI13" t="n">
         <v>19804</v>
       </c>
-      <c r="AI13" t="n">
-        <v>22167</v>
-      </c>
       <c r="AJ13" t="n">
+        <v>22168</v>
+      </c>
+      <c r="AK13" t="n">
         <v>22328</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AL13" t="n">
         <v>20077</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AM13" t="n">
         <v>17960</v>
       </c>
-      <c r="AM13" t="n">
-        <v>22053</v>
-      </c>
       <c r="AN13" t="n">
+        <v>22054</v>
+      </c>
+      <c r="AO13" t="n">
         <v>22807</v>
       </c>
-      <c r="AO13" t="n">
+      <c r="AP13" t="n">
         <v>22084</v>
       </c>
-      <c r="AP13" t="n">
+      <c r="AQ13" t="n">
         <v>22411</v>
       </c>
-      <c r="AQ13" t="n">
-        <v>24753</v>
-      </c>
       <c r="AR13" t="n">
+        <v>24754</v>
+      </c>
+      <c r="AS13" t="n">
         <v>25216</v>
       </c>
-      <c r="AS13" t="n">
+      <c r="AT13" t="n">
         <v>24320</v>
       </c>
-      <c r="AT13" t="n">
+      <c r="AU13" t="n">
         <v>24157</v>
       </c>
-      <c r="AU13" t="n">
-        <v>26352</v>
-      </c>
       <c r="AV13" t="n">
+        <v>26353</v>
+      </c>
+      <c r="AW13" t="n">
         <v>26228</v>
       </c>
-      <c r="AW13" t="n">
+      <c r="AX13" t="n">
         <v>26487</v>
       </c>
-      <c r="AX13" t="n">
+      <c r="AY13" t="n">
         <v>25153</v>
       </c>
-      <c r="AY13" t="n">
-        <v>27844</v>
-      </c>
       <c r="AZ13" t="n">
+        <v>27845</v>
+      </c>
+      <c r="BA13" t="n">
         <v>28156</v>
       </c>
-      <c r="BA13" t="n">
+      <c r="BB13" t="n">
         <v>27298</v>
       </c>
-      <c r="BB13" t="n">
+      <c r="BC13" t="n">
         <v>26191</v>
       </c>
-      <c r="BC13" t="n">
-        <v>29539</v>
-      </c>
       <c r="BD13" t="n">
+        <v>29540</v>
+      </c>
+      <c r="BE13" t="n">
         <v>30098</v>
       </c>
-      <c r="BE13" t="n">
+      <c r="BF13" t="n">
         <v>29644</v>
       </c>
-      <c r="BF13" t="n">
+      <c r="BG13" t="n">
         <v>27388</v>
       </c>
-      <c r="BG13" t="n">
-        <v>30253</v>
-      </c>
       <c r="BH13" t="n">
+        <v>30254</v>
+      </c>
+      <c r="BI13" t="n">
         <v>28720</v>
       </c>
-      <c r="BI13" t="n">
+      <c r="BJ13" t="n">
         <v>26863</v>
       </c>
-      <c r="BJ13" t="n">
+      <c r="BK13" t="n">
         <v>25261</v>
       </c>
-      <c r="BK13" t="n">
-        <v>28437</v>
-      </c>
       <c r="BL13" t="n">
+        <v>28438</v>
+      </c>
+      <c r="BM13" t="n">
         <v>29103</v>
       </c>
-      <c r="BM13" t="n">
-        <v>28105</v>
-      </c>
       <c r="BN13" t="n">
+        <v>28106</v>
+      </c>
+      <c r="BO13" t="n">
         <v>27631</v>
       </c>
-      <c r="BO13" t="n">
-        <v>30241</v>
-      </c>
       <c r="BP13" t="n">
+        <v>30242</v>
+      </c>
+      <c r="BQ13" t="n">
         <v>30319</v>
       </c>
-      <c r="BQ13" t="n">
-        <v>31177</v>
-      </c>
       <c r="BR13" t="n">
+        <v>31178</v>
+      </c>
+      <c r="BS13" t="n">
         <v>29141</v>
       </c>
-      <c r="BS13" t="n">
-        <v>32433</v>
-      </c>
       <c r="BT13" t="n">
-        <v>31970</v>
+        <v>32434</v>
       </c>
       <c r="BU13" t="n">
         <v>31970</v>
       </c>
       <c r="BV13" t="n">
+        <v>31971</v>
+      </c>
+      <c r="BW13" t="n">
         <v>28577</v>
       </c>
-      <c r="BW13" t="n">
-        <v>32601</v>
-      </c>
       <c r="BX13" t="n">
+        <v>32602</v>
+      </c>
+      <c r="BY13" t="n">
         <v>32710</v>
       </c>
-      <c r="BY13" t="n">
-        <v>32524</v>
-      </c>
       <c r="BZ13" t="n">
+        <v>32525</v>
+      </c>
+      <c r="CA13" t="n">
         <v>29956</v>
       </c>
-      <c r="CA13" t="n">
-        <v>33904</v>
-      </c>
       <c r="CB13" t="n">
+        <v>33905</v>
+      </c>
+      <c r="CC13" t="n">
         <v>34673</v>
       </c>
-      <c r="CC13" t="n">
-        <v>33846</v>
-      </c>
       <c r="CD13" t="n">
+        <v>33847</v>
+      </c>
+      <c r="CE13" t="n">
         <v>31323</v>
       </c>
-      <c r="CE13" t="n">
-        <v>34386</v>
-      </c>
       <c r="CF13" t="n">
+        <v>34387</v>
+      </c>
+      <c r="CG13" t="n">
         <v>35260</v>
       </c>
-      <c r="CG13" t="n">
-        <v>35073</v>
-      </c>
       <c r="CH13" t="n">
+        <v>35074</v>
+      </c>
+      <c r="CI13" t="n">
         <v>32146</v>
       </c>
-      <c r="CI13" t="n">
-        <v>35295</v>
-      </c>
       <c r="CJ13" t="n">
+        <v>35296</v>
+      </c>
+      <c r="CK13" t="n">
         <v>36794</v>
       </c>
-      <c r="CK13" t="n">
-        <v>35876</v>
-      </c>
       <c r="CL13" t="n">
+        <v>35877</v>
+      </c>
+      <c r="CM13" t="n">
         <v>33115</v>
       </c>
-      <c r="CM13" t="n">
-        <v>36399</v>
-      </c>
       <c r="CN13" t="n">
+        <v>36400</v>
+      </c>
+      <c r="CO13" t="n">
         <v>38085</v>
       </c>
-      <c r="CO13" t="n">
-        <v>37710</v>
-      </c>
       <c r="CP13" t="n">
+        <v>37711</v>
+      </c>
+      <c r="CQ13" t="n">
         <v>34759</v>
       </c>
-      <c r="CQ13" t="n">
-        <v>38179</v>
-      </c>
       <c r="CR13" t="n">
+        <v>38180</v>
+      </c>
+      <c r="CS13" t="n">
         <v>39751</v>
       </c>
-      <c r="CS13" t="n">
-        <v>39313</v>
-      </c>
       <c r="CT13" t="n">
+        <v>39314</v>
+      </c>
+      <c r="CU13" t="n">
         <v>35809</v>
       </c>
-      <c r="CU13" t="n">
-        <v>38311</v>
-      </c>
       <c r="CV13" t="n">
+        <v>38312</v>
+      </c>
+      <c r="CW13" t="n">
         <v>40718</v>
       </c>
-      <c r="CW13" t="n">
-        <v>40295</v>
-      </c>
       <c r="CX13" t="n">
-        <v>36427</v>
+        <v>39918</v>
       </c>
       <c r="CY13" t="n">
-        <v>37453</v>
+        <v>36231</v>
       </c>
       <c r="CZ13" t="n">
-        <v>37399</v>
+        <v>37540</v>
       </c>
       <c r="DA13" t="n">
-        <v>27212</v>
+        <v>37886</v>
       </c>
       <c r="DB13" t="n">
-        <v>18377</v>
+        <v>27988</v>
       </c>
       <c r="DC13" t="n">
-        <v>21850</v>
+        <v>19154</v>
       </c>
       <c r="DD13" t="n">
-        <v>24239</v>
+        <v>22956</v>
       </c>
       <c r="DE13" t="n">
-        <v>27322</v>
+        <v>25536</v>
       </c>
       <c r="DF13" t="n">
-        <v>21972</v>
+        <v>27812</v>
       </c>
       <c r="DG13" t="n">
-        <v>26295</v>
+        <v>22745</v>
+      </c>
+      <c r="DH13" t="n">
+        <v>27338</v>
+      </c>
+      <c r="DI13" t="n">
+        <v>28015</v>
       </c>
     </row>
-    <row r="14" spans="1:111">
+    <row r="14">
       <c r="A14" s="1" t="n"/>
       <c r="B14" s="1" t="n"/>
-      <c r="C14" s="1" t="s">
-        <v>48</v>
+      <c r="C14" s="1" t="inlineStr">
+        <is>
+          <t>Transportation and storage</t>
+        </is>
       </c>
       <c r="D14" t="n">
         <v>74796</v>
@@ -4461,275 +4741,283 @@
         <v>142775</v>
       </c>
       <c r="X14" t="n">
-        <v>81832</v>
+        <v>85911</v>
       </c>
       <c r="Y14" t="n">
+        <v>94416</v>
+      </c>
+      <c r="Z14" t="n">
         <v>17178</v>
       </c>
-      <c r="Z14" t="n">
-        <v>18026</v>
-      </c>
       <c r="AA14" t="n">
+        <v>18027</v>
+      </c>
+      <c r="AB14" t="n">
         <v>19915</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>19678</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>18261</v>
       </c>
-      <c r="AD14" t="n">
-        <v>17945</v>
-      </c>
       <c r="AE14" t="n">
+        <v>17946</v>
+      </c>
+      <c r="AF14" t="n">
         <v>19569</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AG14" t="n">
         <v>19248</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AH14" t="n">
         <v>17974</v>
       </c>
-      <c r="AH14" t="n">
-        <v>18602</v>
-      </c>
       <c r="AI14" t="n">
+        <v>18603</v>
+      </c>
+      <c r="AJ14" t="n">
         <v>20955</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AK14" t="n">
         <v>20908</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AL14" t="n">
         <v>18882</v>
       </c>
-      <c r="AL14" t="n">
-        <v>16760</v>
-      </c>
       <c r="AM14" t="n">
+        <v>16761</v>
+      </c>
+      <c r="AN14" t="n">
         <v>20780</v>
       </c>
-      <c r="AN14" t="n">
+      <c r="AO14" t="n">
         <v>21261</v>
       </c>
-      <c r="AO14" t="n">
+      <c r="AP14" t="n">
         <v>20732</v>
       </c>
-      <c r="AP14" t="n">
-        <v>21034</v>
-      </c>
       <c r="AQ14" t="n">
+        <v>21035</v>
+      </c>
+      <c r="AR14" t="n">
         <v>23294</v>
       </c>
-      <c r="AR14" t="n">
+      <c r="AS14" t="n">
         <v>23459</v>
       </c>
-      <c r="AS14" t="n">
+      <c r="AT14" t="n">
         <v>22795</v>
       </c>
-      <c r="AT14" t="n">
-        <v>22619</v>
-      </c>
       <c r="AU14" t="n">
+        <v>22620</v>
+      </c>
+      <c r="AV14" t="n">
         <v>24738</v>
       </c>
-      <c r="AV14" t="n">
+      <c r="AW14" t="n">
         <v>24292</v>
       </c>
-      <c r="AW14" t="n">
+      <c r="AX14" t="n">
         <v>24901</v>
       </c>
-      <c r="AX14" t="n">
-        <v>23573</v>
-      </c>
       <c r="AY14" t="n">
+        <v>23574</v>
+      </c>
+      <c r="AZ14" t="n">
         <v>26179</v>
       </c>
-      <c r="AZ14" t="n">
+      <c r="BA14" t="n">
         <v>26163</v>
       </c>
-      <c r="BA14" t="n">
+      <c r="BB14" t="n">
         <v>25627</v>
       </c>
-      <c r="BB14" t="n">
-        <v>24526</v>
-      </c>
       <c r="BC14" t="n">
+        <v>24527</v>
+      </c>
+      <c r="BD14" t="n">
         <v>27778</v>
       </c>
-      <c r="BD14" t="n">
+      <c r="BE14" t="n">
         <v>28015</v>
       </c>
-      <c r="BE14" t="n">
+      <c r="BF14" t="n">
         <v>27897</v>
       </c>
-      <c r="BF14" t="n">
-        <v>25662</v>
-      </c>
       <c r="BG14" t="n">
+        <v>25663</v>
+      </c>
+      <c r="BH14" t="n">
         <v>28463</v>
       </c>
-      <c r="BH14" t="n">
+      <c r="BI14" t="n">
         <v>26815</v>
       </c>
-      <c r="BI14" t="n">
+      <c r="BJ14" t="n">
         <v>25417</v>
       </c>
-      <c r="BJ14" t="n">
-        <v>23814</v>
-      </c>
       <c r="BK14" t="n">
+        <v>23815</v>
+      </c>
+      <c r="BL14" t="n">
         <v>26873</v>
       </c>
-      <c r="BL14" t="n">
+      <c r="BM14" t="n">
         <v>27190</v>
       </c>
-      <c r="BM14" t="n">
+      <c r="BN14" t="n">
         <v>26414</v>
       </c>
-      <c r="BN14" t="n">
-        <v>25912</v>
-      </c>
       <c r="BO14" t="n">
+        <v>25913</v>
+      </c>
+      <c r="BP14" t="n">
         <v>28440</v>
       </c>
-      <c r="BP14" t="n">
+      <c r="BQ14" t="n">
         <v>28122</v>
       </c>
-      <c r="BQ14" t="n">
+      <c r="BR14" t="n">
         <v>29258</v>
       </c>
-      <c r="BR14" t="n">
-        <v>27258</v>
-      </c>
       <c r="BS14" t="n">
-        <v>30523</v>
+        <v>27259</v>
       </c>
       <c r="BT14" t="n">
+        <v>30524</v>
+      </c>
+      <c r="BU14" t="n">
         <v>29811</v>
       </c>
-      <c r="BU14" t="n">
+      <c r="BV14" t="n">
         <v>29977</v>
       </c>
-      <c r="BV14" t="n">
-        <v>26666</v>
-      </c>
       <c r="BW14" t="n">
-        <v>30611</v>
+        <v>26667</v>
       </c>
       <c r="BX14" t="n">
+        <v>30612</v>
+      </c>
+      <c r="BY14" t="n">
         <v>30364</v>
       </c>
-      <c r="BY14" t="n">
+      <c r="BZ14" t="n">
         <v>30505</v>
       </c>
-      <c r="BZ14" t="n">
-        <v>28040</v>
-      </c>
       <c r="CA14" t="n">
-        <v>31652</v>
+        <v>28041</v>
       </c>
       <c r="CB14" t="n">
+        <v>31653</v>
+      </c>
+      <c r="CC14" t="n">
         <v>32254</v>
       </c>
-      <c r="CC14" t="n">
+      <c r="CD14" t="n">
         <v>31616</v>
       </c>
-      <c r="CD14" t="n">
-        <v>29291</v>
-      </c>
       <c r="CE14" t="n">
-        <v>32383</v>
+        <v>29292</v>
       </c>
       <c r="CF14" t="n">
+        <v>32384</v>
+      </c>
+      <c r="CG14" t="n">
         <v>32781</v>
       </c>
-      <c r="CG14" t="n">
+      <c r="CH14" t="n">
         <v>32940</v>
       </c>
-      <c r="CH14" t="n">
-        <v>30215</v>
-      </c>
       <c r="CI14" t="n">
-        <v>33427</v>
+        <v>30216</v>
       </c>
       <c r="CJ14" t="n">
+        <v>33428</v>
+      </c>
+      <c r="CK14" t="n">
         <v>34485</v>
       </c>
-      <c r="CK14" t="n">
+      <c r="CL14" t="n">
         <v>33758</v>
       </c>
-      <c r="CL14" t="n">
-        <v>31134</v>
-      </c>
       <c r="CM14" t="n">
-        <v>34457</v>
+        <v>31135</v>
       </c>
       <c r="CN14" t="n">
+        <v>34458</v>
+      </c>
+      <c r="CO14" t="n">
         <v>35719</v>
       </c>
-      <c r="CO14" t="n">
+      <c r="CP14" t="n">
         <v>35423</v>
       </c>
-      <c r="CP14" t="n">
-        <v>32619</v>
-      </c>
       <c r="CQ14" t="n">
-        <v>36123</v>
+        <v>32620</v>
       </c>
       <c r="CR14" t="n">
+        <v>36124</v>
+      </c>
+      <c r="CS14" t="n">
         <v>37197</v>
       </c>
-      <c r="CS14" t="n">
+      <c r="CT14" t="n">
         <v>36895</v>
       </c>
-      <c r="CT14" t="n">
-        <v>33708</v>
-      </c>
       <c r="CU14" t="n">
-        <v>36359</v>
+        <v>33709</v>
       </c>
       <c r="CV14" t="n">
+        <v>36360</v>
+      </c>
+      <c r="CW14" t="n">
         <v>38051</v>
       </c>
-      <c r="CW14" t="n">
-        <v>37996</v>
-      </c>
       <c r="CX14" t="n">
-        <v>34389</v>
+        <v>37614</v>
       </c>
       <c r="CY14" t="n">
-        <v>35463</v>
+        <v>34191</v>
       </c>
       <c r="CZ14" t="n">
-        <v>34927</v>
+        <v>35550</v>
       </c>
       <c r="DA14" t="n">
-        <v>24991</v>
+        <v>35420</v>
       </c>
       <c r="DB14" t="n">
-        <v>16060</v>
+        <v>25785</v>
       </c>
       <c r="DC14" t="n">
-        <v>19481</v>
+        <v>16865</v>
       </c>
       <c r="DD14" t="n">
-        <v>21299</v>
+        <v>20620</v>
       </c>
       <c r="DE14" t="n">
-        <v>24348</v>
+        <v>22641</v>
       </c>
       <c r="DF14" t="n">
-        <v>19371</v>
+        <v>24797</v>
       </c>
       <c r="DG14" t="n">
-        <v>23660</v>
+        <v>20131</v>
+      </c>
+      <c r="DH14" t="n">
+        <v>24789</v>
+      </c>
+      <c r="DI14" t="n">
+        <v>24699</v>
       </c>
     </row>
-    <row r="15" spans="1:111">
+    <row r="15">
       <c r="A15" s="1" t="n"/>
       <c r="B15" s="1" t="n"/>
-      <c r="C15" s="1" t="s">
-        <v>49</v>
+      <c r="C15" s="1" t="inlineStr">
+        <is>
+          <t>Postal and courier services</t>
+        </is>
       </c>
       <c r="D15" t="n">
         <v>4746</v>
@@ -4792,275 +5080,283 @@
         <v>8799</v>
       </c>
       <c r="X15" t="n">
-        <v>9845</v>
+        <v>9722</v>
       </c>
       <c r="Y15" t="n">
+        <v>11494</v>
+      </c>
+      <c r="Z15" t="n">
         <v>1054</v>
       </c>
-      <c r="Z15" t="n">
-        <v>1244</v>
-      </c>
       <c r="AA15" t="n">
+        <v>1246</v>
+      </c>
+      <c r="AB15" t="n">
         <v>1215</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
         <v>1234</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
         <v>1070</v>
       </c>
-      <c r="AD15" t="n">
-        <v>1085</v>
-      </c>
       <c r="AE15" t="n">
+        <v>1086</v>
+      </c>
+      <c r="AF15" t="n">
         <v>1108</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AG15" t="n">
         <v>1243</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AH15" t="n">
         <v>1170</v>
       </c>
-      <c r="AH15" t="n">
-        <v>1230</v>
-      </c>
       <c r="AI15" t="n">
+        <v>1231</v>
+      </c>
+      <c r="AJ15" t="n">
         <v>1234</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AK15" t="n">
         <v>1459</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AL15" t="n">
         <v>1223</v>
       </c>
-      <c r="AL15" t="n">
-        <v>1257</v>
-      </c>
       <c r="AM15" t="n">
+        <v>1258</v>
+      </c>
+      <c r="AN15" t="n">
         <v>1294</v>
       </c>
-      <c r="AN15" t="n">
+      <c r="AO15" t="n">
         <v>1627</v>
       </c>
-      <c r="AO15" t="n">
+      <c r="AP15" t="n">
         <v>1389</v>
       </c>
-      <c r="AP15" t="n">
-        <v>1414</v>
-      </c>
       <c r="AQ15" t="n">
+        <v>1415</v>
+      </c>
+      <c r="AR15" t="n">
         <v>1486</v>
       </c>
-      <c r="AR15" t="n">
+      <c r="AS15" t="n">
         <v>1867</v>
       </c>
-      <c r="AS15" t="n">
+      <c r="AT15" t="n">
         <v>1576</v>
       </c>
-      <c r="AT15" t="n">
-        <v>1596</v>
-      </c>
       <c r="AU15" t="n">
+        <v>1597</v>
+      </c>
+      <c r="AV15" t="n">
         <v>1662</v>
       </c>
-      <c r="AV15" t="n">
+      <c r="AW15" t="n">
         <v>2081</v>
       </c>
-      <c r="AW15" t="n">
+      <c r="AX15" t="n">
         <v>1604</v>
       </c>
-      <c r="AX15" t="n">
-        <v>1627</v>
-      </c>
       <c r="AY15" t="n">
+        <v>1628</v>
+      </c>
+      <c r="AZ15" t="n">
         <v>1687</v>
       </c>
-      <c r="AZ15" t="n">
+      <c r="BA15" t="n">
         <v>2139</v>
       </c>
-      <c r="BA15" t="n">
+      <c r="BB15" t="n">
         <v>1705</v>
       </c>
-      <c r="BB15" t="n">
-        <v>1721</v>
-      </c>
       <c r="BC15" t="n">
-        <v>1783</v>
+        <v>1722</v>
       </c>
       <c r="BD15" t="n">
+        <v>1782</v>
+      </c>
+      <c r="BE15" t="n">
         <v>2218</v>
       </c>
-      <c r="BE15" t="n">
+      <c r="BF15" t="n">
         <v>1749</v>
       </c>
-      <c r="BF15" t="n">
-        <v>1778</v>
-      </c>
       <c r="BG15" t="n">
-        <v>1799</v>
+        <v>1779</v>
       </c>
       <c r="BH15" t="n">
+        <v>1798</v>
+      </c>
+      <c r="BI15" t="n">
         <v>2006</v>
       </c>
-      <c r="BI15" t="n">
+      <c r="BJ15" t="n">
         <v>1432</v>
       </c>
-      <c r="BJ15" t="n">
-        <v>1453</v>
-      </c>
       <c r="BK15" t="n">
-        <v>1560</v>
+        <v>1454</v>
       </c>
       <c r="BL15" t="n">
+        <v>1559</v>
+      </c>
+      <c r="BM15" t="n">
         <v>1982</v>
       </c>
-      <c r="BM15" t="n">
+      <c r="BN15" t="n">
         <v>1714</v>
       </c>
-      <c r="BN15" t="n">
-        <v>1749</v>
-      </c>
       <c r="BO15" t="n">
-        <v>1825</v>
+        <v>1750</v>
       </c>
       <c r="BP15" t="n">
+        <v>1824</v>
+      </c>
+      <c r="BQ15" t="n">
         <v>2276</v>
       </c>
-      <c r="BQ15" t="n">
+      <c r="BR15" t="n">
         <v>1917</v>
       </c>
-      <c r="BR15" t="n">
-        <v>1937</v>
-      </c>
       <c r="BS15" t="n">
-        <v>1857</v>
+        <v>1938</v>
       </c>
       <c r="BT15" t="n">
+        <v>1856</v>
+      </c>
+      <c r="BU15" t="n">
         <v>2279</v>
       </c>
-      <c r="BU15" t="n">
+      <c r="BV15" t="n">
         <v>2011</v>
       </c>
-      <c r="BV15" t="n">
-        <v>1988</v>
-      </c>
       <c r="BW15" t="n">
-        <v>1991</v>
+        <v>1989</v>
       </c>
       <c r="BX15" t="n">
-        <v>2512</v>
+        <v>1990</v>
       </c>
       <c r="BY15" t="n">
+        <v>2511</v>
+      </c>
+      <c r="BZ15" t="n">
         <v>2033</v>
       </c>
-      <c r="BZ15" t="n">
-        <v>1955</v>
-      </c>
       <c r="CA15" t="n">
-        <v>2339</v>
+        <v>1956</v>
       </c>
       <c r="CB15" t="n">
-        <v>2564</v>
+        <v>2337</v>
       </c>
       <c r="CC15" t="n">
+        <v>2563</v>
+      </c>
+      <c r="CD15" t="n">
         <v>2305</v>
       </c>
-      <c r="CD15" t="n">
-        <v>2090</v>
-      </c>
       <c r="CE15" t="n">
-        <v>1990</v>
+        <v>2091</v>
       </c>
       <c r="CF15" t="n">
-        <v>2613</v>
+        <v>1989</v>
       </c>
       <c r="CG15" t="n">
+        <v>2612</v>
+      </c>
+      <c r="CH15" t="n">
         <v>2156</v>
       </c>
-      <c r="CH15" t="n">
-        <v>1944</v>
-      </c>
       <c r="CI15" t="n">
-        <v>1807</v>
+        <v>1945</v>
       </c>
       <c r="CJ15" t="n">
-        <v>2355</v>
+        <v>1806</v>
       </c>
       <c r="CK15" t="n">
+        <v>2354</v>
+      </c>
+      <c r="CL15" t="n">
         <v>2122</v>
       </c>
-      <c r="CL15" t="n">
-        <v>1991</v>
-      </c>
       <c r="CM15" t="n">
-        <v>1904</v>
+        <v>1992</v>
       </c>
       <c r="CN15" t="n">
-        <v>2395</v>
+        <v>1903</v>
       </c>
       <c r="CO15" t="n">
+        <v>2394</v>
+      </c>
+      <c r="CP15" t="n">
         <v>2295</v>
       </c>
-      <c r="CP15" t="n">
-        <v>2149</v>
-      </c>
       <c r="CQ15" t="n">
-        <v>2044</v>
+        <v>2150</v>
       </c>
       <c r="CR15" t="n">
-        <v>2573</v>
+        <v>2043</v>
       </c>
       <c r="CS15" t="n">
+        <v>2572</v>
+      </c>
+      <c r="CT15" t="n">
         <v>2428</v>
       </c>
-      <c r="CT15" t="n">
-        <v>2102</v>
-      </c>
       <c r="CU15" t="n">
-        <v>1935</v>
+        <v>2103</v>
       </c>
       <c r="CV15" t="n">
-        <v>2689</v>
+        <v>1934</v>
       </c>
       <c r="CW15" t="n">
-        <v>2296</v>
+        <v>2688</v>
       </c>
       <c r="CX15" t="n">
-        <v>2031</v>
+        <v>2303</v>
       </c>
       <c r="CY15" t="n">
-        <v>1975</v>
+        <v>2035</v>
       </c>
       <c r="CZ15" t="n">
-        <v>2497</v>
+        <v>1974</v>
       </c>
       <c r="DA15" t="n">
-        <v>2220</v>
+        <v>2487</v>
       </c>
       <c r="DB15" t="n">
-        <v>2316</v>
+        <v>2203</v>
       </c>
       <c r="DC15" t="n">
-        <v>2369</v>
+        <v>2290</v>
       </c>
       <c r="DD15" t="n">
-        <v>2940</v>
+        <v>2336</v>
       </c>
       <c r="DE15" t="n">
-        <v>2973</v>
+        <v>2894</v>
       </c>
       <c r="DF15" t="n">
-        <v>2599</v>
+        <v>3015</v>
       </c>
       <c r="DG15" t="n">
-        <v>2635</v>
+        <v>2616</v>
+      </c>
+      <c r="DH15" t="n">
+        <v>2549</v>
+      </c>
+      <c r="DI15" t="n">
+        <v>3315</v>
       </c>
     </row>
-    <row r="16" spans="1:111">
+    <row r="16">
       <c r="A16" s="1" t="n"/>
       <c r="B16" s="1" t="n"/>
-      <c r="C16" s="1" t="s">
-        <v>50</v>
+      <c r="C16" s="1" t="inlineStr">
+        <is>
+          <t>Information and communications</t>
+        </is>
       </c>
       <c r="D16" t="n">
         <v>42491</v>
@@ -5123,275 +5419,283 @@
         <v>95557</v>
       </c>
       <c r="X16" t="n">
-        <v>97055</v>
+        <v>97165</v>
       </c>
       <c r="Y16" t="n">
+        <v>99942</v>
+      </c>
+      <c r="Z16" t="n">
         <v>9616</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AA16" t="n">
         <v>10164</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AB16" t="n">
         <v>11300</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
         <v>11412</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>11424</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="n">
         <v>11445</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AF16" t="n">
         <v>12633</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AG16" t="n">
         <v>12039</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AH16" t="n">
         <v>12179</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AI16" t="n">
         <v>12061</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AJ16" t="n">
         <v>12974</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AK16" t="n">
         <v>12810</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AL16" t="n">
         <v>12235</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AM16" t="n">
         <v>12039</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AN16" t="n">
         <v>13723</v>
       </c>
-      <c r="AN16" t="n">
+      <c r="AO16" t="n">
         <v>14124</v>
       </c>
-      <c r="AO16" t="n">
+      <c r="AP16" t="n">
         <v>13609</v>
       </c>
-      <c r="AP16" t="n">
+      <c r="AQ16" t="n">
         <v>13893</v>
       </c>
-      <c r="AQ16" t="n">
+      <c r="AR16" t="n">
         <v>14632</v>
       </c>
-      <c r="AR16" t="n">
+      <c r="AS16" t="n">
         <v>14620</v>
       </c>
-      <c r="AS16" t="n">
+      <c r="AT16" t="n">
         <v>14187</v>
       </c>
-      <c r="AT16" t="n">
+      <c r="AU16" t="n">
         <v>13791</v>
       </c>
-      <c r="AU16" t="n">
+      <c r="AV16" t="n">
         <v>14839</v>
       </c>
-      <c r="AV16" t="n">
+      <c r="AW16" t="n">
         <v>16052</v>
       </c>
-      <c r="AW16" t="n">
+      <c r="AX16" t="n">
         <v>15145</v>
       </c>
-      <c r="AX16" t="n">
+      <c r="AY16" t="n">
         <v>14567</v>
       </c>
-      <c r="AY16" t="n">
+      <c r="AZ16" t="n">
         <v>16042</v>
       </c>
-      <c r="AZ16" t="n">
+      <c r="BA16" t="n">
         <v>17346</v>
       </c>
-      <c r="BA16" t="n">
+      <c r="BB16" t="n">
         <v>16267</v>
       </c>
-      <c r="BB16" t="n">
+      <c r="BC16" t="n">
         <v>15556</v>
       </c>
-      <c r="BC16" t="n">
+      <c r="BD16" t="n">
         <v>17078</v>
       </c>
-      <c r="BD16" t="n">
+      <c r="BE16" t="n">
         <v>18186</v>
       </c>
-      <c r="BE16" t="n">
+      <c r="BF16" t="n">
         <v>16379</v>
       </c>
-      <c r="BF16" t="n">
+      <c r="BG16" t="n">
         <v>15393</v>
       </c>
-      <c r="BG16" t="n">
+      <c r="BH16" t="n">
         <v>16924</v>
       </c>
-      <c r="BH16" t="n">
+      <c r="BI16" t="n">
         <v>17602</v>
       </c>
-      <c r="BI16" t="n">
+      <c r="BJ16" t="n">
         <v>16591</v>
       </c>
-      <c r="BJ16" t="n">
+      <c r="BK16" t="n">
         <v>15382</v>
       </c>
-      <c r="BK16" t="n">
+      <c r="BL16" t="n">
         <v>17310</v>
       </c>
-      <c r="BL16" t="n">
+      <c r="BM16" t="n">
         <v>17862</v>
       </c>
-      <c r="BM16" t="n">
+      <c r="BN16" t="n">
         <v>16792</v>
       </c>
-      <c r="BN16" t="n">
+      <c r="BO16" t="n">
         <v>15577</v>
       </c>
-      <c r="BO16" t="n">
+      <c r="BP16" t="n">
         <v>17637</v>
       </c>
-      <c r="BP16" t="n">
+      <c r="BQ16" t="n">
         <v>18169</v>
       </c>
-      <c r="BQ16" t="n">
+      <c r="BR16" t="n">
         <v>17466</v>
       </c>
-      <c r="BR16" t="n">
+      <c r="BS16" t="n">
         <v>15954</v>
       </c>
-      <c r="BS16" t="n">
+      <c r="BT16" t="n">
         <v>17971</v>
       </c>
-      <c r="BT16" t="n">
+      <c r="BU16" t="n">
         <v>18708</v>
       </c>
-      <c r="BU16" t="n">
+      <c r="BV16" t="n">
         <v>17584</v>
       </c>
-      <c r="BV16" t="n">
+      <c r="BW16" t="n">
         <v>16181</v>
       </c>
-      <c r="BW16" t="n">
+      <c r="BX16" t="n">
         <v>18713</v>
       </c>
-      <c r="BX16" t="n">
+      <c r="BY16" t="n">
         <v>19548</v>
       </c>
-      <c r="BY16" t="n">
+      <c r="BZ16" t="n">
         <v>18705</v>
       </c>
-      <c r="BZ16" t="n">
+      <c r="CA16" t="n">
         <v>16633</v>
       </c>
-      <c r="CA16" t="n">
+      <c r="CB16" t="n">
         <v>19483</v>
       </c>
-      <c r="CB16" t="n">
+      <c r="CC16" t="n">
         <v>20088</v>
       </c>
-      <c r="CC16" t="n">
+      <c r="CD16" t="n">
         <v>19268</v>
       </c>
-      <c r="CD16" t="n">
+      <c r="CE16" t="n">
         <v>17568</v>
       </c>
-      <c r="CE16" t="n">
+      <c r="CF16" t="n">
         <v>20121</v>
       </c>
-      <c r="CF16" t="n">
+      <c r="CG16" t="n">
         <v>20859</v>
       </c>
-      <c r="CG16" t="n">
+      <c r="CH16" t="n">
         <v>20229</v>
       </c>
-      <c r="CH16" t="n">
+      <c r="CI16" t="n">
         <v>18398</v>
       </c>
-      <c r="CI16" t="n">
+      <c r="CJ16" t="n">
         <v>20839</v>
       </c>
-      <c r="CJ16" t="n">
+      <c r="CK16" t="n">
         <v>21484</v>
       </c>
-      <c r="CK16" t="n">
+      <c r="CL16" t="n">
         <v>21023</v>
       </c>
-      <c r="CL16" t="n">
+      <c r="CM16" t="n">
         <v>19250</v>
       </c>
-      <c r="CM16" t="n">
+      <c r="CN16" t="n">
         <v>21720</v>
       </c>
-      <c r="CN16" t="n">
+      <c r="CO16" t="n">
         <v>22317</v>
       </c>
-      <c r="CO16" t="n">
+      <c r="CP16" t="n">
         <v>21977</v>
       </c>
-      <c r="CP16" t="n">
+      <c r="CQ16" t="n">
         <v>20048</v>
       </c>
-      <c r="CQ16" t="n">
+      <c r="CR16" t="n">
         <v>22647</v>
       </c>
-      <c r="CR16" t="n">
+      <c r="CS16" t="n">
         <v>23003</v>
       </c>
-      <c r="CS16" t="n">
+      <c r="CT16" t="n">
         <v>22698</v>
       </c>
-      <c r="CT16" t="n">
+      <c r="CU16" t="n">
         <v>20813</v>
       </c>
-      <c r="CU16" t="n">
+      <c r="CV16" t="n">
         <v>23501</v>
       </c>
-      <c r="CV16" t="n">
+      <c r="CW16" t="n">
         <v>24232</v>
       </c>
-      <c r="CW16" t="n">
+      <c r="CX16" t="n">
         <v>23841</v>
       </c>
-      <c r="CX16" t="n">
+      <c r="CY16" t="n">
         <v>22021</v>
       </c>
-      <c r="CY16" t="n">
+      <c r="CZ16" t="n">
         <v>24765</v>
       </c>
-      <c r="CZ16" t="n">
+      <c r="DA16" t="n">
         <v>24931</v>
       </c>
-      <c r="DA16" t="n">
-        <v>24095</v>
-      </c>
       <c r="DB16" t="n">
-        <v>22139</v>
+        <v>24162</v>
       </c>
       <c r="DC16" t="n">
-        <v>25317</v>
+        <v>22165</v>
       </c>
       <c r="DD16" t="n">
-        <v>25504</v>
+        <v>25298</v>
       </c>
       <c r="DE16" t="n">
-        <v>24986</v>
+        <v>25540</v>
       </c>
       <c r="DF16" t="n">
-        <v>22615</v>
+        <v>25058</v>
       </c>
       <c r="DG16" t="n">
-        <v>25896</v>
+        <v>22658</v>
+      </c>
+      <c r="DH16" t="n">
+        <v>25935</v>
+      </c>
+      <c r="DI16" t="n">
+        <v>26290</v>
       </c>
     </row>
-    <row r="17" spans="1:111">
+    <row r="17">
       <c r="A17" s="1" t="n"/>
       <c r="B17" s="1" t="n"/>
-      <c r="C17" s="1" t="s">
-        <v>51</v>
+      <c r="C17" s="1" t="inlineStr">
+        <is>
+          <t>Financing and insurance</t>
+        </is>
       </c>
       <c r="D17" t="n">
         <v>167231</v>
@@ -5454,275 +5758,283 @@
         <v>581319</v>
       </c>
       <c r="X17" t="n">
-        <v>602993</v>
+        <v>604644</v>
       </c>
       <c r="Y17" t="n">
+        <v>633929</v>
+      </c>
+      <c r="Z17" t="n">
         <v>44014</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AA17" t="n">
         <v>40299</v>
       </c>
-      <c r="AA17" t="n">
-        <v>41400</v>
-      </c>
       <c r="AB17" t="n">
-        <v>41519</v>
+        <v>41401</v>
       </c>
       <c r="AC17" t="n">
+        <v>41518</v>
+      </c>
+      <c r="AD17" t="n">
         <v>41171</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="n">
         <v>43064</v>
       </c>
-      <c r="AE17" t="n">
-        <v>40734</v>
-      </c>
       <c r="AF17" t="n">
-        <v>42053</v>
+        <v>40735</v>
       </c>
       <c r="AG17" t="n">
+        <v>42052</v>
+      </c>
+      <c r="AH17" t="n">
         <v>41435</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AI17" t="n">
         <v>45024</v>
       </c>
-      <c r="AI17" t="n">
-        <v>43141</v>
-      </c>
       <c r="AJ17" t="n">
-        <v>45514</v>
+        <v>43142</v>
       </c>
       <c r="AK17" t="n">
+        <v>45513</v>
+      </c>
+      <c r="AL17" t="n">
         <v>43990</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AM17" t="n">
         <v>47844</v>
       </c>
-      <c r="AM17" t="n">
-        <v>48553</v>
-      </c>
       <c r="AN17" t="n">
-        <v>52520</v>
+        <v>48554</v>
       </c>
       <c r="AO17" t="n">
+        <v>52519</v>
+      </c>
+      <c r="AP17" t="n">
         <v>54536</v>
       </c>
-      <c r="AP17" t="n">
+      <c r="AQ17" t="n">
         <v>56311</v>
       </c>
-      <c r="AQ17" t="n">
-        <v>55379</v>
-      </c>
       <c r="AR17" t="n">
-        <v>61206</v>
+        <v>55380</v>
       </c>
       <c r="AS17" t="n">
+        <v>61205</v>
+      </c>
+      <c r="AT17" t="n">
         <v>60240</v>
       </c>
-      <c r="AT17" t="n">
+      <c r="AU17" t="n">
         <v>65251</v>
       </c>
-      <c r="AU17" t="n">
-        <v>62355</v>
-      </c>
       <c r="AV17" t="n">
-        <v>67625</v>
+        <v>62356</v>
       </c>
       <c r="AW17" t="n">
+        <v>67624</v>
+      </c>
+      <c r="AX17" t="n">
         <v>71350</v>
       </c>
-      <c r="AX17" t="n">
+      <c r="AY17" t="n">
         <v>76756</v>
       </c>
-      <c r="AY17" t="n">
-        <v>69787</v>
-      </c>
       <c r="AZ17" t="n">
-        <v>78533</v>
+        <v>69788</v>
       </c>
       <c r="BA17" t="n">
+        <v>78532</v>
+      </c>
+      <c r="BB17" t="n">
         <v>81419</v>
       </c>
-      <c r="BB17" t="n">
+      <c r="BC17" t="n">
         <v>88881</v>
       </c>
-      <c r="BC17" t="n">
-        <v>83132</v>
-      </c>
       <c r="BD17" t="n">
-        <v>92823</v>
+        <v>83133</v>
       </c>
       <c r="BE17" t="n">
+        <v>92822</v>
+      </c>
+      <c r="BF17" t="n">
         <v>88579</v>
       </c>
-      <c r="BF17" t="n">
+      <c r="BG17" t="n">
         <v>88855</v>
       </c>
-      <c r="BG17" t="n">
-        <v>81184</v>
-      </c>
       <c r="BH17" t="n">
-        <v>85994</v>
+        <v>81185</v>
       </c>
       <c r="BI17" t="n">
+        <v>85993</v>
+      </c>
+      <c r="BJ17" t="n">
         <v>83159</v>
       </c>
-      <c r="BJ17" t="n">
+      <c r="BK17" t="n">
         <v>91169</v>
       </c>
-      <c r="BK17" t="n">
-        <v>87481</v>
-      </c>
       <c r="BL17" t="n">
-        <v>96844</v>
+        <v>87482</v>
       </c>
       <c r="BM17" t="n">
+        <v>96843</v>
+      </c>
+      <c r="BN17" t="n">
         <v>89506</v>
       </c>
-      <c r="BN17" t="n">
+      <c r="BO17" t="n">
         <v>92104</v>
       </c>
-      <c r="BO17" t="n">
-        <v>91582</v>
-      </c>
       <c r="BP17" t="n">
-        <v>108080</v>
+        <v>91583</v>
       </c>
       <c r="BQ17" t="n">
+        <v>108079</v>
+      </c>
+      <c r="BR17" t="n">
         <v>99537</v>
       </c>
-      <c r="BR17" t="n">
+      <c r="BS17" t="n">
         <v>102017</v>
       </c>
-      <c r="BS17" t="n">
-        <v>97426</v>
-      </c>
       <c r="BT17" t="n">
-        <v>107169</v>
+        <v>97427</v>
       </c>
       <c r="BU17" t="n">
+        <v>107168</v>
+      </c>
+      <c r="BV17" t="n">
         <v>101571</v>
       </c>
-      <c r="BV17" t="n">
+      <c r="BW17" t="n">
         <v>100912</v>
       </c>
-      <c r="BW17" t="n">
-        <v>98398</v>
-      </c>
       <c r="BX17" t="n">
-        <v>108684</v>
+        <v>98399</v>
       </c>
       <c r="BY17" t="n">
+        <v>108683</v>
+      </c>
+      <c r="BZ17" t="n">
         <v>106866</v>
       </c>
-      <c r="BZ17" t="n">
+      <c r="CA17" t="n">
         <v>110762</v>
       </c>
-      <c r="CA17" t="n">
-        <v>107664</v>
-      </c>
       <c r="CB17" t="n">
-        <v>115705</v>
+        <v>107665</v>
       </c>
       <c r="CC17" t="n">
+        <v>115704</v>
+      </c>
+      <c r="CD17" t="n">
         <v>111244</v>
       </c>
-      <c r="CD17" t="n">
+      <c r="CE17" t="n">
         <v>112638</v>
       </c>
-      <c r="CE17" t="n">
-        <v>115226</v>
-      </c>
       <c r="CF17" t="n">
-        <v>125395</v>
+        <v>115227</v>
       </c>
       <c r="CG17" t="n">
+        <v>125394</v>
+      </c>
+      <c r="CH17" t="n">
         <v>116417</v>
       </c>
-      <c r="CH17" t="n">
+      <c r="CI17" t="n">
         <v>121539</v>
       </c>
-      <c r="CI17" t="n">
-        <v>121955</v>
-      </c>
       <c r="CJ17" t="n">
-        <v>132773</v>
+        <v>121956</v>
       </c>
       <c r="CK17" t="n">
+        <v>132772</v>
+      </c>
+      <c r="CL17" t="n">
         <v>122002</v>
       </c>
-      <c r="CL17" t="n">
+      <c r="CM17" t="n">
         <v>126044</v>
       </c>
-      <c r="CM17" t="n">
-        <v>126920</v>
-      </c>
       <c r="CN17" t="n">
-        <v>138335</v>
+        <v>126921</v>
       </c>
       <c r="CO17" t="n">
+        <v>138334</v>
+      </c>
+      <c r="CP17" t="n">
         <v>127920</v>
       </c>
-      <c r="CP17" t="n">
+      <c r="CQ17" t="n">
         <v>132031</v>
       </c>
-      <c r="CQ17" t="n">
-        <v>133892</v>
-      </c>
       <c r="CR17" t="n">
-        <v>146821</v>
+        <v>133893</v>
       </c>
       <c r="CS17" t="n">
+        <v>146820</v>
+      </c>
+      <c r="CT17" t="n">
         <v>135727</v>
       </c>
-      <c r="CT17" t="n">
+      <c r="CU17" t="n">
         <v>137362</v>
       </c>
-      <c r="CU17" t="n">
-        <v>137955</v>
-      </c>
       <c r="CV17" t="n">
-        <v>151293</v>
+        <v>137956</v>
       </c>
       <c r="CW17" t="n">
-        <v>139469</v>
+        <v>151292</v>
       </c>
       <c r="CX17" t="n">
-        <v>142704</v>
+        <v>139376</v>
       </c>
       <c r="CY17" t="n">
-        <v>143470</v>
+        <v>142632</v>
       </c>
       <c r="CZ17" t="n">
-        <v>155676</v>
+        <v>143492</v>
       </c>
       <c r="DA17" t="n">
-        <v>142826</v>
+        <v>155819</v>
       </c>
       <c r="DB17" t="n">
-        <v>146704</v>
+        <v>143062</v>
       </c>
       <c r="DC17" t="n">
-        <v>150383</v>
+        <v>147174</v>
       </c>
       <c r="DD17" t="n">
-        <v>163081</v>
+        <v>151144</v>
       </c>
       <c r="DE17" t="n">
-        <v>153342</v>
+        <v>163265</v>
       </c>
       <c r="DF17" t="n">
-        <v>155845</v>
+        <v>153477</v>
       </c>
       <c r="DG17" t="n">
-        <v>155172</v>
+        <v>155970</v>
+      </c>
+      <c r="DH17" t="n">
+        <v>155583</v>
+      </c>
+      <c r="DI17" t="n">
+        <v>168900</v>
       </c>
     </row>
-    <row r="18" spans="1:111">
+    <row r="18">
       <c r="A18" s="1" t="n"/>
       <c r="B18" s="1" t="n"/>
-      <c r="C18" s="1" t="s">
-        <v>52</v>
+      <c r="C18" s="1" t="inlineStr">
+        <is>
+          <t>Real estate, professional and business services</t>
+        </is>
       </c>
       <c r="D18" t="n">
         <v>200638</v>
@@ -5785,275 +6097,283 @@
         <v>276497</v>
       </c>
       <c r="X18" t="n">
-        <v>261790</v>
+        <v>263782</v>
       </c>
       <c r="Y18" t="n">
+        <v>269340</v>
+      </c>
+      <c r="Z18" t="n">
         <v>48335</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AA18" t="n">
         <v>48857</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AB18" t="n">
         <v>51761</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AC18" t="n">
         <v>51680</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AD18" t="n">
         <v>48602</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AE18" t="n">
         <v>48091</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AF18" t="n">
         <v>50888</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AG18" t="n">
         <v>52855</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AH18" t="n">
         <v>49874</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AI18" t="n">
         <v>49702</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AJ18" t="n">
         <v>52456</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AK18" t="n">
         <v>53013</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AL18" t="n">
         <v>51066</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AM18" t="n">
         <v>48166</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AN18" t="n">
         <v>52910</v>
       </c>
-      <c r="AN18" t="n">
+      <c r="AO18" t="n">
         <v>53645</v>
       </c>
-      <c r="AO18" t="n">
+      <c r="AP18" t="n">
         <v>52364</v>
       </c>
-      <c r="AP18" t="n">
+      <c r="AQ18" t="n">
         <v>50987</v>
       </c>
-      <c r="AQ18" t="n">
+      <c r="AR18" t="n">
         <v>53396</v>
       </c>
-      <c r="AR18" t="n">
+      <c r="AS18" t="n">
         <v>54966</v>
       </c>
-      <c r="AS18" t="n">
+      <c r="AT18" t="n">
         <v>54155</v>
       </c>
-      <c r="AT18" t="n">
+      <c r="AU18" t="n">
         <v>53113</v>
       </c>
-      <c r="AU18" t="n">
+      <c r="AV18" t="n">
         <v>55910</v>
       </c>
-      <c r="AV18" t="n">
+      <c r="AW18" t="n">
         <v>57601</v>
       </c>
-      <c r="AW18" t="n">
+      <c r="AX18" t="n">
         <v>55010</v>
       </c>
-      <c r="AX18" t="n">
+      <c r="AY18" t="n">
         <v>53455</v>
       </c>
-      <c r="AY18" t="n">
+      <c r="AZ18" t="n">
         <v>57585</v>
       </c>
-      <c r="AZ18" t="n">
+      <c r="BA18" t="n">
         <v>59645</v>
       </c>
-      <c r="BA18" t="n">
+      <c r="BB18" t="n">
         <v>58266</v>
       </c>
-      <c r="BB18" t="n">
+      <c r="BC18" t="n">
         <v>57011</v>
       </c>
-      <c r="BC18" t="n">
+      <c r="BD18" t="n">
         <v>60527</v>
       </c>
-      <c r="BD18" t="n">
+      <c r="BE18" t="n">
         <v>64732</v>
       </c>
-      <c r="BE18" t="n">
+      <c r="BF18" t="n">
         <v>62856</v>
       </c>
-      <c r="BF18" t="n">
+      <c r="BG18" t="n">
         <v>58233</v>
       </c>
-      <c r="BG18" t="n">
+      <c r="BH18" t="n">
         <v>60030</v>
       </c>
-      <c r="BH18" t="n">
+      <c r="BI18" t="n">
         <v>62887</v>
       </c>
-      <c r="BI18" t="n">
+      <c r="BJ18" t="n">
         <v>61337</v>
       </c>
-      <c r="BJ18" t="n">
+      <c r="BK18" t="n">
         <v>58750</v>
       </c>
-      <c r="BK18" t="n">
+      <c r="BL18" t="n">
         <v>62795</v>
       </c>
-      <c r="BL18" t="n">
+      <c r="BM18" t="n">
         <v>65034</v>
       </c>
-      <c r="BM18" t="n">
+      <c r="BN18" t="n">
         <v>63033</v>
       </c>
-      <c r="BN18" t="n">
+      <c r="BO18" t="n">
         <v>59663</v>
       </c>
-      <c r="BO18" t="n">
+      <c r="BP18" t="n">
         <v>63475</v>
       </c>
-      <c r="BP18" t="n">
+      <c r="BQ18" t="n">
         <v>67999</v>
       </c>
-      <c r="BQ18" t="n">
+      <c r="BR18" t="n">
         <v>65102</v>
       </c>
-      <c r="BR18" t="n">
+      <c r="BS18" t="n">
         <v>60676</v>
       </c>
-      <c r="BS18" t="n">
+      <c r="BT18" t="n">
         <v>64988</v>
       </c>
-      <c r="BT18" t="n">
+      <c r="BU18" t="n">
         <v>69999</v>
       </c>
-      <c r="BU18" t="n">
+      <c r="BV18" t="n">
         <v>67542</v>
       </c>
-      <c r="BV18" t="n">
+      <c r="BW18" t="n">
         <v>63497</v>
       </c>
-      <c r="BW18" t="n">
+      <c r="BX18" t="n">
         <v>67003</v>
       </c>
-      <c r="BX18" t="n">
+      <c r="BY18" t="n">
         <v>70859</v>
       </c>
-      <c r="BY18" t="n">
+      <c r="BZ18" t="n">
         <v>64997</v>
       </c>
-      <c r="BZ18" t="n">
+      <c r="CA18" t="n">
         <v>60234</v>
       </c>
-      <c r="CA18" t="n">
+      <c r="CB18" t="n">
         <v>63648</v>
       </c>
-      <c r="CB18" t="n">
+      <c r="CC18" t="n">
         <v>69189</v>
       </c>
-      <c r="CC18" t="n">
+      <c r="CD18" t="n">
         <v>65690</v>
       </c>
-      <c r="CD18" t="n">
+      <c r="CE18" t="n">
         <v>61700</v>
       </c>
-      <c r="CE18" t="n">
+      <c r="CF18" t="n">
         <v>64996</v>
       </c>
-      <c r="CF18" t="n">
+      <c r="CG18" t="n">
         <v>70685</v>
       </c>
-      <c r="CG18" t="n">
+      <c r="CH18" t="n">
         <v>67625</v>
       </c>
-      <c r="CH18" t="n">
+      <c r="CI18" t="n">
         <v>62084</v>
       </c>
-      <c r="CI18" t="n">
+      <c r="CJ18" t="n">
         <v>65034</v>
       </c>
-      <c r="CJ18" t="n">
+      <c r="CK18" t="n">
         <v>70123</v>
       </c>
-      <c r="CK18" t="n">
+      <c r="CL18" t="n">
         <v>68899</v>
       </c>
-      <c r="CL18" t="n">
+      <c r="CM18" t="n">
         <v>64285</v>
       </c>
-      <c r="CM18" t="n">
+      <c r="CN18" t="n">
         <v>66595</v>
       </c>
-      <c r="CN18" t="n">
+      <c r="CO18" t="n">
         <v>72414</v>
       </c>
-      <c r="CO18" t="n">
+      <c r="CP18" t="n">
         <v>71594</v>
       </c>
-      <c r="CP18" t="n">
+      <c r="CQ18" t="n">
         <v>65356</v>
       </c>
-      <c r="CQ18" t="n">
+      <c r="CR18" t="n">
         <v>67729</v>
       </c>
-      <c r="CR18" t="n">
+      <c r="CS18" t="n">
         <v>73309</v>
       </c>
-      <c r="CS18" t="n">
+      <c r="CT18" t="n">
         <v>71901</v>
       </c>
-      <c r="CT18" t="n">
+      <c r="CU18" t="n">
         <v>65425</v>
       </c>
-      <c r="CU18" t="n">
+      <c r="CV18" t="n">
         <v>67280</v>
       </c>
-      <c r="CV18" t="n">
+      <c r="CW18" t="n">
         <v>72343</v>
       </c>
-      <c r="CW18" t="n">
-        <v>72313</v>
-      </c>
       <c r="CX18" t="n">
-        <v>65958</v>
+        <v>72550</v>
       </c>
       <c r="CY18" t="n">
-        <v>66573</v>
+        <v>66040</v>
       </c>
       <c r="CZ18" t="n">
-        <v>71653</v>
+        <v>66530</v>
       </c>
       <c r="DA18" t="n">
-        <v>68112</v>
+        <v>71377</v>
       </c>
       <c r="DB18" t="n">
-        <v>61388</v>
+        <v>68633</v>
       </c>
       <c r="DC18" t="n">
-        <v>63298</v>
+        <v>61981</v>
       </c>
       <c r="DD18" t="n">
-        <v>68991</v>
+        <v>63894</v>
       </c>
       <c r="DE18" t="n">
-        <v>68974</v>
+        <v>69274</v>
       </c>
       <c r="DF18" t="n">
-        <v>62810</v>
+        <v>69540</v>
       </c>
       <c r="DG18" t="n">
-        <v>64963</v>
+        <v>63384</v>
+      </c>
+      <c r="DH18" t="n">
+        <v>65641</v>
+      </c>
+      <c r="DI18" t="n">
+        <v>70774</v>
       </c>
     </row>
-    <row r="19" spans="1:111">
+    <row r="19">
       <c r="A19" s="1" t="n"/>
       <c r="B19" s="1" t="n"/>
-      <c r="C19" s="1" t="s">
-        <v>53</v>
+      <c r="C19" s="1" t="inlineStr">
+        <is>
+          <t>Real estate</t>
+        </is>
       </c>
       <c r="D19" t="n">
         <v>114290</v>
@@ -6116,275 +6436,283 @@
         <v>122177</v>
       </c>
       <c r="X19" t="n">
-        <v>115918</v>
+        <v>117789</v>
       </c>
       <c r="Y19" t="n">
+        <v>120055</v>
+      </c>
+      <c r="Z19" t="n">
         <v>28484</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AA19" t="n">
         <v>27469</v>
       </c>
-      <c r="AA19" t="n">
-        <v>29508</v>
-      </c>
       <c r="AB19" t="n">
-        <v>28825</v>
+        <v>29509</v>
       </c>
       <c r="AC19" t="n">
+        <v>28827</v>
+      </c>
+      <c r="AD19" t="n">
         <v>27026</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AE19" t="n">
         <v>27413</v>
       </c>
-      <c r="AE19" t="n">
-        <v>28681</v>
-      </c>
       <c r="AF19" t="n">
-        <v>30502</v>
+        <v>28682</v>
       </c>
       <c r="AG19" t="n">
+        <v>30504</v>
+      </c>
+      <c r="AH19" t="n">
         <v>28760</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AI19" t="n">
         <v>28532</v>
       </c>
-      <c r="AI19" t="n">
-        <v>30108</v>
-      </c>
       <c r="AJ19" t="n">
-        <v>29055</v>
+        <v>30109</v>
       </c>
       <c r="AK19" t="n">
+        <v>29056</v>
+      </c>
+      <c r="AL19" t="n">
         <v>29871</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AM19" t="n">
         <v>28020</v>
       </c>
-      <c r="AM19" t="n">
-        <v>31079</v>
-      </c>
       <c r="AN19" t="n">
-        <v>30498</v>
+        <v>31080</v>
       </c>
       <c r="AO19" t="n">
+        <v>30499</v>
+      </c>
+      <c r="AP19" t="n">
         <v>30900</v>
       </c>
-      <c r="AP19" t="n">
+      <c r="AQ19" t="n">
         <v>28572</v>
       </c>
-      <c r="AQ19" t="n">
-        <v>30346</v>
-      </c>
       <c r="AR19" t="n">
-        <v>30689</v>
+        <v>30347</v>
       </c>
       <c r="AS19" t="n">
+        <v>30690</v>
+      </c>
+      <c r="AT19" t="n">
         <v>31025</v>
       </c>
-      <c r="AT19" t="n">
+      <c r="AU19" t="n">
         <v>29549</v>
       </c>
-      <c r="AU19" t="n">
-        <v>30874</v>
-      </c>
       <c r="AV19" t="n">
-        <v>30269</v>
+        <v>30875</v>
       </c>
       <c r="AW19" t="n">
+        <v>30270</v>
+      </c>
+      <c r="AX19" t="n">
         <v>30562</v>
       </c>
-      <c r="AX19" t="n">
+      <c r="AY19" t="n">
         <v>28994</v>
       </c>
-      <c r="AY19" t="n">
-        <v>30901</v>
-      </c>
       <c r="AZ19" t="n">
-        <v>31135</v>
+        <v>30902</v>
       </c>
       <c r="BA19" t="n">
+        <v>31136</v>
+      </c>
+      <c r="BB19" t="n">
         <v>31829</v>
       </c>
-      <c r="BB19" t="n">
+      <c r="BC19" t="n">
         <v>30617</v>
       </c>
-      <c r="BC19" t="n">
-        <v>32209</v>
-      </c>
       <c r="BD19" t="n">
-        <v>33787</v>
+        <v>32210</v>
       </c>
       <c r="BE19" t="n">
+        <v>33788</v>
+      </c>
+      <c r="BF19" t="n">
         <v>35568</v>
       </c>
-      <c r="BF19" t="n">
+      <c r="BG19" t="n">
         <v>30871</v>
       </c>
-      <c r="BG19" t="n">
-        <v>31338</v>
-      </c>
       <c r="BH19" t="n">
-        <v>31774</v>
+        <v>31339</v>
       </c>
       <c r="BI19" t="n">
+        <v>31775</v>
+      </c>
+      <c r="BJ19" t="n">
         <v>33752</v>
       </c>
-      <c r="BJ19" t="n">
+      <c r="BK19" t="n">
         <v>31432</v>
       </c>
-      <c r="BK19" t="n">
-        <v>33045</v>
-      </c>
       <c r="BL19" t="n">
-        <v>33003</v>
+        <v>33046</v>
       </c>
       <c r="BM19" t="n">
+        <v>33004</v>
+      </c>
+      <c r="BN19" t="n">
         <v>33147</v>
       </c>
-      <c r="BN19" t="n">
+      <c r="BO19" t="n">
         <v>30517</v>
       </c>
-      <c r="BO19" t="n">
-        <v>32036</v>
-      </c>
       <c r="BP19" t="n">
-        <v>33653</v>
+        <v>32037</v>
       </c>
       <c r="BQ19" t="n">
+        <v>33654</v>
+      </c>
+      <c r="BR19" t="n">
         <v>34128</v>
       </c>
-      <c r="BR19" t="n">
+      <c r="BS19" t="n">
         <v>30535</v>
       </c>
-      <c r="BS19" t="n">
-        <v>32434</v>
-      </c>
       <c r="BT19" t="n">
-        <v>34633</v>
+        <v>32435</v>
       </c>
       <c r="BU19" t="n">
+        <v>34634</v>
+      </c>
+      <c r="BV19" t="n">
         <v>35386</v>
       </c>
-      <c r="BV19" t="n">
+      <c r="BW19" t="n">
         <v>32372</v>
       </c>
-      <c r="BW19" t="n">
-        <v>33805</v>
-      </c>
       <c r="BX19" t="n">
-        <v>35335</v>
+        <v>33806</v>
       </c>
       <c r="BY19" t="n">
+        <v>35336</v>
+      </c>
+      <c r="BZ19" t="n">
         <v>32355</v>
       </c>
-      <c r="BZ19" t="n">
+      <c r="CA19" t="n">
         <v>27904</v>
       </c>
-      <c r="CA19" t="n">
-        <v>29670</v>
-      </c>
       <c r="CB19" t="n">
-        <v>32313</v>
+        <v>29671</v>
       </c>
       <c r="CC19" t="n">
+        <v>32314</v>
+      </c>
+      <c r="CD19" t="n">
         <v>32345</v>
       </c>
-      <c r="CD19" t="n">
+      <c r="CE19" t="n">
         <v>28398</v>
       </c>
-      <c r="CE19" t="n">
-        <v>30142</v>
-      </c>
       <c r="CF19" t="n">
-        <v>32856</v>
+        <v>30143</v>
       </c>
       <c r="CG19" t="n">
+        <v>32857</v>
+      </c>
+      <c r="CH19" t="n">
         <v>32521</v>
       </c>
-      <c r="CH19" t="n">
+      <c r="CI19" t="n">
         <v>28006</v>
       </c>
-      <c r="CI19" t="n">
-        <v>29402</v>
-      </c>
       <c r="CJ19" t="n">
-        <v>30975</v>
+        <v>29403</v>
       </c>
       <c r="CK19" t="n">
+        <v>30976</v>
+      </c>
+      <c r="CL19" t="n">
         <v>32942</v>
       </c>
-      <c r="CL19" t="n">
+      <c r="CM19" t="n">
         <v>28861</v>
       </c>
-      <c r="CM19" t="n">
-        <v>30578</v>
-      </c>
       <c r="CN19" t="n">
-        <v>32721</v>
+        <v>30579</v>
       </c>
       <c r="CO19" t="n">
+        <v>32722</v>
+      </c>
+      <c r="CP19" t="n">
         <v>35240</v>
       </c>
-      <c r="CP19" t="n">
+      <c r="CQ19" t="n">
         <v>29470</v>
       </c>
-      <c r="CQ19" t="n">
-        <v>30641</v>
-      </c>
       <c r="CR19" t="n">
-        <v>32839</v>
+        <v>30642</v>
       </c>
       <c r="CS19" t="n">
+        <v>32840</v>
+      </c>
+      <c r="CT19" t="n">
         <v>34451</v>
       </c>
-      <c r="CT19" t="n">
+      <c r="CU19" t="n">
         <v>28776</v>
       </c>
-      <c r="CU19" t="n">
-        <v>29799</v>
-      </c>
       <c r="CV19" t="n">
-        <v>31161</v>
+        <v>29800</v>
       </c>
       <c r="CW19" t="n">
-        <v>34166</v>
+        <v>31162</v>
       </c>
       <c r="CX19" t="n">
-        <v>28329</v>
+        <v>34424</v>
       </c>
       <c r="CY19" t="n">
-        <v>28975</v>
+        <v>28425</v>
       </c>
       <c r="CZ19" t="n">
-        <v>30706</v>
+        <v>28928</v>
       </c>
       <c r="DA19" t="n">
-        <v>30986</v>
+        <v>30401</v>
       </c>
       <c r="DB19" t="n">
-        <v>26524</v>
+        <v>31496</v>
       </c>
       <c r="DC19" t="n">
-        <v>28074</v>
+        <v>27077</v>
       </c>
       <c r="DD19" t="n">
-        <v>30334</v>
+        <v>28635</v>
       </c>
       <c r="DE19" t="n">
-        <v>31777</v>
+        <v>30583</v>
       </c>
       <c r="DF19" t="n">
-        <v>27084</v>
+        <v>32299</v>
       </c>
       <c r="DG19" t="n">
-        <v>28544</v>
+        <v>27664</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>29230</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>30865</v>
       </c>
     </row>
-    <row r="20" spans="1:111">
+    <row r="20">
       <c r="A20" s="1" t="n"/>
       <c r="B20" s="1" t="n"/>
-      <c r="C20" s="1" t="s">
-        <v>54</v>
+      <c r="C20" s="1" t="inlineStr">
+        <is>
+          <t>Professional and business services</t>
+        </is>
       </c>
       <c r="D20" t="n">
         <v>89218</v>
@@ -6447,606 +6775,622 @@
         <v>154320</v>
       </c>
       <c r="X20" t="n">
-        <v>145872</v>
+        <v>145994</v>
       </c>
       <c r="Y20" t="n">
+        <v>149286</v>
+      </c>
+      <c r="Z20" t="n">
         <v>20606</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AA20" t="n">
         <v>22063</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AB20" t="n">
         <v>22993</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AC20" t="n">
         <v>23554</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AD20" t="n">
         <v>22230</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AE20" t="n">
         <v>21367</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AF20" t="n">
         <v>22913</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AG20" t="n">
         <v>23135</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AH20" t="n">
         <v>21891</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AI20" t="n">
         <v>21923</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AJ20" t="n">
         <v>23141</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AK20" t="n">
         <v>24564</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AL20" t="n">
         <v>22103</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AM20" t="n">
         <v>20969</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AN20" t="n">
         <v>22795</v>
       </c>
-      <c r="AN20" t="n">
+      <c r="AO20" t="n">
         <v>23920</v>
       </c>
-      <c r="AO20" t="n">
+      <c r="AP20" t="n">
         <v>22510</v>
       </c>
-      <c r="AP20" t="n">
+      <c r="AQ20" t="n">
         <v>22941</v>
       </c>
-      <c r="AQ20" t="n">
+      <c r="AR20" t="n">
         <v>23737</v>
       </c>
-      <c r="AR20" t="n">
+      <c r="AS20" t="n">
         <v>24809</v>
       </c>
-      <c r="AS20" t="n">
+      <c r="AT20" t="n">
         <v>23909</v>
       </c>
-      <c r="AT20" t="n">
+      <c r="AU20" t="n">
         <v>24046</v>
       </c>
-      <c r="AU20" t="n">
+      <c r="AV20" t="n">
         <v>25468</v>
       </c>
-      <c r="AV20" t="n">
+      <c r="AW20" t="n">
         <v>27288</v>
       </c>
-      <c r="AW20" t="n">
+      <c r="AX20" t="n">
         <v>24900</v>
       </c>
-      <c r="AX20" t="n">
+      <c r="AY20" t="n">
         <v>24779</v>
       </c>
-      <c r="AY20" t="n">
+      <c r="AZ20" t="n">
         <v>26968</v>
       </c>
-      <c r="AZ20" t="n">
+      <c r="BA20" t="n">
         <v>28657</v>
       </c>
-      <c r="BA20" t="n">
+      <c r="BB20" t="n">
         <v>26817</v>
       </c>
-      <c r="BB20" t="n">
+      <c r="BC20" t="n">
         <v>26682</v>
       </c>
-      <c r="BC20" t="n">
-        <v>28576</v>
-      </c>
       <c r="BD20" t="n">
+        <v>28577</v>
+      </c>
+      <c r="BE20" t="n">
         <v>31119</v>
       </c>
-      <c r="BE20" t="n">
+      <c r="BF20" t="n">
         <v>27892</v>
       </c>
-      <c r="BF20" t="n">
+      <c r="BG20" t="n">
         <v>27593</v>
       </c>
-      <c r="BG20" t="n">
-        <v>28852</v>
-      </c>
       <c r="BH20" t="n">
+        <v>28853</v>
+      </c>
+      <c r="BI20" t="n">
         <v>31116</v>
       </c>
-      <c r="BI20" t="n">
+      <c r="BJ20" t="n">
         <v>27917</v>
       </c>
-      <c r="BJ20" t="n">
+      <c r="BK20" t="n">
         <v>27575</v>
       </c>
-      <c r="BK20" t="n">
-        <v>29986</v>
-      </c>
       <c r="BL20" t="n">
+        <v>29987</v>
+      </c>
+      <c r="BM20" t="n">
         <v>32194</v>
       </c>
-      <c r="BM20" t="n">
+      <c r="BN20" t="n">
         <v>30115</v>
       </c>
-      <c r="BN20" t="n">
+      <c r="BO20" t="n">
         <v>29272</v>
       </c>
-      <c r="BO20" t="n">
-        <v>31526</v>
-      </c>
       <c r="BP20" t="n">
+        <v>31527</v>
+      </c>
+      <c r="BQ20" t="n">
         <v>34371</v>
       </c>
-      <c r="BQ20" t="n">
+      <c r="BR20" t="n">
         <v>31229</v>
       </c>
-      <c r="BR20" t="n">
+      <c r="BS20" t="n">
         <v>30206</v>
       </c>
-      <c r="BS20" t="n">
-        <v>32586</v>
-      </c>
       <c r="BT20" t="n">
+        <v>32587</v>
+      </c>
+      <c r="BU20" t="n">
         <v>35361</v>
       </c>
-      <c r="BU20" t="n">
+      <c r="BV20" t="n">
         <v>32291</v>
       </c>
-      <c r="BV20" t="n">
+      <c r="BW20" t="n">
         <v>31220</v>
       </c>
-      <c r="BW20" t="n">
-        <v>33284</v>
-      </c>
       <c r="BX20" t="n">
+        <v>33285</v>
+      </c>
+      <c r="BY20" t="n">
         <v>35602</v>
       </c>
-      <c r="BY20" t="n">
+      <c r="BZ20" t="n">
         <v>32722</v>
       </c>
-      <c r="BZ20" t="n">
+      <c r="CA20" t="n">
         <v>32359</v>
       </c>
-      <c r="CA20" t="n">
-        <v>34011</v>
-      </c>
       <c r="CB20" t="n">
+        <v>34012</v>
+      </c>
+      <c r="CC20" t="n">
         <v>36915</v>
       </c>
-      <c r="CC20" t="n">
+      <c r="CD20" t="n">
         <v>33422</v>
       </c>
-      <c r="CD20" t="n">
+      <c r="CE20" t="n">
         <v>33326</v>
       </c>
-      <c r="CE20" t="n">
-        <v>34882</v>
-      </c>
       <c r="CF20" t="n">
+        <v>34883</v>
+      </c>
+      <c r="CG20" t="n">
         <v>37863</v>
       </c>
-      <c r="CG20" t="n">
+      <c r="CH20" t="n">
         <v>35175</v>
       </c>
-      <c r="CH20" t="n">
+      <c r="CI20" t="n">
         <v>34069</v>
       </c>
-      <c r="CI20" t="n">
-        <v>35623</v>
-      </c>
       <c r="CJ20" t="n">
+        <v>35624</v>
+      </c>
+      <c r="CK20" t="n">
         <v>39110</v>
       </c>
-      <c r="CK20" t="n">
+      <c r="CL20" t="n">
         <v>35958</v>
       </c>
-      <c r="CL20" t="n">
+      <c r="CM20" t="n">
         <v>35430</v>
       </c>
-      <c r="CM20" t="n">
-        <v>36019</v>
-      </c>
       <c r="CN20" t="n">
+        <v>36020</v>
+      </c>
+      <c r="CO20" t="n">
         <v>39697</v>
       </c>
-      <c r="CO20" t="n">
+      <c r="CP20" t="n">
         <v>36331</v>
       </c>
-      <c r="CP20" t="n">
+      <c r="CQ20" t="n">
         <v>35897</v>
       </c>
-      <c r="CQ20" t="n">
-        <v>37096</v>
-      </c>
       <c r="CR20" t="n">
+        <v>37097</v>
+      </c>
+      <c r="CS20" t="n">
         <v>40483</v>
       </c>
-      <c r="CS20" t="n">
+      <c r="CT20" t="n">
         <v>37448</v>
       </c>
-      <c r="CT20" t="n">
+      <c r="CU20" t="n">
         <v>36657</v>
       </c>
-      <c r="CU20" t="n">
-        <v>37487</v>
-      </c>
       <c r="CV20" t="n">
+        <v>37488</v>
+      </c>
+      <c r="CW20" t="n">
         <v>41192</v>
       </c>
-      <c r="CW20" t="n">
-        <v>38174</v>
-      </c>
       <c r="CX20" t="n">
-        <v>37619</v>
+        <v>38155</v>
       </c>
       <c r="CY20" t="n">
-        <v>37592</v>
+        <v>37606</v>
       </c>
       <c r="CZ20" t="n">
-        <v>40935</v>
+        <v>37597</v>
       </c>
       <c r="DA20" t="n">
-        <v>37126</v>
+        <v>40962</v>
       </c>
       <c r="DB20" t="n">
-        <v>34864</v>
+        <v>37138</v>
       </c>
       <c r="DC20" t="n">
-        <v>35224</v>
+        <v>34905</v>
       </c>
       <c r="DD20" t="n">
-        <v>38657</v>
+        <v>35260</v>
       </c>
       <c r="DE20" t="n">
-        <v>37198</v>
+        <v>38691</v>
       </c>
       <c r="DF20" t="n">
-        <v>35727</v>
+        <v>37243</v>
       </c>
       <c r="DG20" t="n">
-        <v>36419</v>
+        <v>35721</v>
+      </c>
+      <c r="DH20" t="n">
+        <v>36412</v>
+      </c>
+      <c r="DI20" t="n">
+        <v>39910</v>
       </c>
     </row>
-    <row r="21" spans="1:111">
+    <row r="21">
       <c r="A21" s="1" t="n"/>
       <c r="B21" s="1" t="n"/>
-      <c r="C21" s="1" t="s">
-        <v>55</v>
+      <c r="C21" s="1" t="inlineStr">
+        <is>
+          <t>Public administration, social and personal services</t>
+        </is>
       </c>
       <c r="D21" t="n">
-        <v>360055</v>
+        <v>359389</v>
       </c>
       <c r="E21" t="n">
-        <v>373930</v>
+        <v>373238</v>
       </c>
       <c r="F21" t="n">
-        <v>371241</v>
+        <v>370554</v>
       </c>
       <c r="G21" t="n">
-        <v>370592</v>
+        <v>369906</v>
       </c>
       <c r="H21" t="n">
-        <v>378422</v>
+        <v>377721</v>
       </c>
       <c r="I21" t="n">
-        <v>382781</v>
+        <v>382072</v>
       </c>
       <c r="J21" t="n">
-        <v>385887</v>
+        <v>385173</v>
       </c>
       <c r="K21" t="n">
-        <v>396331</v>
+        <v>395597</v>
       </c>
       <c r="L21" t="n">
-        <v>401868</v>
+        <v>401123</v>
       </c>
       <c r="M21" t="n">
-        <v>413882</v>
+        <v>413114</v>
       </c>
       <c r="N21" t="n">
-        <v>422916</v>
+        <v>422131</v>
       </c>
       <c r="O21" t="n">
-        <v>430359</v>
+        <v>429561</v>
       </c>
       <c r="P21" t="n">
-        <v>439330</v>
+        <v>438516</v>
       </c>
       <c r="Q21" t="n">
-        <v>450336</v>
+        <v>449502</v>
       </c>
       <c r="R21" t="n">
-        <v>461238</v>
+        <v>460384</v>
       </c>
       <c r="S21" t="n">
-        <v>472913</v>
+        <v>472038</v>
       </c>
       <c r="T21" t="n">
-        <v>486982</v>
+        <v>486081</v>
       </c>
       <c r="U21" t="n">
-        <v>502363</v>
+        <v>501434</v>
       </c>
       <c r="V21" t="n">
-        <v>520420</v>
+        <v>519458</v>
       </c>
       <c r="W21" t="n">
         <v>536259</v>
       </c>
       <c r="X21" t="n">
-        <v>525112</v>
+        <v>523960</v>
       </c>
       <c r="Y21" t="n">
-        <v>84264</v>
+        <v>542089</v>
       </c>
       <c r="Z21" t="n">
-        <v>91482</v>
+        <v>84106</v>
       </c>
       <c r="AA21" t="n">
-        <v>89019</v>
+        <v>91312</v>
       </c>
       <c r="AB21" t="n">
-        <v>95289</v>
+        <v>88855</v>
       </c>
       <c r="AC21" t="n">
-        <v>89593</v>
+        <v>95114</v>
       </c>
       <c r="AD21" t="n">
-        <v>93598</v>
+        <v>89425</v>
       </c>
       <c r="AE21" t="n">
-        <v>92665</v>
+        <v>93425</v>
       </c>
       <c r="AF21" t="n">
-        <v>98072</v>
+        <v>92495</v>
       </c>
       <c r="AG21" t="n">
-        <v>88696</v>
+        <v>97892</v>
       </c>
       <c r="AH21" t="n">
-        <v>91928</v>
+        <v>88530</v>
       </c>
       <c r="AI21" t="n">
-        <v>92469</v>
+        <v>91758</v>
       </c>
       <c r="AJ21" t="n">
-        <v>98146</v>
+        <v>92299</v>
       </c>
       <c r="AK21" t="n">
-        <v>89252</v>
+        <v>97966</v>
       </c>
       <c r="AL21" t="n">
-        <v>90213</v>
+        <v>89085</v>
       </c>
       <c r="AM21" t="n">
-        <v>93482</v>
+        <v>90046</v>
       </c>
       <c r="AN21" t="n">
-        <v>97643</v>
+        <v>93310</v>
       </c>
       <c r="AO21" t="n">
-        <v>91344</v>
+        <v>97464</v>
       </c>
       <c r="AP21" t="n">
-        <v>93890</v>
+        <v>91173</v>
       </c>
       <c r="AQ21" t="n">
-        <v>94526</v>
+        <v>93716</v>
       </c>
       <c r="AR21" t="n">
-        <v>98659</v>
+        <v>94352</v>
       </c>
       <c r="AS21" t="n">
-        <v>91785</v>
+        <v>98478</v>
       </c>
       <c r="AT21" t="n">
-        <v>94919</v>
+        <v>91614</v>
       </c>
       <c r="AU21" t="n">
-        <v>96235</v>
+        <v>94743</v>
       </c>
       <c r="AV21" t="n">
-        <v>99839</v>
+        <v>96058</v>
       </c>
       <c r="AW21" t="n">
-        <v>92757</v>
+        <v>99656</v>
       </c>
       <c r="AX21" t="n">
-        <v>95637</v>
+        <v>92584</v>
       </c>
       <c r="AY21" t="n">
-        <v>97017</v>
+        <v>95460</v>
       </c>
       <c r="AZ21" t="n">
-        <v>100474</v>
+        <v>96839</v>
       </c>
       <c r="BA21" t="n">
-        <v>95373</v>
+        <v>100289</v>
       </c>
       <c r="BB21" t="n">
-        <v>97897</v>
+        <v>95195</v>
       </c>
       <c r="BC21" t="n">
-        <v>99465</v>
+        <v>97716</v>
       </c>
       <c r="BD21" t="n">
-        <v>103594</v>
+        <v>99282</v>
       </c>
       <c r="BE21" t="n">
-        <v>96662</v>
+        <v>103404</v>
       </c>
       <c r="BF21" t="n">
-        <v>99942</v>
+        <v>96482</v>
       </c>
       <c r="BG21" t="n">
-        <v>101580</v>
+        <v>99757</v>
       </c>
       <c r="BH21" t="n">
-        <v>103682</v>
+        <v>101393</v>
       </c>
       <c r="BI21" t="n">
-        <v>98894</v>
+        <v>103492</v>
       </c>
       <c r="BJ21" t="n">
-        <v>103135</v>
+        <v>98710</v>
       </c>
       <c r="BK21" t="n">
-        <v>104653</v>
+        <v>102944</v>
       </c>
       <c r="BL21" t="n">
-        <v>107199</v>
+        <v>104460</v>
       </c>
       <c r="BM21" t="n">
-        <v>101926</v>
+        <v>107002</v>
       </c>
       <c r="BN21" t="n">
-        <v>105298</v>
+        <v>101736</v>
       </c>
       <c r="BO21" t="n">
-        <v>107679</v>
+        <v>105103</v>
       </c>
       <c r="BP21" t="n">
-        <v>108012</v>
+        <v>107480</v>
       </c>
       <c r="BQ21" t="n">
-        <v>102990</v>
+        <v>107813</v>
       </c>
       <c r="BR21" t="n">
-        <v>108504</v>
+        <v>102798</v>
       </c>
       <c r="BS21" t="n">
-        <v>109224</v>
+        <v>108303</v>
       </c>
       <c r="BT21" t="n">
-        <v>109641</v>
+        <v>109022</v>
       </c>
       <c r="BU21" t="n">
-        <v>105169</v>
+        <v>109439</v>
       </c>
       <c r="BV21" t="n">
-        <v>110896</v>
+        <v>104973</v>
       </c>
       <c r="BW21" t="n">
-        <v>111663</v>
+        <v>110691</v>
       </c>
       <c r="BX21" t="n">
-        <v>111602</v>
+        <v>111457</v>
       </c>
       <c r="BY21" t="n">
-        <v>107302</v>
+        <v>111396</v>
       </c>
       <c r="BZ21" t="n">
-        <v>114951</v>
+        <v>107102</v>
       </c>
       <c r="CA21" t="n">
-        <v>114097</v>
+        <v>114738</v>
       </c>
       <c r="CB21" t="n">
-        <v>113986</v>
+        <v>113887</v>
       </c>
       <c r="CC21" t="n">
-        <v>110463</v>
+        <v>113775</v>
       </c>
       <c r="CD21" t="n">
-        <v>117902</v>
+        <v>110257</v>
       </c>
       <c r="CE21" t="n">
-        <v>116629</v>
+        <v>117684</v>
       </c>
       <c r="CF21" t="n">
-        <v>116244</v>
+        <v>116414</v>
       </c>
       <c r="CG21" t="n">
-        <v>112588</v>
+        <v>116029</v>
       </c>
       <c r="CH21" t="n">
-        <v>120073</v>
+        <v>112378</v>
       </c>
       <c r="CI21" t="n">
-        <v>120446</v>
+        <v>119851</v>
       </c>
       <c r="CJ21" t="n">
-        <v>119807</v>
+        <v>120224</v>
       </c>
       <c r="CK21" t="n">
-        <v>115923</v>
+        <v>119585</v>
       </c>
       <c r="CL21" t="n">
-        <v>124443</v>
+        <v>115707</v>
       </c>
       <c r="CM21" t="n">
-        <v>123691</v>
+        <v>124213</v>
       </c>
       <c r="CN21" t="n">
-        <v>122925</v>
+        <v>123463</v>
       </c>
       <c r="CO21" t="n">
-        <v>118960</v>
+        <v>122698</v>
       </c>
       <c r="CP21" t="n">
-        <v>127998</v>
+        <v>118739</v>
       </c>
       <c r="CQ21" t="n">
-        <v>128289</v>
+        <v>127761</v>
       </c>
       <c r="CR21" t="n">
-        <v>127116</v>
+        <v>128052</v>
       </c>
       <c r="CS21" t="n">
-        <v>123487</v>
+        <v>126881</v>
       </c>
       <c r="CT21" t="n">
-        <v>132117</v>
+        <v>123258</v>
       </c>
       <c r="CU21" t="n">
-        <v>132940</v>
+        <v>131872</v>
       </c>
       <c r="CV21" t="n">
-        <v>131877</v>
+        <v>132694</v>
       </c>
       <c r="CW21" t="n">
-        <v>127935</v>
+        <v>131633</v>
       </c>
       <c r="CX21" t="n">
-        <v>136951</v>
+        <v>127590</v>
       </c>
       <c r="CY21" t="n">
-        <v>136008</v>
+        <v>136747</v>
       </c>
       <c r="CZ21" t="n">
-        <v>135366</v>
+        <v>135994</v>
       </c>
       <c r="DA21" t="n">
-        <v>123666</v>
+        <v>135928</v>
       </c>
       <c r="DB21" t="n">
-        <v>133023</v>
+        <v>123837</v>
       </c>
       <c r="DC21" t="n">
-        <v>135212</v>
+        <v>132517</v>
       </c>
       <c r="DD21" t="n">
-        <v>133212</v>
+        <v>134481</v>
       </c>
       <c r="DE21" t="n">
-        <v>126420</v>
+        <v>133126</v>
       </c>
       <c r="DF21" t="n">
-        <v>138496</v>
+        <v>126377</v>
       </c>
       <c r="DG21" t="n">
-        <v>140878</v>
+        <v>138178</v>
+      </c>
+      <c r="DH21" t="n">
+        <v>139587</v>
+      </c>
+      <c r="DI21" t="n">
+        <v>137948</v>
       </c>
     </row>
-    <row r="22" spans="1:111">
+    <row r="22">
       <c r="A22" s="1" t="n"/>
       <c r="B22" s="1" t="n"/>
-      <c r="C22" s="1" t="s">
-        <v>56</v>
+      <c r="C22" s="1" t="inlineStr">
+        <is>
+          <t>Ownership of premises</t>
+        </is>
       </c>
       <c r="D22" t="n">
         <v>230297</v>
@@ -7112,622 +7456,636 @@
         <v>308014</v>
       </c>
       <c r="Y22" t="n">
+        <v>310237</v>
+      </c>
+      <c r="Z22" t="n">
         <v>56583</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AA22" t="n">
         <v>56864</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AB22" t="n">
         <v>58420</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AC22" t="n">
         <v>58431</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AD22" t="n">
         <v>58815</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AE22" t="n">
         <v>58646</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AF22" t="n">
         <v>60579</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AG22" t="n">
         <v>61295</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AH22" t="n">
         <v>60411</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AI22" t="n">
         <v>59202</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AJ22" t="n">
         <v>61815</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AK22" t="n">
         <v>62731</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AL22" t="n">
         <v>61863</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AM22" t="n">
         <v>60716</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AN22" t="n">
         <v>63849</v>
       </c>
-      <c r="AN22" t="n">
+      <c r="AO22" t="n">
         <v>64115</v>
       </c>
-      <c r="AO22" t="n">
+      <c r="AP22" t="n">
         <v>63384</v>
       </c>
-      <c r="AP22" t="n">
+      <c r="AQ22" t="n">
         <v>62301</v>
       </c>
-      <c r="AQ22" t="n">
+      <c r="AR22" t="n">
         <v>64966</v>
       </c>
-      <c r="AR22" t="n">
+      <c r="AS22" t="n">
         <v>65503</v>
       </c>
-      <c r="AS22" t="n">
+      <c r="AT22" t="n">
         <v>64861</v>
       </c>
-      <c r="AT22" t="n">
+      <c r="AU22" t="n">
         <v>64004</v>
       </c>
-      <c r="AU22" t="n">
+      <c r="AV22" t="n">
         <v>67019</v>
       </c>
-      <c r="AV22" t="n">
+      <c r="AW22" t="n">
         <v>67656</v>
       </c>
-      <c r="AW22" t="n">
+      <c r="AX22" t="n">
         <v>67255</v>
       </c>
-      <c r="AX22" t="n">
+      <c r="AY22" t="n">
         <v>66067</v>
       </c>
-      <c r="AY22" t="n">
+      <c r="AZ22" t="n">
         <v>68978</v>
       </c>
-      <c r="AZ22" t="n">
+      <c r="BA22" t="n">
         <v>70595</v>
       </c>
-      <c r="BA22" t="n">
+      <c r="BB22" t="n">
         <v>69478</v>
       </c>
-      <c r="BB22" t="n">
+      <c r="BC22" t="n">
         <v>68298</v>
       </c>
-      <c r="BC22" t="n">
+      <c r="BD22" t="n">
         <v>71359</v>
       </c>
-      <c r="BD22" t="n">
+      <c r="BE22" t="n">
         <v>71847</v>
       </c>
-      <c r="BE22" t="n">
+      <c r="BF22" t="n">
         <v>71081</v>
       </c>
-      <c r="BF22" t="n">
+      <c r="BG22" t="n">
         <v>69424</v>
       </c>
-      <c r="BG22" t="n">
+      <c r="BH22" t="n">
         <v>72562</v>
       </c>
-      <c r="BH22" t="n">
+      <c r="BI22" t="n">
         <v>73403</v>
       </c>
-      <c r="BI22" t="n">
+      <c r="BJ22" t="n">
         <v>71537</v>
       </c>
-      <c r="BJ22" t="n">
+      <c r="BK22" t="n">
         <v>69704</v>
       </c>
-      <c r="BK22" t="n">
+      <c r="BL22" t="n">
         <v>72618</v>
       </c>
-      <c r="BL22" t="n">
+      <c r="BM22" t="n">
         <v>73536</v>
       </c>
-      <c r="BM22" t="n">
+      <c r="BN22" t="n">
         <v>72116</v>
       </c>
-      <c r="BN22" t="n">
+      <c r="BO22" t="n">
         <v>70387</v>
       </c>
-      <c r="BO22" t="n">
+      <c r="BP22" t="n">
         <v>73367</v>
       </c>
-      <c r="BP22" t="n">
+      <c r="BQ22" t="n">
         <v>73855</v>
       </c>
-      <c r="BQ22" t="n">
+      <c r="BR22" t="n">
         <v>72563</v>
       </c>
-      <c r="BR22" t="n">
+      <c r="BS22" t="n">
         <v>70787</v>
       </c>
-      <c r="BS22" t="n">
+      <c r="BT22" t="n">
         <v>73842</v>
       </c>
-      <c r="BT22" t="n">
+      <c r="BU22" t="n">
         <v>74607</v>
       </c>
-      <c r="BU22" t="n">
+      <c r="BV22" t="n">
         <v>73288</v>
       </c>
-      <c r="BV22" t="n">
+      <c r="BW22" t="n">
         <v>71547</v>
       </c>
-      <c r="BW22" t="n">
+      <c r="BX22" t="n">
         <v>74650</v>
       </c>
-      <c r="BX22" t="n">
+      <c r="BY22" t="n">
         <v>75475</v>
       </c>
-      <c r="BY22" t="n">
+      <c r="BZ22" t="n">
         <v>73347</v>
       </c>
-      <c r="BZ22" t="n">
+      <c r="CA22" t="n">
         <v>71598</v>
       </c>
-      <c r="CA22" t="n">
+      <c r="CB22" t="n">
         <v>74955</v>
       </c>
-      <c r="CB22" t="n">
+      <c r="CC22" t="n">
         <v>75968</v>
       </c>
-      <c r="CC22" t="n">
+      <c r="CD22" t="n">
         <v>74084</v>
       </c>
-      <c r="CD22" t="n">
+      <c r="CE22" t="n">
         <v>72406</v>
       </c>
-      <c r="CE22" t="n">
+      <c r="CF22" t="n">
         <v>75395</v>
       </c>
-      <c r="CF22" t="n">
+      <c r="CG22" t="n">
         <v>76417</v>
       </c>
-      <c r="CG22" t="n">
+      <c r="CH22" t="n">
         <v>74457</v>
       </c>
-      <c r="CH22" t="n">
+      <c r="CI22" t="n">
         <v>72864</v>
       </c>
-      <c r="CI22" t="n">
+      <c r="CJ22" t="n">
         <v>75857</v>
       </c>
-      <c r="CJ22" t="n">
+      <c r="CK22" t="n">
         <v>76896</v>
       </c>
-      <c r="CK22" t="n">
+      <c r="CL22" t="n">
         <v>74740</v>
       </c>
-      <c r="CL22" t="n">
+      <c r="CM22" t="n">
         <v>73219</v>
       </c>
-      <c r="CM22" t="n">
+      <c r="CN22" t="n">
         <v>76328</v>
       </c>
-      <c r="CN22" t="n">
+      <c r="CO22" t="n">
         <v>77419</v>
       </c>
-      <c r="CO22" t="n">
+      <c r="CP22" t="n">
         <v>75392</v>
       </c>
-      <c r="CP22" t="n">
+      <c r="CQ22" t="n">
         <v>73784</v>
       </c>
-      <c r="CQ22" t="n">
+      <c r="CR22" t="n">
         <v>76987</v>
       </c>
-      <c r="CR22" t="n">
+      <c r="CS22" t="n">
         <v>78110</v>
       </c>
-      <c r="CS22" t="n">
+      <c r="CT22" t="n">
         <v>76063</v>
       </c>
-      <c r="CT22" t="n">
+      <c r="CU22" t="n">
         <v>74500</v>
       </c>
-      <c r="CU22" t="n">
+      <c r="CV22" t="n">
         <v>77699</v>
       </c>
-      <c r="CV22" t="n">
+      <c r="CW22" t="n">
         <v>78918</v>
       </c>
-      <c r="CW22" t="n">
+      <c r="CX22" t="n">
         <v>76756</v>
       </c>
-      <c r="CX22" t="n">
+      <c r="CY22" t="n">
         <v>75159</v>
       </c>
-      <c r="CY22" t="n">
+      <c r="CZ22" t="n">
         <v>78160</v>
       </c>
-      <c r="CZ22" t="n">
+      <c r="DA22" t="n">
         <v>79006</v>
       </c>
-      <c r="DA22" t="n">
+      <c r="DB22" t="n">
         <v>76493</v>
       </c>
-      <c r="DB22" t="n">
+      <c r="DC22" t="n">
         <v>74956</v>
       </c>
-      <c r="DC22" t="n">
+      <c r="DD22" t="n">
         <v>77782</v>
       </c>
-      <c r="DD22" t="n">
+      <c r="DE22" t="n">
         <v>78782</v>
       </c>
-      <c r="DE22" t="n">
+      <c r="DF22" t="n">
         <v>76976</v>
       </c>
-      <c r="DF22" t="n">
+      <c r="DG22" t="n">
         <v>75517</v>
       </c>
-      <c r="DG22" t="n">
+      <c r="DH22" t="n">
         <v>78419</v>
       </c>
+      <c r="DI22" t="n">
+        <v>79323</v>
+      </c>
     </row>
-    <row r="23" spans="1:111">
+    <row r="23">
       <c r="A23" s="1" t="n"/>
       <c r="B23" s="1" t="n"/>
-      <c r="C23" s="1" t="s">
-        <v>57</v>
+      <c r="C23" s="1" t="inlineStr">
+        <is>
+          <t>Taxes on products</t>
+        </is>
       </c>
       <c r="D23" t="n">
-        <v>81041</v>
+        <v>81030</v>
       </c>
       <c r="E23" t="n">
-        <v>74945</v>
+        <v>74935</v>
       </c>
       <c r="F23" t="n">
-        <v>73584</v>
+        <v>73574</v>
       </c>
       <c r="G23" t="n">
-        <v>77018</v>
+        <v>77007</v>
       </c>
       <c r="H23" t="n">
-        <v>90146</v>
+        <v>90133</v>
       </c>
       <c r="I23" t="n">
-        <v>88810</v>
+        <v>88797</v>
       </c>
       <c r="J23" t="n">
-        <v>95676</v>
+        <v>95662</v>
       </c>
       <c r="K23" t="n">
-        <v>119517</v>
+        <v>119499</v>
       </c>
       <c r="L23" t="n">
-        <v>117521</v>
+        <v>117504</v>
       </c>
       <c r="M23" t="n">
-        <v>111913</v>
+        <v>111897</v>
       </c>
       <c r="N23" t="n">
-        <v>118922</v>
+        <v>118905</v>
       </c>
       <c r="O23" t="n">
-        <v>110883</v>
+        <v>110868</v>
       </c>
       <c r="P23" t="n">
-        <v>99321</v>
+        <v>99308</v>
       </c>
       <c r="Q23" t="n">
-        <v>92918</v>
+        <v>92906</v>
       </c>
       <c r="R23" t="n">
-        <v>99186</v>
+        <v>99173</v>
       </c>
       <c r="S23" t="n">
-        <v>106244</v>
+        <v>106231</v>
       </c>
       <c r="T23" t="n">
-        <v>96622</v>
+        <v>96610</v>
       </c>
       <c r="U23" t="n">
-        <v>109819</v>
+        <v>109805</v>
       </c>
       <c r="V23" t="n">
-        <v>105526</v>
+        <v>105512</v>
       </c>
       <c r="W23" t="n">
         <v>93623</v>
       </c>
       <c r="X23" t="n">
-        <v>110072</v>
+        <v>110070</v>
       </c>
       <c r="Y23" t="n">
-        <v>23613</v>
+        <v>135548</v>
       </c>
       <c r="Z23" t="n">
-        <v>20373</v>
+        <v>23612</v>
       </c>
       <c r="AA23" t="n">
-        <v>16145</v>
+        <v>20370</v>
       </c>
       <c r="AB23" t="n">
-        <v>20909</v>
+        <v>16144</v>
       </c>
       <c r="AC23" t="n">
-        <v>21053</v>
+        <v>20904</v>
       </c>
       <c r="AD23" t="n">
-        <v>20853</v>
+        <v>21052</v>
       </c>
       <c r="AE23" t="n">
-        <v>13619</v>
+        <v>20850</v>
       </c>
       <c r="AF23" t="n">
-        <v>19419</v>
+        <v>13618</v>
       </c>
       <c r="AG23" t="n">
-        <v>20749</v>
+        <v>19415</v>
       </c>
       <c r="AH23" t="n">
-        <v>20542</v>
+        <v>20748</v>
       </c>
       <c r="AI23" t="n">
-        <v>12182</v>
+        <v>20539</v>
       </c>
       <c r="AJ23" t="n">
-        <v>20110</v>
+        <v>12181</v>
       </c>
       <c r="AK23" t="n">
-        <v>19763</v>
+        <v>20106</v>
       </c>
       <c r="AL23" t="n">
-        <v>18927</v>
+        <v>19762</v>
       </c>
       <c r="AM23" t="n">
-        <v>14234</v>
+        <v>18924</v>
       </c>
       <c r="AN23" t="n">
-        <v>24093</v>
+        <v>14233</v>
       </c>
       <c r="AO23" t="n">
-        <v>25490</v>
+        <v>24089</v>
       </c>
       <c r="AP23" t="n">
-        <v>23384</v>
+        <v>25488</v>
       </c>
       <c r="AQ23" t="n">
-        <v>16226</v>
+        <v>23381</v>
       </c>
       <c r="AR23" t="n">
-        <v>25044</v>
+        <v>16225</v>
       </c>
       <c r="AS23" t="n">
-        <v>25103</v>
+        <v>25040</v>
       </c>
       <c r="AT23" t="n">
-        <v>22975</v>
+        <v>25101</v>
       </c>
       <c r="AU23" t="n">
-        <v>18486</v>
+        <v>22972</v>
       </c>
       <c r="AV23" t="n">
-        <v>22243</v>
+        <v>18485</v>
       </c>
       <c r="AW23" t="n">
-        <v>24020</v>
+        <v>22240</v>
       </c>
       <c r="AX23" t="n">
-        <v>24832</v>
+        <v>24018</v>
       </c>
       <c r="AY23" t="n">
-        <v>19976</v>
+        <v>24829</v>
       </c>
       <c r="AZ23" t="n">
-        <v>26845</v>
+        <v>19975</v>
       </c>
       <c r="BA23" t="n">
-        <v>27103</v>
+        <v>26841</v>
       </c>
       <c r="BB23" t="n">
-        <v>28422</v>
+        <v>27100</v>
       </c>
       <c r="BC23" t="n">
-        <v>28485</v>
+        <v>28419</v>
       </c>
       <c r="BD23" t="n">
-        <v>35504</v>
+        <v>28483</v>
       </c>
       <c r="BE23" t="n">
-        <v>32002</v>
+        <v>35498</v>
       </c>
       <c r="BF23" t="n">
-        <v>29770</v>
+        <v>31999</v>
       </c>
       <c r="BG23" t="n">
-        <v>25911</v>
+        <v>29767</v>
       </c>
       <c r="BH23" t="n">
-        <v>29835</v>
+        <v>25909</v>
       </c>
       <c r="BI23" t="n">
-        <v>23872</v>
+        <v>29830</v>
       </c>
       <c r="BJ23" t="n">
-        <v>29692</v>
+        <v>23870</v>
       </c>
       <c r="BK23" t="n">
-        <v>28322</v>
+        <v>29689</v>
       </c>
       <c r="BL23" t="n">
-        <v>30024</v>
+        <v>28320</v>
       </c>
       <c r="BM23" t="n">
-        <v>27732</v>
+        <v>30019</v>
       </c>
       <c r="BN23" t="n">
-        <v>29274</v>
+        <v>27730</v>
       </c>
       <c r="BO23" t="n">
-        <v>28977</v>
+        <v>29271</v>
       </c>
       <c r="BP23" t="n">
-        <v>32936</v>
+        <v>28975</v>
       </c>
       <c r="BQ23" t="n">
-        <v>29543</v>
+        <v>32931</v>
       </c>
       <c r="BR23" t="n">
-        <v>27705</v>
+        <v>29541</v>
       </c>
       <c r="BS23" t="n">
-        <v>27145</v>
+        <v>27702</v>
       </c>
       <c r="BT23" t="n">
-        <v>26487</v>
+        <v>27143</v>
       </c>
       <c r="BU23" t="n">
-        <v>25247</v>
+        <v>26483</v>
       </c>
       <c r="BV23" t="n">
-        <v>25332</v>
+        <v>25245</v>
       </c>
       <c r="BW23" t="n">
-        <v>23340</v>
+        <v>25329</v>
       </c>
       <c r="BX23" t="n">
-        <v>25400</v>
+        <v>23338</v>
       </c>
       <c r="BY23" t="n">
-        <v>25080</v>
+        <v>25397</v>
       </c>
       <c r="BZ23" t="n">
-        <v>22548</v>
+        <v>25078</v>
       </c>
       <c r="CA23" t="n">
-        <v>21291</v>
+        <v>22545</v>
       </c>
       <c r="CB23" t="n">
-        <v>23997</v>
+        <v>21289</v>
       </c>
       <c r="CC23" t="n">
-        <v>23471</v>
+        <v>23994</v>
       </c>
       <c r="CD23" t="n">
-        <v>22857</v>
+        <v>23469</v>
       </c>
       <c r="CE23" t="n">
-        <v>26106</v>
+        <v>22854</v>
       </c>
       <c r="CF23" t="n">
-        <v>26749</v>
+        <v>26103</v>
       </c>
       <c r="CG23" t="n">
-        <v>26904</v>
+        <v>26746</v>
       </c>
       <c r="CH23" t="n">
-        <v>29840</v>
+        <v>26901</v>
       </c>
       <c r="CI23" t="n">
-        <v>26474</v>
+        <v>29836</v>
       </c>
       <c r="CJ23" t="n">
-        <v>23024</v>
+        <v>26471</v>
       </c>
       <c r="CK23" t="n">
-        <v>21052</v>
+        <v>23022</v>
       </c>
       <c r="CL23" t="n">
-        <v>22209</v>
+        <v>21050</v>
       </c>
       <c r="CM23" t="n">
-        <v>24769</v>
+        <v>22206</v>
       </c>
       <c r="CN23" t="n">
-        <v>28590</v>
+        <v>24766</v>
       </c>
       <c r="CO23" t="n">
-        <v>26856</v>
+        <v>28587</v>
       </c>
       <c r="CP23" t="n">
-        <v>27257</v>
+        <v>26853</v>
       </c>
       <c r="CQ23" t="n">
-        <v>24132</v>
+        <v>27253</v>
       </c>
       <c r="CR23" t="n">
-        <v>31572</v>
+        <v>24130</v>
       </c>
       <c r="CS23" t="n">
-        <v>30260</v>
+        <v>31568</v>
       </c>
       <c r="CT23" t="n">
-        <v>28177</v>
+        <v>30256</v>
       </c>
       <c r="CU23" t="n">
-        <v>24045</v>
+        <v>28172</v>
       </c>
       <c r="CV23" t="n">
-        <v>23043</v>
+        <v>24043</v>
       </c>
       <c r="CW23" t="n">
-        <v>24800</v>
+        <v>23040</v>
       </c>
       <c r="CX23" t="n">
-        <v>26014</v>
+        <v>24797</v>
       </c>
       <c r="CY23" t="n">
-        <v>20111</v>
+        <v>26010</v>
       </c>
       <c r="CZ23" t="n">
-        <v>22697</v>
+        <v>20109</v>
       </c>
       <c r="DA23" t="n">
-        <v>24572</v>
+        <v>22707</v>
       </c>
       <c r="DB23" t="n">
-        <v>23744</v>
+        <v>24570</v>
       </c>
       <c r="DC23" t="n">
-        <v>30637</v>
+        <v>23740</v>
       </c>
       <c r="DD23" t="n">
-        <v>31117</v>
+        <v>30640</v>
       </c>
       <c r="DE23" t="n">
-        <v>36095</v>
+        <v>31121</v>
       </c>
       <c r="DF23" t="n">
-        <v>32917</v>
+        <v>36103</v>
       </c>
       <c r="DG23" t="n">
-        <v>35431</v>
+        <v>32925</v>
+      </c>
+      <c r="DH23" t="n">
+        <v>35426</v>
+      </c>
+      <c r="DI23" t="n">
+        <v>31094</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="24">
-    <mergeCell ref="Y1:AB1"/>
-    <mergeCell ref="AC1:AF1"/>
-    <mergeCell ref="AG1:AJ1"/>
-    <mergeCell ref="AK1:AN1"/>
-    <mergeCell ref="AO1:AR1"/>
-    <mergeCell ref="AS1:AV1"/>
-    <mergeCell ref="AW1:AZ1"/>
-    <mergeCell ref="BA1:BD1"/>
-    <mergeCell ref="BE1:BH1"/>
-    <mergeCell ref="BI1:BL1"/>
-    <mergeCell ref="BM1:BP1"/>
-    <mergeCell ref="BQ1:BT1"/>
-    <mergeCell ref="BU1:BX1"/>
-    <mergeCell ref="BY1:CB1"/>
-    <mergeCell ref="CC1:CF1"/>
-    <mergeCell ref="CG1:CJ1"/>
-    <mergeCell ref="CK1:CN1"/>
-    <mergeCell ref="CO1:CR1"/>
-    <mergeCell ref="CS1:CV1"/>
-    <mergeCell ref="CW1:CZ1"/>
-    <mergeCell ref="DA1:DD1"/>
-    <mergeCell ref="DE1:DG1"/>
+    <mergeCell ref="Z1:AC1"/>
+    <mergeCell ref="AD1:AG1"/>
+    <mergeCell ref="AH1:AK1"/>
+    <mergeCell ref="AL1:AO1"/>
+    <mergeCell ref="AP1:AS1"/>
+    <mergeCell ref="AT1:AW1"/>
+    <mergeCell ref="AX1:BA1"/>
+    <mergeCell ref="BB1:BE1"/>
+    <mergeCell ref="BF1:BI1"/>
+    <mergeCell ref="BJ1:BM1"/>
+    <mergeCell ref="BN1:BQ1"/>
+    <mergeCell ref="BR1:BU1"/>
+    <mergeCell ref="BV1:BY1"/>
+    <mergeCell ref="BZ1:CC1"/>
+    <mergeCell ref="CD1:CG1"/>
+    <mergeCell ref="CH1:CK1"/>
+    <mergeCell ref="CL1:CO1"/>
+    <mergeCell ref="CP1:CS1"/>
+    <mergeCell ref="CT1:CW1"/>
+    <mergeCell ref="CX1:DA1"/>
+    <mergeCell ref="DB1:DE1"/>
+    <mergeCell ref="DF1:DI1"/>
     <mergeCell ref="A4:A23"/>
     <mergeCell ref="B4:B23"/>
   </mergeCells>
